--- a/templates/PLDT.xlsx
+++ b/templates/PLDT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shwetac\project\changemanagement\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjul\office\changemanagement\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1715300B-D4B8-419F-9EEC-9D6E8D8A24B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8001D23-3139-4FAB-A78B-1DA8E5FDC61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dropdown" sheetId="12" state="hidden" r:id="rId1"/>
@@ -29,18 +29,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Deployment Activities'!$B$6:$R$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3815,25 +3807,7 @@
     <t>Remarks/Document Changes Made</t>
   </si>
   <si>
-    <t>&lt;Specify the impacted or involved services/systems&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Specify the change impact, clearly indicate if the change will incur a downtime&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Indicate the total duration of the downtime (in hh:mm format)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Indicate the total duration of the activity (in hh:mm format)&gt;</t>
-  </si>
-  <si>
     <t>Y/N/NA</t>
-  </si>
-  <si>
-    <t>&lt;Provide Production Owner Approval (Milind)  if less than 100%&gt;
-Y - Indicate the Document Center Number where evidence can be found (ex. email approval etc.)
-N - Indicate reason why approval has not yet been secured.
-N/A - Mark this section as N/A</t>
   </si>
   <si>
     <t>FULL NAME</t>
@@ -3938,9 +3912,6 @@
     <t>Validate the Changes</t>
   </si>
   <si>
-    <t>&lt;6/19/2024&gt;</t>
-  </si>
-  <si>
     <t>&lt;Shweta Chopde&gt;</t>
   </si>
   <si>
@@ -3951,6 +3922,27 @@
   </si>
   <si>
     <t>&lt;Take backup of nginx configuration file for infocast&gt;</t>
+  </si>
+  <si>
+    <t>Indicate the total duration of the downtime (in hh:mm format)</t>
+  </si>
+  <si>
+    <t>Indicate the total duration of the activity (in hh:mm format)</t>
+  </si>
+  <si>
+    <t>Specify the change impact, clearly indicate if the change will incur a downtime</t>
+  </si>
+  <si>
+    <t>Specify the impacted or involved services/systems</t>
+  </si>
+  <si>
+    <t>6/19/2024</t>
+  </si>
+  <si>
+    <t>Provide Production Owner Approval (Milind)  if less than 100%
+Y - Indicate the Document Center Number where evidence can be found (ex. email approval etc.)
+N - Indicate reason why approval has not yet been secured.
+N/A - Mark this section as N/A</t>
   </si>
 </sst>
 </file>
@@ -4720,7 +4712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4761,7 +4753,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4795,7 +4786,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4823,7 +4814,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4833,8 +4823,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4846,71 +4835,56 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4925,19 +4899,19 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4946,13 +4920,13 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4973,31 +4947,31 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5006,19 +4980,19 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5027,31 +5001,31 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5063,22 +5037,22 @@
     <xf numFmtId="0" fontId="23" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5108,10 +5082,10 @@
     <xf numFmtId="0" fontId="24" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5129,10 +5103,10 @@
     <xf numFmtId="0" fontId="24" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5141,7 +5115,7 @@
     <xf numFmtId="0" fontId="24" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5150,16 +5124,13 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5197,22 +5168,16 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="31" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5249,15 +5214,12 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="31" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5270,10 +5232,10 @@
     <xf numFmtId="164" fontId="29" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5300,7 +5262,7 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5318,10 +5280,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5366,7 +5328,7 @@
     <xf numFmtId="9" fontId="2" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5387,10 +5349,10 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="29" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5492,19 +5454,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5606,7 +5568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5633,7 +5595,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5699,7 +5661,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5711,12 +5673,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5737,6 +5693,12 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5779,8 +5741,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8143240" y="63868"/>
-          <a:ext cx="1596588" cy="486042"/>
+          <a:off x="7816215" y="63868"/>
+          <a:ext cx="1545788" cy="492392"/>
           <a:chOff x="11693770" y="195385"/>
           <a:chExt cx="3091992" cy="1472146"/>
         </a:xfrm>
@@ -6270,10 +6232,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8CC5B619-9320-4238-BDDE-877EC4B951AC}" name="Table3" displayName="Table3" ref="A2:C15" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8CC5B619-9320-4238-BDDE-877EC4B951AC}" name="Table3" displayName="Table3" ref="A2:C15" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A2:C15" xr:uid="{270DD1CF-2051-4E5A-9CDE-5E5972557C5D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4BC39829-56C5-4C1F-9FA8-D800D778941A}" name="#" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4BC39829-56C5-4C1F-9FA8-D800D778941A}" name="#" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{DBE511AE-0CE4-46F1-9B8E-C1482B6F0FA6}" name="Requirement"/>
     <tableColumn id="3" xr3:uid="{E71A8D5F-3C0E-44D0-AC75-059CE5EB5266}" name="Comment"/>
   </tableColumns>
@@ -6584,20 +6546,20 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>108</v>
       </c>
       <c r="B1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -6605,7 +6567,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -6613,7 +6575,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -6621,7 +6583,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
@@ -6640,1589 +6602,1589 @@
       <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" style="77" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" style="77" customWidth="1"/>
-    <col min="3" max="3" width="70.453125" style="74" customWidth="1"/>
-    <col min="4" max="4" width="70.81640625" style="74" customWidth="1"/>
-    <col min="5" max="8" width="21.453125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="62.81640625" style="74" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="74"/>
+    <col min="1" max="1" width="21.85546875" style="69" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" style="66" customWidth="1"/>
+    <col min="4" max="4" width="70.85546875" style="66" customWidth="1"/>
+    <col min="5" max="8" width="21.42578125" style="67" customWidth="1"/>
+    <col min="9" max="9" width="62.85546875" style="66" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="73"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="76" t="s">
+      <c r="B1" s="65"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="73"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:9" s="83" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79" t="s">
+      <c r="B2" s="65"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" s="75" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="I4" s="82" t="s">
+      <c r="I4" s="74" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="84" t="s">
+    <row r="5" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="88">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="80">
         <v>1</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-    </row>
-    <row r="7" spans="1:9" s="98" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="93"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="95" t="s">
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+    </row>
+    <row r="7" spans="1:9" s="90" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="97" t="s">
+      <c r="G7" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="98" t="s">
+      <c r="I7" s="90" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="98" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="93"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="96" t="s">
+    <row r="8" spans="1:9" s="90" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="85"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97" t="s">
+      <c r="D8" s="88"/>
+      <c r="E8" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="F8" s="97" t="s">
+      <c r="F8" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="H8" s="97" t="s">
+      <c r="H8" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="I8" s="98" t="s">
+      <c r="I8" s="90" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="98" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="93"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="96" t="s">
+    <row r="9" spans="1:9" s="90" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="97" t="s">
+      <c r="D9" s="86"/>
+      <c r="E9" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="97" t="s">
+      <c r="G9" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="I9" s="98" t="s">
+      <c r="I9" s="90" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="98" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="93"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95" t="s">
+    <row r="10" spans="1:9" s="90" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="85"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="97" t="s">
+      <c r="F10" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="97" t="s">
+      <c r="G10" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="97" t="s">
+      <c r="H10" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="I10" s="98" t="s">
+      <c r="I10" s="90" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="98" customFormat="1" ht="39" x14ac:dyDescent="0.35">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="96" t="s">
+    <row r="11" spans="1:9" s="90" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="85"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="97" t="s">
+      <c r="E11" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="F11" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="G11" s="97" t="s">
+      <c r="G11" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="H11" s="97" t="s">
+      <c r="H11" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="I11" s="98" t="s">
+      <c r="I11" s="90" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="52" x14ac:dyDescent="0.35">
-      <c r="A12" s="99"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="96" t="s">
+    <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="91"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="F12" s="101" t="s">
+      <c r="F12" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="G12" s="101" t="s">
+      <c r="G12" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="97" t="s">
+      <c r="H12" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="66" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="88">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="80">
         <v>2</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-    </row>
-    <row r="14" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A14" s="102"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="104" t="s">
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+    </row>
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="94"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="96" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="97" t="s">
+      <c r="D14" s="86"/>
+      <c r="E14" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="101" t="s">
+      <c r="F14" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="101" t="s">
+      <c r="G14" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="101" t="s">
+      <c r="H14" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="I14" s="66" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="105"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="97"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="273" t="s">
+      <c r="D15" s="100"/>
+      <c r="E15" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="273" t="s">
+      <c r="F15" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="273" t="s">
+      <c r="G15" s="261" t="s">
         <v>156</v>
       </c>
-      <c r="H15" s="273" t="s">
+      <c r="H15" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="I15" s="74" t="s">
+      <c r="I15" s="66" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="109"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="110" t="s">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="101"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="274"/>
-      <c r="F16" s="274"/>
-      <c r="G16" s="274"/>
-      <c r="H16" s="274"/>
-    </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="109"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="110" t="s">
+      <c r="D16" s="102"/>
+      <c r="E16" s="262"/>
+      <c r="F16" s="262"/>
+      <c r="G16" s="262"/>
+      <c r="H16" s="262"/>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="101"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="102" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="110"/>
-      <c r="E17" s="274"/>
-      <c r="F17" s="274"/>
-      <c r="G17" s="274"/>
-      <c r="H17" s="274"/>
-    </row>
-    <row r="18" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="109"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="110" t="s">
+      <c r="D17" s="102"/>
+      <c r="E17" s="262"/>
+      <c r="F17" s="262"/>
+      <c r="G17" s="262"/>
+      <c r="H17" s="262"/>
+    </row>
+    <row r="18" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="101"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D18" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="E18" s="274"/>
-      <c r="F18" s="274"/>
-      <c r="G18" s="274"/>
-      <c r="H18" s="274"/>
-    </row>
-    <row r="19" spans="1:9" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="109"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="111" t="s">
+      <c r="E18" s="262"/>
+      <c r="F18" s="262"/>
+      <c r="G18" s="262"/>
+      <c r="H18" s="262"/>
+    </row>
+    <row r="19" spans="1:9" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="101"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="103" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="274"/>
-      <c r="F19" s="274"/>
-      <c r="G19" s="274"/>
-      <c r="H19" s="274"/>
-    </row>
-    <row r="20" spans="1:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="109"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="111" t="s">
+      <c r="D19" s="103"/>
+      <c r="E19" s="262"/>
+      <c r="F19" s="262"/>
+      <c r="G19" s="262"/>
+      <c r="H19" s="262"/>
+    </row>
+    <row r="20" spans="1:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="101"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="274"/>
-      <c r="F20" s="274"/>
-      <c r="G20" s="274"/>
-      <c r="H20" s="274"/>
-    </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="109"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="110" t="s">
+      <c r="D20" s="103"/>
+      <c r="E20" s="262"/>
+      <c r="F20" s="262"/>
+      <c r="G20" s="262"/>
+      <c r="H20" s="262"/>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="101"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="274"/>
-      <c r="F21" s="274"/>
-      <c r="G21" s="274"/>
-      <c r="H21" s="274"/>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="112"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="114" t="s">
+      <c r="D21" s="103"/>
+      <c r="E21" s="262"/>
+      <c r="F21" s="262"/>
+      <c r="G21" s="262"/>
+      <c r="H21" s="262"/>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="104"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="106" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="275"/>
-      <c r="F22" s="275"/>
-      <c r="G22" s="275"/>
-      <c r="H22" s="275"/>
-    </row>
-    <row r="23" spans="1:9" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="105"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="107" t="s">
+      <c r="D22" s="106"/>
+      <c r="E22" s="263"/>
+      <c r="F22" s="263"/>
+      <c r="G22" s="263"/>
+      <c r="H22" s="263"/>
+    </row>
+    <row r="23" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="97"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="108"/>
-      <c r="E23" s="273" t="s">
+      <c r="D23" s="100"/>
+      <c r="E23" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="273" t="s">
+      <c r="F23" s="261" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="273" t="s">
+      <c r="G23" s="261" t="s">
         <v>156</v>
       </c>
-      <c r="H23" s="273" t="s">
+      <c r="H23" s="261" t="s">
         <v>156</v>
       </c>
-      <c r="I23" s="276" t="s">
+      <c r="I23" s="264" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="109"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="110" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="101"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="274"/>
-      <c r="F24" s="274"/>
-      <c r="G24" s="274"/>
-      <c r="H24" s="274"/>
-      <c r="I24" s="276"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="109"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="110" t="s">
+      <c r="D24" s="102"/>
+      <c r="E24" s="262"/>
+      <c r="F24" s="262"/>
+      <c r="G24" s="262"/>
+      <c r="H24" s="262"/>
+      <c r="I24" s="264"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="101"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="274"/>
-      <c r="F25" s="274"/>
-      <c r="G25" s="274"/>
-      <c r="H25" s="274"/>
-      <c r="I25" s="276"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="109"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="110" t="s">
+      <c r="D25" s="102"/>
+      <c r="E25" s="262"/>
+      <c r="F25" s="262"/>
+      <c r="G25" s="262"/>
+      <c r="H25" s="262"/>
+      <c r="I25" s="264"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="101"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="274"/>
-      <c r="F26" s="274"/>
-      <c r="G26" s="274"/>
-      <c r="H26" s="274"/>
-      <c r="I26" s="276"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="109"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="110" t="s">
+      <c r="D26" s="102"/>
+      <c r="E26" s="262"/>
+      <c r="F26" s="262"/>
+      <c r="G26" s="262"/>
+      <c r="H26" s="262"/>
+      <c r="I26" s="264"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="101"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="110"/>
-      <c r="E27" s="274"/>
-      <c r="F27" s="274"/>
-      <c r="G27" s="274"/>
-      <c r="H27" s="274"/>
-      <c r="I27" s="276"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="109"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="110" t="s">
+      <c r="D27" s="102"/>
+      <c r="E27" s="262"/>
+      <c r="F27" s="262"/>
+      <c r="G27" s="262"/>
+      <c r="H27" s="262"/>
+      <c r="I27" s="264"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="101"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="102" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="110"/>
-      <c r="E28" s="274"/>
-      <c r="F28" s="274"/>
-      <c r="G28" s="274"/>
-      <c r="H28" s="274"/>
-      <c r="I28" s="276"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="109"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="110" t="s">
+      <c r="D28" s="102"/>
+      <c r="E28" s="262"/>
+      <c r="F28" s="262"/>
+      <c r="G28" s="262"/>
+      <c r="H28" s="262"/>
+      <c r="I28" s="264"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="101"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="D29" s="110"/>
-      <c r="E29" s="274"/>
-      <c r="F29" s="274"/>
-      <c r="G29" s="274"/>
-      <c r="H29" s="274"/>
-      <c r="I29" s="276"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="109"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="110" t="s">
+      <c r="D29" s="102"/>
+      <c r="E29" s="262"/>
+      <c r="F29" s="262"/>
+      <c r="G29" s="262"/>
+      <c r="H29" s="262"/>
+      <c r="I29" s="264"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="101"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="110"/>
-      <c r="E30" s="274"/>
-      <c r="F30" s="274"/>
-      <c r="G30" s="274"/>
-      <c r="H30" s="274"/>
-      <c r="I30" s="276"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="109"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="110" t="s">
+      <c r="D30" s="102"/>
+      <c r="E30" s="262"/>
+      <c r="F30" s="262"/>
+      <c r="G30" s="262"/>
+      <c r="H30" s="262"/>
+      <c r="I30" s="264"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="101"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="110"/>
-      <c r="E31" s="274"/>
-      <c r="F31" s="274"/>
-      <c r="G31" s="274"/>
-      <c r="H31" s="274"/>
-      <c r="I31" s="276"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="109"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="110" t="s">
+      <c r="D31" s="102"/>
+      <c r="E31" s="262"/>
+      <c r="F31" s="262"/>
+      <c r="G31" s="262"/>
+      <c r="H31" s="262"/>
+      <c r="I31" s="264"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="101"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="110"/>
-      <c r="E32" s="274"/>
-      <c r="F32" s="274"/>
-      <c r="G32" s="274"/>
-      <c r="H32" s="274"/>
-      <c r="I32" s="276"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="109"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="110" t="s">
+      <c r="D32" s="102"/>
+      <c r="E32" s="262"/>
+      <c r="F32" s="262"/>
+      <c r="G32" s="262"/>
+      <c r="H32" s="262"/>
+      <c r="I32" s="264"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="101"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="102" t="s">
         <v>191</v>
       </c>
-      <c r="D33" s="110"/>
-      <c r="E33" s="274"/>
-      <c r="F33" s="274"/>
-      <c r="G33" s="274"/>
-      <c r="H33" s="274"/>
-      <c r="I33" s="276"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="109"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="110" t="s">
+      <c r="D33" s="102"/>
+      <c r="E33" s="262"/>
+      <c r="F33" s="262"/>
+      <c r="G33" s="262"/>
+      <c r="H33" s="262"/>
+      <c r="I33" s="264"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="101"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="110"/>
-      <c r="E34" s="274"/>
-      <c r="F34" s="274"/>
-      <c r="G34" s="274"/>
-      <c r="H34" s="274"/>
-      <c r="I34" s="276"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="109"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="110" t="s">
+      <c r="D34" s="102"/>
+      <c r="E34" s="262"/>
+      <c r="F34" s="262"/>
+      <c r="G34" s="262"/>
+      <c r="H34" s="262"/>
+      <c r="I34" s="264"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="101"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="102" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="110"/>
-      <c r="E35" s="274"/>
-      <c r="F35" s="274"/>
-      <c r="G35" s="274"/>
-      <c r="H35" s="274"/>
-      <c r="I35" s="276"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="112"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="114" t="s">
+      <c r="D35" s="102"/>
+      <c r="E35" s="262"/>
+      <c r="F35" s="262"/>
+      <c r="G35" s="262"/>
+      <c r="H35" s="262"/>
+      <c r="I35" s="264"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="104"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="D36" s="114"/>
-      <c r="E36" s="275"/>
-      <c r="F36" s="275"/>
-      <c r="G36" s="275"/>
-      <c r="H36" s="275"/>
-      <c r="I36" s="276"/>
-    </row>
-    <row r="37" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="105"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="107" t="s">
+      <c r="D36" s="106"/>
+      <c r="E36" s="263"/>
+      <c r="F36" s="263"/>
+      <c r="G36" s="263"/>
+      <c r="H36" s="263"/>
+      <c r="I36" s="264"/>
+    </row>
+    <row r="37" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="97"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="99" t="s">
         <v>195</v>
       </c>
-      <c r="D37" s="108"/>
-      <c r="E37" s="273" t="s">
+      <c r="D37" s="100"/>
+      <c r="E37" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="F37" s="273" t="s">
+      <c r="F37" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="G37" s="273" t="s">
+      <c r="G37" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="H37" s="273" t="s">
+      <c r="H37" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="I37" s="74" t="s">
+      <c r="I37" s="66" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="112"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="114" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="104"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="106" t="s">
         <v>197</v>
       </c>
-      <c r="D38" s="115"/>
-      <c r="E38" s="275"/>
-      <c r="F38" s="275"/>
-      <c r="G38" s="275"/>
-      <c r="H38" s="275"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="116"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="107" t="s">
+      <c r="D38" s="107"/>
+      <c r="E38" s="263"/>
+      <c r="F38" s="263"/>
+      <c r="G38" s="263"/>
+      <c r="H38" s="263"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="108"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="108"/>
-      <c r="E39" s="273" t="s">
+      <c r="D39" s="100"/>
+      <c r="E39" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="F39" s="273" t="s">
+      <c r="F39" s="261" t="s">
         <v>156</v>
       </c>
-      <c r="G39" s="273" t="s">
+      <c r="G39" s="261" t="s">
         <v>156</v>
       </c>
-      <c r="H39" s="273" t="s">
+      <c r="H39" s="261" t="s">
         <v>156</v>
       </c>
-      <c r="I39" s="276" t="s">
+      <c r="I39" s="264" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A40" s="118"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="98" t="s">
+    <row r="40" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="110"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="D40" s="120" t="s">
+      <c r="D40" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="E40" s="274"/>
-      <c r="F40" s="274"/>
-      <c r="G40" s="274"/>
-      <c r="H40" s="274"/>
-      <c r="I40" s="276"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="118"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="98" t="s">
+      <c r="E40" s="262"/>
+      <c r="F40" s="262"/>
+      <c r="G40" s="262"/>
+      <c r="H40" s="262"/>
+      <c r="I40" s="264"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="110"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="D41" s="120" t="s">
+      <c r="D41" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="E41" s="274"/>
-      <c r="F41" s="274"/>
-      <c r="G41" s="274"/>
-      <c r="H41" s="274"/>
-      <c r="I41" s="276"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="121"/>
-      <c r="B42" s="122"/>
-      <c r="C42" s="115" t="s">
+      <c r="E41" s="262"/>
+      <c r="F41" s="262"/>
+      <c r="G41" s="262"/>
+      <c r="H41" s="262"/>
+      <c r="I41" s="264"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="113"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="107" t="s">
         <v>204</v>
       </c>
-      <c r="D42" s="115"/>
-      <c r="E42" s="275"/>
-      <c r="F42" s="275"/>
-      <c r="G42" s="275"/>
-      <c r="H42" s="275"/>
-      <c r="I42" s="276"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="88">
+      <c r="D42" s="107"/>
+      <c r="E42" s="263"/>
+      <c r="F42" s="263"/>
+      <c r="G42" s="263"/>
+      <c r="H42" s="263"/>
+      <c r="I42" s="264"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="80">
         <v>3</v>
       </c>
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="278" t="s">
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="266" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="123"/>
-      <c r="C44" s="108" t="s">
+      <c r="B44" s="115"/>
+      <c r="C44" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="D44" s="108"/>
-      <c r="E44" s="273" t="s">
+      <c r="D44" s="100"/>
+      <c r="E44" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="F44" s="273" t="s">
+      <c r="F44" s="261" t="s">
         <v>156</v>
       </c>
-      <c r="G44" s="273" t="s">
+      <c r="G44" s="261" t="s">
         <v>156</v>
       </c>
-      <c r="H44" s="273" t="s">
+      <c r="H44" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="I44" s="276" t="s">
+      <c r="I44" s="264" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="279"/>
-      <c r="B45" s="124"/>
-      <c r="C45" s="98" t="s">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="267"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="277" t="s">
+      <c r="D45" s="265" t="s">
         <v>208</v>
       </c>
-      <c r="E45" s="274"/>
-      <c r="F45" s="274"/>
-      <c r="G45" s="274"/>
-      <c r="H45" s="274"/>
-      <c r="I45" s="276"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="279"/>
-      <c r="B46" s="124"/>
-      <c r="C46" s="98" t="s">
+      <c r="E45" s="262"/>
+      <c r="F45" s="262"/>
+      <c r="G45" s="262"/>
+      <c r="H45" s="262"/>
+      <c r="I45" s="264"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="267"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="D46" s="277"/>
-      <c r="E46" s="274"/>
-      <c r="F46" s="274"/>
-      <c r="G46" s="274"/>
-      <c r="H46" s="274"/>
-      <c r="I46" s="276"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="279"/>
-      <c r="B47" s="124"/>
-      <c r="C47" s="98" t="s">
+      <c r="D46" s="265"/>
+      <c r="E46" s="262"/>
+      <c r="F46" s="262"/>
+      <c r="G46" s="262"/>
+      <c r="H46" s="262"/>
+      <c r="I46" s="264"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="267"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D47" s="277"/>
-      <c r="E47" s="274"/>
-      <c r="F47" s="274"/>
-      <c r="G47" s="274"/>
-      <c r="H47" s="274"/>
-      <c r="I47" s="276"/>
-    </row>
-    <row r="48" spans="1:9" ht="194.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="279"/>
-      <c r="B48" s="124"/>
-      <c r="C48" s="110" t="s">
+      <c r="D47" s="265"/>
+      <c r="E47" s="262"/>
+      <c r="F47" s="262"/>
+      <c r="G47" s="262"/>
+      <c r="H47" s="262"/>
+      <c r="I47" s="264"/>
+    </row>
+    <row r="48" spans="1:9" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="267"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="D48" s="277"/>
-      <c r="E48" s="274"/>
-      <c r="F48" s="274"/>
-      <c r="G48" s="274"/>
-      <c r="H48" s="274"/>
-      <c r="I48" s="276"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="279"/>
-      <c r="B49" s="124"/>
-      <c r="C49" s="98" t="s">
+      <c r="D48" s="265"/>
+      <c r="E48" s="262"/>
+      <c r="F48" s="262"/>
+      <c r="G48" s="262"/>
+      <c r="H48" s="262"/>
+      <c r="I48" s="264"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="267"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="90" t="s">
         <v>212</v>
       </c>
-      <c r="D49" s="98"/>
-      <c r="E49" s="274"/>
-      <c r="F49" s="274"/>
-      <c r="G49" s="274"/>
-      <c r="H49" s="274"/>
-      <c r="I49" s="276"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="279"/>
-      <c r="B50" s="124"/>
-      <c r="C50" s="98" t="s">
+      <c r="D49" s="90"/>
+      <c r="E49" s="262"/>
+      <c r="F49" s="262"/>
+      <c r="G49" s="262"/>
+      <c r="H49" s="262"/>
+      <c r="I49" s="264"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="267"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="D50" s="98"/>
-      <c r="E50" s="274"/>
-      <c r="F50" s="274"/>
-      <c r="G50" s="274"/>
-      <c r="H50" s="274"/>
-      <c r="I50" s="276"/>
-    </row>
-    <row r="51" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A51" s="280"/>
-      <c r="B51" s="125"/>
-      <c r="C51" s="126" t="s">
+      <c r="D50" s="90"/>
+      <c r="E50" s="262"/>
+      <c r="F50" s="262"/>
+      <c r="G50" s="262"/>
+      <c r="H50" s="262"/>
+      <c r="I50" s="264"/>
+    </row>
+    <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="268"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="D51" s="115" t="s">
+      <c r="D51" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="E51" s="275"/>
-      <c r="F51" s="275"/>
-      <c r="G51" s="275"/>
-      <c r="H51" s="275"/>
-      <c r="I51" s="276"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="88"/>
-      <c r="B52" s="90" t="s">
+      <c r="E51" s="263"/>
+      <c r="F51" s="263"/>
+      <c r="G51" s="263"/>
+      <c r="H51" s="263"/>
+      <c r="I51" s="264"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="80"/>
+      <c r="B52" s="82" t="s">
         <v>216</v>
       </c>
-      <c r="C52" s="90"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="91"/>
-      <c r="F52" s="91"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="92"/>
-    </row>
-    <row r="53" spans="1:9" s="98" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A53" s="282" t="s">
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+    </row>
+    <row r="53" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="270" t="s">
         <v>163</v>
       </c>
-      <c r="B53" s="127"/>
-      <c r="C53" s="108" t="s">
+      <c r="B53" s="119"/>
+      <c r="C53" s="100" t="s">
         <v>217</v>
       </c>
-      <c r="D53" s="108"/>
-      <c r="E53" s="285" t="s">
+      <c r="D53" s="100"/>
+      <c r="E53" s="273" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="285" t="s">
+      <c r="F53" s="273" t="s">
         <v>155</v>
       </c>
-      <c r="G53" s="285" t="s">
+      <c r="G53" s="273" t="s">
         <v>156</v>
       </c>
-      <c r="H53" s="285" t="s">
+      <c r="H53" s="273" t="s">
         <v>155</v>
       </c>
-      <c r="I53" s="281" t="s">
+      <c r="I53" s="269" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="98" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A54" s="283"/>
-      <c r="B54" s="128"/>
-      <c r="C54" s="98" t="s">
+    <row r="54" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="271"/>
+      <c r="B54" s="120"/>
+      <c r="C54" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="D54" s="277" t="s">
+      <c r="D54" s="265" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="286"/>
-      <c r="F54" s="286"/>
-      <c r="G54" s="286"/>
-      <c r="H54" s="286"/>
-      <c r="I54" s="281"/>
-    </row>
-    <row r="55" spans="1:9" s="98" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A55" s="283"/>
-      <c r="B55" s="128"/>
-      <c r="C55" s="120" t="s">
+      <c r="E54" s="274"/>
+      <c r="F54" s="274"/>
+      <c r="G54" s="274"/>
+      <c r="H54" s="274"/>
+      <c r="I54" s="269"/>
+    </row>
+    <row r="55" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="271"/>
+      <c r="B55" s="120"/>
+      <c r="C55" s="112" t="s">
         <v>221</v>
       </c>
-      <c r="D55" s="277"/>
-      <c r="E55" s="286"/>
-      <c r="F55" s="286"/>
-      <c r="G55" s="286"/>
-      <c r="H55" s="286"/>
-      <c r="I55" s="281"/>
-    </row>
-    <row r="56" spans="1:9" s="98" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A56" s="283"/>
-      <c r="B56" s="128"/>
-      <c r="C56" s="98" t="s">
+      <c r="D55" s="265"/>
+      <c r="E55" s="274"/>
+      <c r="F55" s="274"/>
+      <c r="G55" s="274"/>
+      <c r="H55" s="274"/>
+      <c r="I55" s="269"/>
+    </row>
+    <row r="56" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="271"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="D56" s="277"/>
-      <c r="E56" s="286"/>
-      <c r="F56" s="286"/>
-      <c r="G56" s="286"/>
-      <c r="H56" s="286"/>
-      <c r="I56" s="281"/>
-    </row>
-    <row r="57" spans="1:9" s="98" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="284"/>
-      <c r="B57" s="129"/>
-      <c r="C57" s="115" t="s">
+      <c r="D56" s="265"/>
+      <c r="E56" s="274"/>
+      <c r="F56" s="274"/>
+      <c r="G56" s="274"/>
+      <c r="H56" s="274"/>
+      <c r="I56" s="269"/>
+    </row>
+    <row r="57" spans="1:9" s="90" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="272"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="D57" s="288"/>
-      <c r="E57" s="287"/>
-      <c r="F57" s="287"/>
-      <c r="G57" s="287"/>
-      <c r="H57" s="287"/>
-      <c r="I57" s="281"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="88"/>
-      <c r="B58" s="90" t="s">
+      <c r="D57" s="276"/>
+      <c r="E57" s="275"/>
+      <c r="F57" s="275"/>
+      <c r="G57" s="275"/>
+      <c r="H57" s="275"/>
+      <c r="I57" s="269"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="80"/>
+      <c r="B58" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="C58" s="89"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="130"/>
-      <c r="F58" s="91"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="131"/>
-    </row>
-    <row r="59" spans="1:9" s="98" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A59" s="289" t="s">
+      <c r="C58" s="81"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="123"/>
+    </row>
+    <row r="59" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="277" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="132"/>
-      <c r="C59" s="108" t="s">
+      <c r="B59" s="124"/>
+      <c r="C59" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="D59" s="108"/>
-      <c r="E59" s="285" t="s">
+      <c r="D59" s="100"/>
+      <c r="E59" s="273" t="s">
         <v>155</v>
       </c>
-      <c r="F59" s="285" t="s">
+      <c r="F59" s="273" t="s">
         <v>155</v>
       </c>
-      <c r="G59" s="285" t="s">
+      <c r="G59" s="273" t="s">
         <v>156</v>
       </c>
-      <c r="H59" s="285" t="s">
+      <c r="H59" s="273" t="s">
         <v>155</v>
       </c>
-      <c r="I59" s="281" t="s">
+      <c r="I59" s="269" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="98" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A60" s="290"/>
-      <c r="B60" s="133"/>
-      <c r="C60" s="98" t="s">
+    <row r="60" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="278"/>
+      <c r="B60" s="125"/>
+      <c r="C60" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="D60" s="98" t="s">
+      <c r="D60" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="E60" s="286"/>
-      <c r="F60" s="286"/>
-      <c r="G60" s="286"/>
-      <c r="H60" s="286"/>
-      <c r="I60" s="281"/>
-    </row>
-    <row r="61" spans="1:9" s="98" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A61" s="290"/>
-      <c r="B61" s="133"/>
-      <c r="C61" s="98" t="s">
+      <c r="E60" s="274"/>
+      <c r="F60" s="274"/>
+      <c r="G60" s="274"/>
+      <c r="H60" s="274"/>
+      <c r="I60" s="269"/>
+    </row>
+    <row r="61" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="278"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="286"/>
-      <c r="F61" s="286"/>
-      <c r="G61" s="286"/>
-      <c r="H61" s="286"/>
-      <c r="I61" s="281"/>
-    </row>
-    <row r="62" spans="1:9" s="98" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A62" s="291"/>
-      <c r="B62" s="134"/>
-      <c r="C62" s="115" t="s">
+      <c r="E61" s="274"/>
+      <c r="F61" s="274"/>
+      <c r="G61" s="274"/>
+      <c r="H61" s="274"/>
+      <c r="I61" s="269"/>
+    </row>
+    <row r="62" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="279"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="107" t="s">
         <v>228</v>
       </c>
-      <c r="D62" s="115"/>
-      <c r="E62" s="287"/>
-      <c r="F62" s="287"/>
-      <c r="G62" s="287"/>
-      <c r="H62" s="287"/>
-      <c r="I62" s="281"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="88"/>
-      <c r="B63" s="90" t="s">
+      <c r="D62" s="107"/>
+      <c r="E62" s="275"/>
+      <c r="F62" s="275"/>
+      <c r="G62" s="275"/>
+      <c r="H62" s="275"/>
+      <c r="I62" s="269"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="80"/>
+      <c r="B63" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="C63" s="89"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="130"/>
-      <c r="F63" s="91"/>
-      <c r="G63" s="92"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="131"/>
-    </row>
-    <row r="64" spans="1:9" s="98" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A64" s="135" t="s">
+      <c r="C63" s="81"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="122"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="123"/>
+    </row>
+    <row r="64" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="B64" s="127"/>
-      <c r="C64" s="136" t="s">
+      <c r="B64" s="119"/>
+      <c r="C64" s="128" t="s">
         <v>230</v>
       </c>
-      <c r="D64" s="108"/>
-      <c r="E64" s="285" t="s">
+      <c r="D64" s="100"/>
+      <c r="E64" s="273" t="s">
         <v>155</v>
       </c>
-      <c r="F64" s="285" t="s">
+      <c r="F64" s="273" t="s">
         <v>155</v>
       </c>
-      <c r="G64" s="285" t="s">
+      <c r="G64" s="273" t="s">
         <v>156</v>
       </c>
-      <c r="H64" s="285" t="s">
+      <c r="H64" s="273" t="s">
         <v>155</v>
       </c>
-      <c r="I64" s="281" t="s">
+      <c r="I64" s="269" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="98" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A65" s="137"/>
-      <c r="B65" s="128"/>
-      <c r="C65" s="98" t="s">
+    <row r="65" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="129"/>
+      <c r="B65" s="120"/>
+      <c r="C65" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="D65" s="110"/>
-      <c r="E65" s="286"/>
-      <c r="F65" s="286"/>
-      <c r="G65" s="286"/>
-      <c r="H65" s="286"/>
-      <c r="I65" s="281"/>
-    </row>
-    <row r="66" spans="1:9" s="98" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A66" s="137"/>
-      <c r="B66" s="128"/>
-      <c r="C66" s="98" t="s">
+      <c r="D65" s="102"/>
+      <c r="E65" s="274"/>
+      <c r="F65" s="274"/>
+      <c r="G65" s="274"/>
+      <c r="H65" s="274"/>
+      <c r="I65" s="269"/>
+    </row>
+    <row r="66" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="129"/>
+      <c r="B66" s="120"/>
+      <c r="C66" s="90" t="s">
         <v>232</v>
       </c>
-      <c r="E66" s="286"/>
-      <c r="F66" s="286"/>
-      <c r="G66" s="286"/>
-      <c r="H66" s="286"/>
-      <c r="I66" s="281"/>
-    </row>
-    <row r="67" spans="1:9" s="98" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A67" s="138"/>
-      <c r="B67" s="129"/>
-      <c r="C67" s="115" t="s">
+      <c r="E66" s="274"/>
+      <c r="F66" s="274"/>
+      <c r="G66" s="274"/>
+      <c r="H66" s="274"/>
+      <c r="I66" s="269"/>
+    </row>
+    <row r="67" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="130"/>
+      <c r="B67" s="121"/>
+      <c r="C67" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="D67" s="115"/>
-      <c r="E67" s="287"/>
-      <c r="F67" s="287"/>
-      <c r="G67" s="287"/>
-      <c r="H67" s="287"/>
-      <c r="I67" s="281"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="88" t="s">
+      <c r="D67" s="107"/>
+      <c r="E67" s="275"/>
+      <c r="F67" s="275"/>
+      <c r="G67" s="275"/>
+      <c r="H67" s="275"/>
+      <c r="I67" s="269"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="B68" s="90" t="s">
+      <c r="B68" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="C68" s="89"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="130"/>
-      <c r="F68" s="91"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="131"/>
-    </row>
-    <row r="69" spans="1:9" s="144" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="139"/>
-      <c r="B69" s="140"/>
-      <c r="C69" s="140" t="s">
+      <c r="C68" s="81"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="122"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="123"/>
+    </row>
+    <row r="69" spans="1:9" s="136" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="131"/>
+      <c r="B69" s="132"/>
+      <c r="C69" s="132" t="s">
         <v>235</v>
       </c>
-      <c r="D69" s="140"/>
-      <c r="E69" s="141" t="s">
+      <c r="D69" s="132"/>
+      <c r="E69" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="F69" s="141" t="s">
+      <c r="F69" s="133" t="s">
         <v>156</v>
       </c>
-      <c r="G69" s="142" t="s">
+      <c r="G69" s="134" t="s">
         <v>156</v>
       </c>
-      <c r="H69" s="142" t="s">
+      <c r="H69" s="134" t="s">
         <v>156</v>
       </c>
-      <c r="I69" s="143" t="s">
+      <c r="I69" s="135" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="144" customFormat="1" ht="26" x14ac:dyDescent="0.35">
-      <c r="A70" s="145"/>
-      <c r="B70" s="146"/>
-      <c r="C70" s="147" t="s">
+    <row r="70" spans="1:9" s="136" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="137"/>
+      <c r="B70" s="138"/>
+      <c r="C70" s="139" t="s">
         <v>236</v>
       </c>
-      <c r="D70" s="148" t="s">
+      <c r="D70" s="140" t="s">
         <v>237</v>
       </c>
-      <c r="E70" s="292" t="s">
+      <c r="E70" s="280" t="s">
         <v>155</v>
       </c>
-      <c r="F70" s="292" t="s">
+      <c r="F70" s="280" t="s">
         <v>155</v>
       </c>
-      <c r="G70" s="292" t="s">
+      <c r="G70" s="280" t="s">
         <v>156</v>
       </c>
-      <c r="H70" s="292" t="s">
+      <c r="H70" s="280" t="s">
         <v>155</v>
       </c>
-      <c r="I70" s="295" t="s">
+      <c r="I70" s="283" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="144" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A71" s="149"/>
-      <c r="B71" s="150"/>
-      <c r="C71" s="144" t="s">
+    <row r="71" spans="1:9" s="136" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="141"/>
+      <c r="B71" s="142"/>
+      <c r="C71" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="E71" s="293"/>
-      <c r="F71" s="293"/>
-      <c r="G71" s="293"/>
-      <c r="H71" s="293"/>
-      <c r="I71" s="295"/>
-    </row>
-    <row r="72" spans="1:9" s="144" customFormat="1" ht="26" x14ac:dyDescent="0.35">
-      <c r="A72" s="149"/>
-      <c r="B72" s="150"/>
-      <c r="C72" s="144" t="s">
+      <c r="E71" s="281"/>
+      <c r="F71" s="281"/>
+      <c r="G71" s="281"/>
+      <c r="H71" s="281"/>
+      <c r="I71" s="283"/>
+    </row>
+    <row r="72" spans="1:9" s="136" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="141"/>
+      <c r="B72" s="142"/>
+      <c r="C72" s="136" t="s">
         <v>239</v>
       </c>
-      <c r="D72" s="151" t="s">
+      <c r="D72" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="E72" s="293"/>
-      <c r="F72" s="293"/>
-      <c r="G72" s="293"/>
-      <c r="H72" s="293"/>
-      <c r="I72" s="295"/>
-    </row>
-    <row r="73" spans="1:9" s="144" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A73" s="152"/>
-      <c r="B73" s="153"/>
-      <c r="C73" s="153" t="s">
+      <c r="E72" s="281"/>
+      <c r="F72" s="281"/>
+      <c r="G72" s="281"/>
+      <c r="H72" s="281"/>
+      <c r="I72" s="283"/>
+    </row>
+    <row r="73" spans="1:9" s="136" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="144"/>
+      <c r="B73" s="145"/>
+      <c r="C73" s="145" t="s">
         <v>241</v>
       </c>
-      <c r="D73" s="153" t="s">
+      <c r="D73" s="145" t="s">
         <v>242</v>
       </c>
-      <c r="E73" s="294"/>
-      <c r="F73" s="294"/>
-      <c r="G73" s="294"/>
-      <c r="H73" s="294"/>
-      <c r="I73" s="295"/>
-    </row>
-    <row r="74" spans="1:9" s="144" customFormat="1" ht="26" x14ac:dyDescent="0.35">
-      <c r="A74" s="139"/>
-      <c r="B74" s="140"/>
-      <c r="C74" s="140" t="s">
+      <c r="E73" s="282"/>
+      <c r="F73" s="282"/>
+      <c r="G73" s="282"/>
+      <c r="H73" s="282"/>
+      <c r="I73" s="283"/>
+    </row>
+    <row r="74" spans="1:9" s="136" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="131"/>
+      <c r="B74" s="132"/>
+      <c r="C74" s="132" t="s">
         <v>243</v>
       </c>
-      <c r="D74" s="140" t="s">
+      <c r="D74" s="132" t="s">
         <v>244</v>
       </c>
-      <c r="E74" s="141" t="s">
+      <c r="E74" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="F74" s="141" t="s">
+      <c r="F74" s="133" t="s">
         <v>156</v>
       </c>
-      <c r="G74" s="142" t="s">
+      <c r="G74" s="134" t="s">
         <v>156</v>
       </c>
-      <c r="H74" s="141" t="s">
+      <c r="H74" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="I74" s="143" t="s">
+      <c r="I74" s="135" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="144" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="C75" s="143" t="s">
+    <row r="75" spans="1:9" s="136" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C75" s="135" t="s">
         <v>163</v>
       </c>
-      <c r="E75" s="154"/>
-      <c r="F75" s="154"/>
-      <c r="G75" s="154"/>
-      <c r="H75" s="154"/>
-    </row>
-    <row r="78" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="160" t="s">
+      <c r="E75" s="146"/>
+      <c r="F75" s="146"/>
+      <c r="G75" s="146"/>
+      <c r="H75" s="146"/>
+    </row>
+    <row r="78" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="151" t="s">
         <v>245</v>
       </c>
-      <c r="B78" s="160" t="s">
+      <c r="B78" s="151" t="s">
         <v>246</v>
       </c>
-      <c r="C78" s="160" t="s">
+      <c r="C78" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="160" t="s">
+      <c r="D78" s="151" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="296" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="284" t="s">
         <v>247</v>
       </c>
-      <c r="B79" s="158" t="s">
+      <c r="B79" s="149" t="s">
         <v>248</v>
       </c>
-      <c r="C79" s="158" t="s">
+      <c r="C79" s="149" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="159"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="296"/>
-      <c r="B80" s="158" t="s">
+      <c r="D79" s="150"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="284"/>
+      <c r="B80" s="149" t="s">
         <v>250</v>
       </c>
-      <c r="C80" s="158" t="s">
+      <c r="C80" s="149" t="s">
         <v>249</v>
       </c>
-      <c r="D80" s="159"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="296"/>
-      <c r="B81" s="158" t="s">
+      <c r="D80" s="150"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="284"/>
+      <c r="B81" s="149" t="s">
         <v>251</v>
       </c>
-      <c r="C81" s="158" t="s">
+      <c r="C81" s="149" t="s">
         <v>252</v>
       </c>
-      <c r="D81" s="159"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="296"/>
-      <c r="B82" s="158" t="s">
+      <c r="D81" s="150"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="284"/>
+      <c r="B82" s="149" t="s">
         <v>253</v>
       </c>
-      <c r="C82" s="158" t="s">
+      <c r="C82" s="149" t="s">
         <v>254</v>
       </c>
-      <c r="D82" s="159"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="296"/>
-      <c r="B83" s="158" t="s">
+      <c r="D82" s="150"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="284"/>
+      <c r="B83" s="149" t="s">
         <v>255</v>
       </c>
-      <c r="C83" s="158" t="s">
+      <c r="C83" s="149" t="s">
         <v>256</v>
       </c>
-      <c r="D83" s="159"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="296"/>
-      <c r="B84" s="158" t="s">
+      <c r="D83" s="150"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="284"/>
+      <c r="B84" s="149" t="s">
         <v>257</v>
       </c>
-      <c r="C84" s="158" t="s">
+      <c r="C84" s="149" t="s">
         <v>256</v>
       </c>
-      <c r="D84" s="159"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="296"/>
-      <c r="B85" s="158" t="s">
+      <c r="D84" s="150"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="284"/>
+      <c r="B85" s="149" t="s">
         <v>258</v>
       </c>
-      <c r="C85" s="158" t="s">
+      <c r="C85" s="149" t="s">
         <v>249</v>
       </c>
-      <c r="D85" s="159"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="90"/>
-      <c r="B86" s="90"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="90"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="296" t="s">
+      <c r="D85" s="150"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="82"/>
+      <c r="B86" s="82"/>
+      <c r="C86" s="82"/>
+      <c r="D86" s="82"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="284" t="s">
         <v>259</v>
       </c>
-      <c r="B87" s="158" t="s">
+      <c r="B87" s="149" t="s">
         <v>260</v>
       </c>
-      <c r="C87" s="158" t="s">
+      <c r="C87" s="149" t="s">
         <v>261</v>
       </c>
-      <c r="D87" s="159"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="296"/>
-      <c r="B88" s="158" t="s">
+      <c r="D87" s="150"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="284"/>
+      <c r="B88" s="149" t="s">
         <v>262</v>
       </c>
-      <c r="C88" s="158" t="s">
+      <c r="C88" s="149" t="s">
         <v>263</v>
       </c>
-      <c r="D88" s="159"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="296"/>
-      <c r="B89" s="158" t="s">
+      <c r="D88" s="150"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="284"/>
+      <c r="B89" s="149" t="s">
         <v>264</v>
       </c>
-      <c r="C89" s="158" t="s">
+      <c r="C89" s="149" t="s">
         <v>263</v>
       </c>
-      <c r="D89" s="159"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="296"/>
-      <c r="B90" s="158" t="s">
+      <c r="D89" s="150"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="284"/>
+      <c r="B90" s="149" t="s">
         <v>265</v>
       </c>
-      <c r="C90" s="158" t="s">
+      <c r="C90" s="149" t="s">
         <v>261</v>
       </c>
-      <c r="D90" s="159"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="296"/>
-      <c r="B91" s="158" t="s">
+      <c r="D90" s="150"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="284"/>
+      <c r="B91" s="149" t="s">
         <v>266</v>
       </c>
-      <c r="C91" s="158" t="s">
+      <c r="C91" s="149" t="s">
         <v>261</v>
       </c>
-      <c r="D91" s="159"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="296"/>
-      <c r="B92" s="158" t="s">
+      <c r="D91" s="150"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="284"/>
+      <c r="B92" s="149" t="s">
         <v>267</v>
       </c>
-      <c r="C92" s="158" t="s">
+      <c r="C92" s="149" t="s">
         <v>261</v>
       </c>
-      <c r="D92" s="159"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="296"/>
-      <c r="B93" s="158" t="s">
+      <c r="D92" s="150"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="284"/>
+      <c r="B93" s="149" t="s">
         <v>268</v>
       </c>
-      <c r="C93" s="158" t="s">
+      <c r="C93" s="149" t="s">
         <v>261</v>
       </c>
-      <c r="D93" s="159"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="296"/>
-      <c r="B94" s="158" t="s">
+      <c r="D93" s="150"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="284"/>
+      <c r="B94" s="149" t="s">
         <v>269</v>
       </c>
-      <c r="C94" s="158" t="s">
+      <c r="C94" s="149" t="s">
         <v>263</v>
       </c>
-      <c r="D94" s="159"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="296"/>
-      <c r="B95" s="158" t="s">
+      <c r="D94" s="150"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="284"/>
+      <c r="B95" s="149" t="s">
         <v>270</v>
       </c>
-      <c r="C95" s="158" t="s">
+      <c r="C95" s="149" t="s">
         <v>261</v>
       </c>
-      <c r="D95" s="159"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="296"/>
-      <c r="B96" s="158" t="s">
+      <c r="D95" s="150"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="284"/>
+      <c r="B96" s="149" t="s">
         <v>271</v>
       </c>
-      <c r="C96" s="158" t="s">
+      <c r="C96" s="149" t="s">
         <v>261</v>
       </c>
-      <c r="D96" s="159"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="296"/>
-      <c r="B97" s="158" t="s">
+      <c r="D96" s="150"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="284"/>
+      <c r="B97" s="149" t="s">
         <v>272</v>
       </c>
-      <c r="C97" s="158" t="s">
+      <c r="C97" s="149" t="s">
         <v>273</v>
       </c>
-      <c r="D97" s="159"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="296"/>
-      <c r="B98" s="158" t="s">
+      <c r="D97" s="150"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="284"/>
+      <c r="B98" s="149" t="s">
         <v>274</v>
       </c>
-      <c r="C98" s="158" t="s">
+      <c r="C98" s="149" t="s">
         <v>273</v>
       </c>
-      <c r="D98" s="159"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="296"/>
-      <c r="B99" s="158" t="s">
+      <c r="D98" s="150"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="284"/>
+      <c r="B99" s="149" t="s">
         <v>275</v>
       </c>
-      <c r="C99" s="158" t="s">
+      <c r="C99" s="149" t="s">
         <v>273</v>
       </c>
-      <c r="D99" s="159"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="296"/>
-      <c r="B100" s="158" t="s">
+      <c r="D99" s="150"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="284"/>
+      <c r="B100" s="149" t="s">
         <v>276</v>
       </c>
-      <c r="C100" s="158" t="s">
+      <c r="C100" s="149" t="s">
         <v>261</v>
       </c>
-      <c r="D100" s="159"/>
-    </row>
-    <row r="101" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="160" t="s">
+      <c r="D100" s="150"/>
+    </row>
+    <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="151" t="s">
         <v>245</v>
       </c>
-      <c r="B101" s="160" t="s">
+      <c r="B101" s="151" t="s">
         <v>246</v>
       </c>
-      <c r="C101" s="160" t="s">
+      <c r="C101" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="D101" s="160" t="s">
+      <c r="D101" s="151" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="296" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="284" t="s">
         <v>277</v>
       </c>
-      <c r="B102" s="158" t="s">
+      <c r="B102" s="149" t="s">
         <v>278</v>
       </c>
-      <c r="C102" s="158" t="s">
+      <c r="C102" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="D102" s="159"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="296"/>
-      <c r="B103" s="158" t="s">
+      <c r="D102" s="150"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="284"/>
+      <c r="B103" s="149" t="s">
         <v>280</v>
       </c>
-      <c r="C103" s="158" t="s">
+      <c r="C103" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="D103" s="159"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="296"/>
-      <c r="B104" s="158" t="s">
+      <c r="D103" s="150"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="284"/>
+      <c r="B104" s="149" t="s">
         <v>281</v>
       </c>
-      <c r="C104" s="158" t="s">
+      <c r="C104" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="D104" s="159"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="296"/>
-      <c r="B105" s="158" t="s">
+      <c r="D104" s="150"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="284"/>
+      <c r="B105" s="149" t="s">
         <v>282</v>
       </c>
-      <c r="C105" s="158" t="s">
+      <c r="C105" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="D105" s="159"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="296"/>
-      <c r="B106" s="158" t="s">
+      <c r="D105" s="150"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="284"/>
+      <c r="B106" s="149" t="s">
         <v>283</v>
       </c>
-      <c r="C106" s="158" t="s">
+      <c r="C106" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="D106" s="159"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="296"/>
-      <c r="B107" s="158" t="s">
+      <c r="D106" s="150"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="284"/>
+      <c r="B107" s="149" t="s">
         <v>284</v>
       </c>
-      <c r="C107" s="158" t="s">
+      <c r="C107" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="D107" s="159"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="296"/>
-      <c r="B108" s="158" t="s">
+      <c r="D107" s="150"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="284"/>
+      <c r="B108" s="149" t="s">
         <v>285</v>
       </c>
-      <c r="C108" s="158" t="s">
+      <c r="C108" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="D108" s="159"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="296"/>
-      <c r="B109" s="158" t="s">
+      <c r="D108" s="150"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="284"/>
+      <c r="B109" s="149" t="s">
         <v>286</v>
       </c>
-      <c r="C109" s="158" t="s">
+      <c r="C109" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="D109" s="159"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="296"/>
-      <c r="B110" s="158" t="s">
+      <c r="D109" s="150"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="284"/>
+      <c r="B110" s="149" t="s">
         <v>287</v>
       </c>
-      <c r="C110" s="158" t="s">
+      <c r="C110" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="D110" s="159"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="296"/>
-      <c r="B111" s="158" t="s">
+      <c r="D110" s="150"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="284"/>
+      <c r="B111" s="149" t="s">
         <v>288</v>
       </c>
-      <c r="C111" s="158" t="s">
+      <c r="C111" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="D111" s="159"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="90"/>
-      <c r="B112" s="90"/>
-      <c r="C112" s="90"/>
-      <c r="D112" s="90"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="296" t="s">
+      <c r="D111" s="150"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="82"/>
+      <c r="B112" s="82"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="82"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="284" t="s">
         <v>289</v>
       </c>
-      <c r="B113" s="158" t="s">
+      <c r="B113" s="149" t="s">
         <v>290</v>
       </c>
-      <c r="C113" s="158" t="s">
+      <c r="C113" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="D113" s="159"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="296"/>
-      <c r="B114" s="158" t="s">
+      <c r="D113" s="150"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="284"/>
+      <c r="B114" s="149" t="s">
         <v>291</v>
       </c>
-      <c r="C114" s="158" t="s">
+      <c r="C114" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="D114" s="159"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="90"/>
-      <c r="B115" s="90"/>
-      <c r="C115" s="90"/>
-      <c r="D115" s="90"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="296" t="s">
+      <c r="D114" s="150"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="82"/>
+      <c r="B115" s="82"/>
+      <c r="C115" s="82"/>
+      <c r="D115" s="82"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="284" t="s">
         <v>292</v>
       </c>
-      <c r="B116" s="158" t="s">
+      <c r="B116" s="149" t="s">
         <v>293</v>
       </c>
-      <c r="C116" s="158" t="s">
+      <c r="C116" s="149" t="s">
         <v>294</v>
       </c>
-      <c r="D116" s="158"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="296"/>
-      <c r="B117" s="158" t="s">
+      <c r="D116" s="149"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="284"/>
+      <c r="B117" s="149" t="s">
         <v>295</v>
       </c>
-      <c r="C117" s="158" t="s">
+      <c r="C117" s="149" t="s">
         <v>296</v>
       </c>
-      <c r="D117" s="158"/>
+      <c r="D117" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="53">
@@ -8293,126 +8255,126 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" customWidth="1"/>
-    <col min="3" max="3" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="171" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" s="172" t="s">
-        <v>335</v>
-      </c>
-      <c r="D2" s="173" t="s">
-        <v>336</v>
-      </c>
-      <c r="E2" s="173" t="s">
-        <v>338</v>
-      </c>
-      <c r="F2" s="173" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="170"/>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="162" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="163" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="164" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="164" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="164" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="161"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="169"/>
-    </row>
-    <row r="4" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4" s="170" t="s">
-        <v>351</v>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+    </row>
+    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="161" t="s">
+        <v>346</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E4" s="196" t="s">
-        <v>358</v>
-      </c>
-      <c r="F4" s="169" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="170"/>
-      <c r="C5" s="184" t="s">
-        <v>341</v>
+        <v>339</v>
+      </c>
+      <c r="E4" s="184" t="s">
+        <v>353</v>
+      </c>
+      <c r="F4" s="160" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="161"/>
+      <c r="C5" s="173" t="s">
+        <v>336</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="185" t="s">
-        <v>342</v>
-      </c>
-      <c r="F5" s="169" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="170"/>
+      <c r="E5" s="174" t="s">
+        <v>337</v>
+      </c>
+      <c r="F5" s="160" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="161"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="169"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="170"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="160"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="161"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="169"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="170"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="160"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="161"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="169"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="170"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="160"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="161"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="169"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="170"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="160"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="161"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="169"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="170"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="160"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="161"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="169"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="170"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="160"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="161"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="169"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="170"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="160"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="161"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="169"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="160"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8430,144 +8392,144 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="8.54296875" customWidth="1"/>
-    <col min="16" max="16" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="45"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="297" t="s">
+      <c r="D3" s="285" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
-      <c r="L3" s="298"/>
-      <c r="M3" s="298"/>
-      <c r="N3" s="298"/>
-      <c r="O3" s="299"/>
-      <c r="P3" s="303" t="s">
+      <c r="E3" s="286"/>
+      <c r="F3" s="286"/>
+      <c r="G3" s="286"/>
+      <c r="H3" s="286"/>
+      <c r="I3" s="286"/>
+      <c r="J3" s="286"/>
+      <c r="K3" s="286"/>
+      <c r="L3" s="286"/>
+      <c r="M3" s="286"/>
+      <c r="N3" s="286"/>
+      <c r="O3" s="287"/>
+      <c r="P3" s="291" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="304"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q3" s="292"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="300"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="301"/>
-      <c r="M4" s="301"/>
-      <c r="N4" s="301"/>
-      <c r="O4" s="302"/>
-      <c r="P4" s="305"/>
-      <c r="Q4" s="306"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B6" s="307" t="s">
+      <c r="D4" s="288"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="289"/>
+      <c r="J4" s="289"/>
+      <c r="K4" s="289"/>
+      <c r="L4" s="289"/>
+      <c r="M4" s="289"/>
+      <c r="N4" s="289"/>
+      <c r="O4" s="290"/>
+      <c r="P4" s="293"/>
+      <c r="Q4" s="294"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="295" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="308"/>
-      <c r="D6" s="308"/>
-      <c r="E6" s="308"/>
-      <c r="F6" s="308"/>
-      <c r="G6" s="308"/>
-      <c r="H6" s="308"/>
-      <c r="I6" s="308"/>
-      <c r="J6" s="308"/>
-      <c r="K6" s="308"/>
-      <c r="L6" s="308"/>
-      <c r="M6" s="308"/>
-      <c r="N6" s="308"/>
-      <c r="O6" s="308"/>
-      <c r="P6" s="308"/>
-      <c r="Q6" s="309"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B7" s="310"/>
-      <c r="C7" s="311"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="311"/>
-      <c r="F7" s="311"/>
-      <c r="G7" s="311"/>
-      <c r="H7" s="311"/>
-      <c r="I7" s="311"/>
-      <c r="J7" s="311"/>
-      <c r="K7" s="311"/>
-      <c r="L7" s="311"/>
-      <c r="M7" s="311"/>
-      <c r="N7" s="311"/>
-      <c r="O7" s="311"/>
-      <c r="P7" s="311"/>
-      <c r="Q7" s="312"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="313"/>
-      <c r="C8" s="314"/>
-      <c r="D8" s="314"/>
-      <c r="E8" s="314"/>
-      <c r="F8" s="314"/>
-      <c r="G8" s="314"/>
-      <c r="H8" s="314"/>
-      <c r="I8" s="314"/>
-      <c r="J8" s="314"/>
-      <c r="K8" s="314"/>
-      <c r="L8" s="314"/>
-      <c r="M8" s="314"/>
-      <c r="N8" s="314"/>
-      <c r="O8" s="314"/>
-      <c r="P8" s="314"/>
-      <c r="Q8" s="315"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="316" t="s">
+      <c r="C6" s="296"/>
+      <c r="D6" s="296"/>
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+      <c r="K6" s="296"/>
+      <c r="L6" s="296"/>
+      <c r="M6" s="296"/>
+      <c r="N6" s="296"/>
+      <c r="O6" s="296"/>
+      <c r="P6" s="296"/>
+      <c r="Q6" s="297"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="298"/>
+      <c r="C7" s="299"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="299"/>
+      <c r="J7" s="299"/>
+      <c r="K7" s="299"/>
+      <c r="L7" s="299"/>
+      <c r="M7" s="299"/>
+      <c r="N7" s="299"/>
+      <c r="O7" s="299"/>
+      <c r="P7" s="299"/>
+      <c r="Q7" s="300"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="301"/>
+      <c r="C8" s="302"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="302"/>
+      <c r="I8" s="302"/>
+      <c r="J8" s="302"/>
+      <c r="K8" s="302"/>
+      <c r="L8" s="302"/>
+      <c r="M8" s="302"/>
+      <c r="N8" s="302"/>
+      <c r="O8" s="302"/>
+      <c r="P8" s="302"/>
+      <c r="Q8" s="303"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="304" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="317"/>
-      <c r="D10" s="317"/>
-      <c r="E10" s="317"/>
-      <c r="F10" s="317"/>
-      <c r="G10" s="317"/>
-      <c r="H10" s="317"/>
-      <c r="I10" s="317"/>
-      <c r="J10" s="317"/>
-      <c r="K10" s="317"/>
-      <c r="L10" s="317"/>
-      <c r="M10" s="317"/>
-      <c r="N10" s="317"/>
-      <c r="O10" s="317"/>
-      <c r="P10" s="317"/>
-      <c r="Q10" s="318"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="305"/>
+      <c r="D10" s="305"/>
+      <c r="E10" s="305"/>
+      <c r="F10" s="305"/>
+      <c r="G10" s="305"/>
+      <c r="H10" s="305"/>
+      <c r="I10" s="305"/>
+      <c r="J10" s="305"/>
+      <c r="K10" s="305"/>
+      <c r="L10" s="305"/>
+      <c r="M10" s="305"/>
+      <c r="N10" s="305"/>
+      <c r="O10" s="305"/>
+      <c r="P10" s="305"/>
+      <c r="Q10" s="306"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
-      <c r="C11" s="319" t="s">
+      <c r="C11" s="307" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="319"/>
+      <c r="D11" s="307"/>
       <c r="E11" s="17" t="s">
         <v>40</v>
       </c>
@@ -8576,10 +8538,10 @@
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="319" t="s">
+      <c r="K11" s="307" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="319"/>
+      <c r="L11" s="307"/>
       <c r="M11" s="17" t="s">
         <v>42</v>
       </c>
@@ -8588,428 +8550,386 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="14"/>
     </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19"/>
-      <c r="C12" s="320" t="s">
+      <c r="C12" s="308" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="320"/>
+      <c r="D12" s="308"/>
       <c r="E12" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="320" t="s">
+      <c r="K12" s="308" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="320"/>
+      <c r="L12" s="308"/>
       <c r="M12" s="17" t="s">
         <v>46</v>
       </c>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
-      <c r="Q12" s="21"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q12" s="20"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="19"/>
-      <c r="C13" s="320" t="s">
+      <c r="C13" s="308" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="320"/>
+      <c r="D13" s="308"/>
       <c r="E13" s="17" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="320" t="s">
+      <c r="K13" s="308" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="320"/>
+      <c r="L13" s="308"/>
       <c r="M13" s="17" t="s">
         <v>50</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
-      <c r="Q13" s="21"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q13" s="20"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="19"/>
-      <c r="C14" s="320" t="s">
+      <c r="C14" s="308" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="320"/>
+      <c r="D14" s="308"/>
       <c r="E14" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="320" t="s">
+      <c r="K14" s="308" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="320"/>
+      <c r="L14" s="308"/>
       <c r="M14" s="17" t="s">
         <v>54</v>
       </c>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
-      <c r="Q14" s="21"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q14" s="20"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="19"/>
-      <c r="C15" s="320" t="s">
+      <c r="C15" s="308" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="320"/>
+      <c r="D15" s="308"/>
       <c r="E15" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="21"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="21"/>
-    </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q16" s="20"/>
+    </row>
+    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="19"/>
-      <c r="C17" s="321" t="s">
+      <c r="C17" s="309" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="322"/>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="310"/>
+      <c r="E17" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="323" t="s">
+      <c r="F17" s="311" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="323"/>
-      <c r="H17" s="323"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="321" t="s">
+      <c r="G17" s="311"/>
+      <c r="H17" s="311"/>
+      <c r="K17" s="309" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="324"/>
-      <c r="M17" s="324"/>
-      <c r="N17" s="322"/>
-      <c r="O17" s="24" t="s">
+      <c r="L17" s="312"/>
+      <c r="M17" s="312"/>
+      <c r="N17" s="310"/>
+      <c r="O17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="P17" s="24" t="s">
+      <c r="P17" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Q17" s="21"/>
-    </row>
-    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q17" s="20"/>
+    </row>
+    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="19"/>
-      <c r="C18" s="321"/>
-      <c r="D18" s="322"/>
-      <c r="E18" s="25" t="s">
+      <c r="C18" s="309"/>
+      <c r="D18" s="310"/>
+      <c r="E18" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="323"/>
-      <c r="G18" s="323"/>
-      <c r="H18" s="323"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="325" t="s">
+      <c r="F18" s="311"/>
+      <c r="G18" s="311"/>
+      <c r="H18" s="311"/>
+      <c r="K18" s="313" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="326"/>
-      <c r="M18" s="326"/>
-      <c r="N18" s="327"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L18" s="314"/>
+      <c r="M18" s="314"/>
+      <c r="N18" s="315"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="20"/>
+    </row>
+    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19"/>
-      <c r="C19" s="321"/>
-      <c r="D19" s="322"/>
-      <c r="E19" s="27" t="s">
+      <c r="C19" s="309"/>
+      <c r="D19" s="310"/>
+      <c r="E19" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="323"/>
-      <c r="G19" s="323"/>
-      <c r="H19" s="323"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="325" t="s">
+      <c r="F19" s="311"/>
+      <c r="G19" s="311"/>
+      <c r="H19" s="311"/>
+      <c r="K19" s="313" t="s">
         <v>66</v>
       </c>
-      <c r="L19" s="326"/>
-      <c r="M19" s="326"/>
-      <c r="N19" s="326"/>
-      <c r="O19" s="326"/>
-      <c r="P19" s="327"/>
-      <c r="Q19" s="21"/>
-    </row>
-    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L19" s="314"/>
+      <c r="M19" s="314"/>
+      <c r="N19" s="314"/>
+      <c r="O19" s="314"/>
+      <c r="P19" s="315"/>
+      <c r="Q19" s="20"/>
+    </row>
+    <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="21"/>
-    </row>
-    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="328" t="s">
+      <c r="Q20" s="20"/>
+    </row>
+    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="316" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="321" t="s">
+      <c r="C21" s="309" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="324"/>
-      <c r="E21" s="324"/>
-      <c r="F21" s="324"/>
-      <c r="G21" s="324"/>
-      <c r="H21" s="322"/>
-      <c r="I21" s="321" t="s">
+      <c r="D21" s="312"/>
+      <c r="E21" s="312"/>
+      <c r="F21" s="312"/>
+      <c r="G21" s="312"/>
+      <c r="H21" s="310"/>
+      <c r="I21" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="324"/>
-      <c r="K21" s="324"/>
-      <c r="L21" s="324"/>
-      <c r="M21" s="324"/>
-      <c r="N21" s="322"/>
-      <c r="O21" s="328" t="s">
+      <c r="J21" s="312"/>
+      <c r="K21" s="312"/>
+      <c r="L21" s="312"/>
+      <c r="M21" s="312"/>
+      <c r="N21" s="310"/>
+      <c r="O21" s="316" t="s">
         <v>70</v>
       </c>
-      <c r="P21" s="328" t="s">
+      <c r="P21" s="316" t="s">
         <v>71</v>
       </c>
-      <c r="Q21" s="333" t="s">
+      <c r="Q21" s="321" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="329"/>
-      <c r="C22" s="334" t="s">
+    <row r="22" spans="2:17" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="317"/>
+      <c r="C22" s="322" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="335"/>
-      <c r="E22" s="28" t="s">
+      <c r="D22" s="323"/>
+      <c r="E22" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="336" t="s">
+      <c r="G22" s="324" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="322"/>
-      <c r="I22" s="334" t="s">
+      <c r="H22" s="310"/>
+      <c r="I22" s="322" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="335"/>
-      <c r="K22" s="28" t="s">
+      <c r="J22" s="323"/>
+      <c r="K22" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="29" t="s">
+      <c r="L22" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="M22" s="336" t="s">
+      <c r="M22" s="324" t="s">
         <v>75</v>
       </c>
-      <c r="N22" s="322"/>
-      <c r="O22" s="329"/>
-      <c r="P22" s="330"/>
-      <c r="Q22" s="330"/>
-    </row>
-    <row r="23" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="27">
+      <c r="N22" s="310"/>
+      <c r="O22" s="317"/>
+      <c r="P22" s="318"/>
+      <c r="Q22" s="318"/>
+    </row>
+    <row r="23" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="26">
         <v>1</v>
       </c>
-      <c r="C23" s="337" t="s">
+      <c r="C23" s="325" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="338"/>
-      <c r="E23" s="30" t="s">
+      <c r="D23" s="326"/>
+      <c r="E23" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="331"/>
-      <c r="H23" s="332"/>
-      <c r="I23" s="31" t="s">
+      <c r="F23" s="26"/>
+      <c r="G23" s="319"/>
+      <c r="H23" s="320"/>
+      <c r="I23" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="339" t="s">
+      <c r="J23" s="31"/>
+      <c r="K23" s="327" t="s">
         <v>79</v>
       </c>
-      <c r="L23" s="27"/>
-      <c r="M23" s="331"/>
-      <c r="N23" s="332"/>
-      <c r="O23" s="27" t="s">
+      <c r="L23" s="26"/>
+      <c r="M23" s="319"/>
+      <c r="N23" s="320"/>
+      <c r="O23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-    </row>
-    <row r="24" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="27">
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+    </row>
+    <row r="24" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="26">
         <v>2</v>
       </c>
-      <c r="C24" s="337" t="s">
+      <c r="C24" s="325" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="338"/>
-      <c r="E24" s="30" t="s">
+      <c r="D24" s="326"/>
+      <c r="E24" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="331"/>
-      <c r="H24" s="332"/>
-      <c r="I24" s="31" t="s">
+      <c r="F24" s="26"/>
+      <c r="G24" s="319"/>
+      <c r="H24" s="320"/>
+      <c r="I24" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="32"/>
-      <c r="K24" s="340"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="331"/>
-      <c r="N24" s="332"/>
-      <c r="O24" s="27" t="s">
+      <c r="J24" s="31"/>
+      <c r="K24" s="328"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="319"/>
+      <c r="N24" s="320"/>
+      <c r="O24" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-    </row>
-    <row r="25" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="27">
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+    </row>
+    <row r="25" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="26">
         <v>3</v>
       </c>
-      <c r="C25" s="337" t="s">
+      <c r="C25" s="325" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="338"/>
-      <c r="E25" s="30" t="s">
+      <c r="D25" s="326"/>
+      <c r="E25" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="331"/>
-      <c r="H25" s="332"/>
-      <c r="I25" s="31" t="s">
+      <c r="F25" s="26"/>
+      <c r="G25" s="319"/>
+      <c r="H25" s="320"/>
+      <c r="I25" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="341"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="331"/>
-      <c r="N25" s="332"/>
-      <c r="O25" s="27" t="s">
+      <c r="J25" s="31"/>
+      <c r="K25" s="329"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="319"/>
+      <c r="N25" s="320"/>
+      <c r="O25" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-    </row>
-    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="27">
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+    </row>
+    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="26">
         <v>4</v>
       </c>
-      <c r="C26" s="331"/>
-      <c r="D26" s="332"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="331"/>
-      <c r="H26" s="332"/>
-      <c r="I26" s="331"/>
-      <c r="J26" s="332"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="331"/>
-      <c r="N26" s="332"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-    </row>
-    <row r="27" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="27">
+      <c r="C26" s="319"/>
+      <c r="D26" s="320"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="319"/>
+      <c r="H26" s="320"/>
+      <c r="I26" s="319"/>
+      <c r="J26" s="320"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="319"/>
+      <c r="N26" s="320"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+    </row>
+    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="26">
         <v>5</v>
       </c>
-      <c r="C27" s="331"/>
-      <c r="D27" s="332"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="331"/>
-      <c r="H27" s="332"/>
-      <c r="I27" s="331"/>
-      <c r="J27" s="332"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="331"/>
-      <c r="N27" s="332"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-    </row>
-    <row r="28" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="316" t="s">
+      <c r="C27" s="319"/>
+      <c r="D27" s="320"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="319"/>
+      <c r="H27" s="320"/>
+      <c r="I27" s="319"/>
+      <c r="J27" s="320"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="319"/>
+      <c r="N27" s="320"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+    </row>
+    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="304" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="317"/>
-      <c r="D29" s="317"/>
-      <c r="E29" s="317"/>
-      <c r="F29" s="317"/>
-      <c r="G29" s="317"/>
-      <c r="H29" s="317"/>
-      <c r="I29" s="317"/>
-      <c r="J29" s="317"/>
-      <c r="K29" s="317"/>
-      <c r="L29" s="317"/>
-      <c r="M29" s="317"/>
-      <c r="N29" s="317"/>
-      <c r="O29" s="317"/>
-      <c r="P29" s="317"/>
-      <c r="Q29" s="318"/>
-    </row>
-    <row r="30" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="305"/>
+      <c r="D29" s="305"/>
+      <c r="E29" s="305"/>
+      <c r="F29" s="305"/>
+      <c r="G29" s="305"/>
+      <c r="H29" s="305"/>
+      <c r="I29" s="305"/>
+      <c r="J29" s="305"/>
+      <c r="K29" s="305"/>
+      <c r="L29" s="305"/>
+      <c r="M29" s="305"/>
+      <c r="N29" s="305"/>
+      <c r="O29" s="305"/>
+      <c r="P29" s="305"/>
+      <c r="Q29" s="306"/>
+    </row>
+    <row r="30" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -9027,214 +8947,180 @@
       <c r="P30" s="18"/>
       <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="19"/>
-      <c r="C31" s="307" t="s">
+      <c r="C31" s="295" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="308"/>
-      <c r="E31" s="308"/>
-      <c r="F31" s="308"/>
-      <c r="G31" s="308"/>
-      <c r="H31" s="309"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="320" t="s">
+      <c r="D31" s="296"/>
+      <c r="E31" s="296"/>
+      <c r="F31" s="296"/>
+      <c r="G31" s="296"/>
+      <c r="H31" s="297"/>
+      <c r="K31" s="308" t="s">
         <v>84</v>
       </c>
-      <c r="L31" s="320"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="21"/>
-    </row>
-    <row r="32" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L31" s="308"/>
+      <c r="Q31" s="20"/>
+    </row>
+    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="19"/>
-      <c r="C32" s="310"/>
-      <c r="D32" s="311"/>
-      <c r="E32" s="311"/>
-      <c r="F32" s="311"/>
-      <c r="G32" s="311"/>
-      <c r="H32" s="312"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="342" t="s">
+      <c r="C32" s="298"/>
+      <c r="D32" s="299"/>
+      <c r="E32" s="299"/>
+      <c r="F32" s="299"/>
+      <c r="G32" s="299"/>
+      <c r="H32" s="300"/>
+      <c r="K32" s="330" t="s">
         <v>85</v>
       </c>
-      <c r="L32" s="342"/>
-      <c r="M32" s="33" t="s">
+      <c r="L32" s="330"/>
+      <c r="M32" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="21"/>
-    </row>
-    <row r="33" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="20"/>
+    </row>
+    <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="19"/>
-      <c r="C33" s="310"/>
-      <c r="D33" s="311"/>
-      <c r="E33" s="311"/>
-      <c r="F33" s="311"/>
-      <c r="G33" s="311"/>
-      <c r="H33" s="312"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="342" t="s">
+      <c r="C33" s="298"/>
+      <c r="D33" s="299"/>
+      <c r="E33" s="299"/>
+      <c r="F33" s="299"/>
+      <c r="G33" s="299"/>
+      <c r="H33" s="300"/>
+      <c r="K33" s="330" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="342"/>
+      <c r="L33" s="330"/>
       <c r="M33" s="17" t="s">
         <v>86</v>
       </c>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
-      <c r="Q33" s="21"/>
-    </row>
-    <row r="34" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q33" s="20"/>
+    </row>
+    <row r="34" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="19"/>
-      <c r="C34" s="313"/>
-      <c r="D34" s="314"/>
-      <c r="E34" s="314"/>
-      <c r="F34" s="314"/>
-      <c r="G34" s="314"/>
-      <c r="H34" s="315"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="342" t="s">
+      <c r="C34" s="301"/>
+      <c r="D34" s="302"/>
+      <c r="E34" s="302"/>
+      <c r="F34" s="302"/>
+      <c r="G34" s="302"/>
+      <c r="H34" s="303"/>
+      <c r="K34" s="330" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="342"/>
+      <c r="L34" s="330"/>
       <c r="M34" s="17" t="s">
         <v>86</v>
       </c>
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
-      <c r="Q34" s="21"/>
-    </row>
-    <row r="35" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q34" s="20"/>
+    </row>
+    <row r="35" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="19"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="342" t="s">
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="K35" s="330" t="s">
         <v>89</v>
       </c>
-      <c r="L35" s="342"/>
-      <c r="M35" s="33" t="s">
+      <c r="L35" s="330"/>
+      <c r="M35" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="21"/>
-    </row>
-    <row r="36" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="20"/>
+    </row>
+    <row r="36" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="342"/>
-      <c r="L36" s="342"/>
-      <c r="Q36" s="21"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K36" s="330"/>
+      <c r="L36" s="330"/>
+      <c r="Q36" s="20"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
-      <c r="C37" s="343" t="s">
+      <c r="C37" s="331" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="308"/>
-      <c r="E37" s="308"/>
-      <c r="F37" s="308"/>
-      <c r="G37" s="308"/>
-      <c r="H37" s="309"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="320" t="s">
+      <c r="D37" s="296"/>
+      <c r="E37" s="296"/>
+      <c r="F37" s="296"/>
+      <c r="G37" s="296"/>
+      <c r="H37" s="297"/>
+      <c r="K37" s="308" t="s">
         <v>91</v>
       </c>
-      <c r="L37" s="320"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="21"/>
-    </row>
-    <row r="38" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L37" s="308"/>
+      <c r="Q37" s="20"/>
+    </row>
+    <row r="38" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="19"/>
-      <c r="C38" s="310"/>
-      <c r="D38" s="311"/>
-      <c r="E38" s="311"/>
-      <c r="F38" s="311"/>
-      <c r="G38" s="311"/>
-      <c r="H38" s="312"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="342" t="s">
+      <c r="C38" s="298"/>
+      <c r="D38" s="299"/>
+      <c r="E38" s="299"/>
+      <c r="F38" s="299"/>
+      <c r="G38" s="299"/>
+      <c r="H38" s="300"/>
+      <c r="K38" s="330" t="s">
         <v>89</v>
       </c>
-      <c r="L38" s="342"/>
-      <c r="M38" s="33" t="s">
+      <c r="L38" s="330"/>
+      <c r="M38" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="21"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="20"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="19"/>
-      <c r="C39" s="310"/>
-      <c r="D39" s="311"/>
-      <c r="E39" s="311"/>
-      <c r="F39" s="311"/>
-      <c r="G39" s="311"/>
-      <c r="H39" s="312"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="Q39" s="21"/>
-    </row>
-    <row r="40" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C39" s="298"/>
+      <c r="D39" s="299"/>
+      <c r="E39" s="299"/>
+      <c r="F39" s="299"/>
+      <c r="G39" s="299"/>
+      <c r="H39" s="300"/>
+      <c r="Q39" s="20"/>
+    </row>
+    <row r="40" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="19"/>
-      <c r="C40" s="313"/>
-      <c r="D40" s="314"/>
-      <c r="E40" s="314"/>
-      <c r="F40" s="314"/>
-      <c r="G40" s="314"/>
-      <c r="H40" s="315"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="Q40" s="21"/>
-    </row>
-    <row r="41" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C40" s="301"/>
+      <c r="D40" s="302"/>
+      <c r="E40" s="302"/>
+      <c r="F40" s="302"/>
+      <c r="G40" s="302"/>
+      <c r="H40" s="303"/>
+      <c r="Q40" s="20"/>
+    </row>
+    <row r="41" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="15"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
       <c r="Q41" s="16"/>
     </row>
   </sheetData>
@@ -9311,28 +9197,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I72"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="31.1796875" style="69" customWidth="1"/>
-    <col min="4" max="5" width="19.54296875" style="69" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" style="69" customWidth="1"/>
-    <col min="7" max="7" width="25" style="69" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="69"/>
+    <col min="1" max="1" width="2.85546875" style="61" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="61" customWidth="1"/>
+    <col min="4" max="5" width="19.5703125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="61" customWidth="1"/>
+    <col min="7" max="7" width="25" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="61"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="40.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="203" t="s">
-        <v>345</v>
-      </c>
-      <c r="C2" s="204"/>
-    </row>
-    <row r="3" spans="2:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" ht="40.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="191" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" s="192"/>
+    </row>
+    <row r="3" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -9352,748 +9238,748 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="161">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="152">
         <v>1</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="169" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4" s="153" t="s">
+        <v>361</v>
+      </c>
+      <c r="E4" s="153" t="s">
+        <v>362</v>
+      </c>
+      <c r="F4" s="153" t="s">
+        <v>335</v>
+      </c>
+      <c r="G4" s="154" t="s">
+        <v>363</v>
+      </c>
+      <c r="I4" s="176"/>
+    </row>
+    <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
+    </row>
+    <row r="7" spans="2:9" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="193" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="195"/>
+    </row>
+    <row r="8" spans="2:9" ht="67.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="198" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199"/>
+    </row>
+    <row r="9" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="193" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="195"/>
+    </row>
+    <row r="10" spans="2:9" ht="194.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="193" t="s">
+        <v>355</v>
+      </c>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="195"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="199" t="s">
+        <v>368</v>
+      </c>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="199"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" s="199" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="199" t="s">
+        <v>365</v>
+      </c>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="199" t="s">
         <v>366</v>
       </c>
-      <c r="D4" s="162" t="s">
-        <v>367</v>
-      </c>
-      <c r="E4" s="162" t="s">
-        <v>368</v>
-      </c>
-      <c r="F4" s="162" t="s">
-        <v>340</v>
-      </c>
-      <c r="G4" s="163" t="s">
-        <v>369</v>
-      </c>
-      <c r="I4" s="187"/>
-    </row>
-    <row r="6" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="208" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-    </row>
-    <row r="7" spans="2:9" ht="43.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="205" t="s">
-        <v>346</v>
-      </c>
-      <c r="D7" s="206"/>
-      <c r="E7" s="206"/>
-      <c r="F7" s="206"/>
-      <c r="G7" s="207"/>
-    </row>
-    <row r="8" spans="2:9" ht="67.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="210" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211"/>
-    </row>
-    <row r="9" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="205" t="s">
-        <v>346</v>
-      </c>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
-      <c r="G9" s="207"/>
-    </row>
-    <row r="10" spans="2:9" ht="194.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="205" t="s">
-        <v>360</v>
-      </c>
-      <c r="D10" s="206"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="207"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="54" t="s">
-        <v>300</v>
-      </c>
-      <c r="C11" s="211" t="s">
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="199"/>
+    </row>
+    <row r="15" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="210" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="210"/>
+      <c r="G15" s="210"/>
+    </row>
+    <row r="16" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="147" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" s="147" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" s="211" t="s">
+        <v>314</v>
+      </c>
+      <c r="E16" s="211"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="211"/>
+    </row>
+    <row r="17" spans="2:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="189" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="203" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="212"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="214"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="189"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="189"/>
+      <c r="C19" s="203" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="199"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="189"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="199"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="189"/>
+      <c r="C21" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="199"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="199"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="189"/>
+      <c r="C22" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="199"/>
+      <c r="E22" s="199"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="199"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="190"/>
+      <c r="C23" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="199"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="200" t="s">
+        <v>305</v>
+      </c>
+      <c r="C24" s="203" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="199"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="199"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="201"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="201"/>
+      <c r="C26" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="199"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="201"/>
+      <c r="C27" s="203" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="199"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="199"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="202"/>
+      <c r="C28" s="204"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="200" t="s">
+        <v>306</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="199"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="201"/>
+      <c r="C30" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="201"/>
+      <c r="C31" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="198"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="199"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="201"/>
+      <c r="C32" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="199" t="s">
+        <v>341</v>
+      </c>
+      <c r="E32" s="199"/>
+      <c r="F32" s="199"/>
+      <c r="G32" s="199"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="201"/>
+      <c r="C33" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="199"/>
+      <c r="E33" s="199"/>
+      <c r="F33" s="199"/>
+      <c r="G33" s="199"/>
+    </row>
+    <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="201"/>
+      <c r="C34" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="199"/>
+      <c r="E34" s="199"/>
+      <c r="F34" s="199"/>
+      <c r="G34" s="199"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="C35" s="48"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="199"/>
+      <c r="G35" s="199"/>
+    </row>
+    <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="199"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="199"/>
+      <c r="G36" s="199"/>
+    </row>
+    <row r="37" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="148" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="147" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37" s="224" t="s">
+        <v>310</v>
+      </c>
+      <c r="E37" s="225"/>
+      <c r="F37" s="224" t="s">
+        <v>311</v>
+      </c>
+      <c r="G37" s="225"/>
+    </row>
+    <row r="38" spans="2:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="155" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="168" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="228" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="229"/>
+      <c r="F38" s="228" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="229"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="60"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="232"/>
+      <c r="E39" s="233"/>
+      <c r="F39" s="230"/>
+      <c r="G39" s="231"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="60"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="226"/>
+      <c r="E40" s="227"/>
+      <c r="F40" s="226"/>
+      <c r="G40" s="227"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="60"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="226"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="226"/>
+      <c r="G41" s="227"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="60"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="226"/>
+      <c r="E42" s="227"/>
+      <c r="F42" s="226"/>
+      <c r="G42" s="227"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="60"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="226"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="226"/>
+      <c r="G43" s="227"/>
+    </row>
+    <row r="44" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="216" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="217"/>
+      <c r="D44" s="217"/>
+      <c r="E44" s="217"/>
+      <c r="F44" s="217"/>
+      <c r="G44" s="217"/>
+    </row>
+    <row r="45" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="234" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" s="63"/>
+      <c r="D45" s="206" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="207"/>
+      <c r="F45" s="207"/>
+      <c r="G45" s="208"/>
+    </row>
+    <row r="46" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="189"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="206" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="207"/>
+      <c r="F46" s="207"/>
+      <c r="G46" s="208"/>
+    </row>
+    <row r="47" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="189"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="206" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" s="207"/>
+      <c r="F47" s="207"/>
+      <c r="G47" s="208"/>
+    </row>
+    <row r="48" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="189"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="206" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" s="207"/>
+      <c r="F48" s="207"/>
+      <c r="G48" s="208"/>
+    </row>
+    <row r="49" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="189"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="206" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="207"/>
+      <c r="F49" s="207"/>
+      <c r="G49" s="208"/>
+    </row>
+    <row r="50" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="189"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="206" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" s="207"/>
+      <c r="F50" s="207"/>
+      <c r="G50" s="208"/>
+    </row>
+    <row r="51" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="190"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="206" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="207"/>
+      <c r="F51" s="207"/>
+      <c r="G51" s="208"/>
+    </row>
+    <row r="52" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="189" t="s">
+        <v>316</v>
+      </c>
+      <c r="C52" s="63"/>
+      <c r="D52" s="206" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="207"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="208"/>
+    </row>
+    <row r="53" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="189"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="206" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" s="207"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="208"/>
+    </row>
+    <row r="54" spans="2:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="189"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="209" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="209"/>
+      <c r="F54" s="215"/>
+      <c r="G54" s="215"/>
+    </row>
+    <row r="55" spans="2:7" ht="109.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="189"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="209" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="209"/>
+      <c r="F55" s="215"/>
+      <c r="G55" s="215"/>
+    </row>
+    <row r="56" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="190"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="205"/>
+      <c r="E56" s="205"/>
+      <c r="F56" s="205"/>
+      <c r="G56" s="205"/>
+    </row>
+    <row r="57" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="216" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="217"/>
+      <c r="D57" s="217"/>
+      <c r="E57" s="217"/>
+      <c r="F57" s="217"/>
+      <c r="G57" s="217"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="C58" s="199" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="199"/>
+      <c r="E58" s="199"/>
+      <c r="F58" s="199"/>
+      <c r="G58" s="199"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="C59" s="199" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="199"/>
+      <c r="E59" s="199"/>
+      <c r="F59" s="199"/>
+      <c r="G59" s="199"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="C60" s="199" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" s="199"/>
+      <c r="E60" s="199"/>
+      <c r="F60" s="199"/>
+      <c r="G60" s="199"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="C61" s="199" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" s="199"/>
+      <c r="E61" s="199"/>
+      <c r="F61" s="199"/>
+      <c r="G61" s="199"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="C62" s="199" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="199"/>
+      <c r="E62" s="199"/>
+      <c r="F62" s="199"/>
+      <c r="G62" s="199"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="C63" s="199" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="199"/>
+      <c r="E63" s="199"/>
+      <c r="F63" s="199"/>
+      <c r="G63" s="199"/>
+    </row>
+    <row r="64" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="216" t="s">
+        <v>298</v>
+      </c>
+      <c r="C64" s="217"/>
+      <c r="D64" s="217"/>
+      <c r="E64" s="217"/>
+      <c r="F64" s="217"/>
+      <c r="G64" s="217"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="C65" s="218"/>
+      <c r="D65" s="219"/>
+      <c r="E65" s="219"/>
+      <c r="F65" s="219"/>
+      <c r="G65" s="219"/>
+    </row>
+    <row r="66" spans="2:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="C66" s="198" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="198"/>
+      <c r="E66" s="198"/>
+      <c r="F66" s="198"/>
+      <c r="G66" s="198"/>
+    </row>
+    <row r="67" spans="2:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="C67" s="156" t="s">
         <v>329</v>
       </c>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="211"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="C12" s="211" t="s">
-        <v>330</v>
-      </c>
-      <c r="D12" s="211"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="211"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="54" t="s">
-        <v>302</v>
-      </c>
-      <c r="C13" s="211" t="s">
-        <v>331</v>
-      </c>
-      <c r="D13" s="211"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="211"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="54" t="s">
-        <v>303</v>
-      </c>
-      <c r="C14" s="211" t="s">
-        <v>332</v>
-      </c>
-      <c r="D14" s="211"/>
-      <c r="E14" s="211"/>
-      <c r="F14" s="211"/>
-      <c r="G14" s="211"/>
-    </row>
-    <row r="15" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="222" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="222"/>
-      <c r="D15" s="222"/>
-      <c r="E15" s="222"/>
-      <c r="F15" s="222"/>
-      <c r="G15" s="222"/>
-    </row>
-    <row r="16" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="157" t="s">
-        <v>312</v>
-      </c>
-      <c r="C16" s="157" t="s">
-        <v>313</v>
-      </c>
-      <c r="D16" s="223" t="s">
-        <v>314</v>
-      </c>
-      <c r="E16" s="223"/>
-      <c r="F16" s="223"/>
-      <c r="G16" s="223"/>
-    </row>
-    <row r="17" spans="2:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="201" t="s">
-        <v>304</v>
-      </c>
-      <c r="C17" s="215" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="224"/>
-      <c r="E17" s="225"/>
-      <c r="F17" s="225"/>
-      <c r="G17" s="226"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="201"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="211"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="201"/>
-      <c r="C19" s="215" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="211"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="211"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="201"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="201"/>
-      <c r="C21" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="211"/>
-      <c r="E21" s="211"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="211"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="201"/>
-      <c r="C22" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="211"/>
-      <c r="E22" s="211"/>
-      <c r="F22" s="211"/>
-      <c r="G22" s="211"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="202"/>
-      <c r="C23" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="211"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="211"/>
-      <c r="G23" s="211"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="212" t="s">
-        <v>305</v>
-      </c>
-      <c r="C24" s="215" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="211"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="211"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="213"/>
-      <c r="C25" s="216"/>
-      <c r="D25" s="211"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="211"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="213"/>
-      <c r="C26" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="211"/>
-      <c r="E26" s="211"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="211"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="213"/>
-      <c r="C27" s="215" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="211"/>
-      <c r="E27" s="211"/>
-      <c r="F27" s="211"/>
-      <c r="G27" s="211"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="214"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="211"/>
-      <c r="E28" s="211"/>
-      <c r="F28" s="211"/>
-      <c r="G28" s="211"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="212" t="s">
-        <v>306</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="211"/>
-      <c r="E29" s="211"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="211"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="213"/>
-      <c r="C30" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="211"/>
-      <c r="E30" s="211"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="211"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="213"/>
-      <c r="C31" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="210"/>
-      <c r="E31" s="211"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="211"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="213"/>
-      <c r="C32" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="211" t="s">
-        <v>346</v>
-      </c>
-      <c r="E32" s="211"/>
-      <c r="F32" s="211"/>
-      <c r="G32" s="211"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="213"/>
-      <c r="C33" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="211"/>
-      <c r="E33" s="211"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="211"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="213"/>
-      <c r="C34" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="211"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="211"/>
-      <c r="G34" s="211"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="70" t="s">
-        <v>307</v>
-      </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="211"/>
-      <c r="E35" s="211"/>
-      <c r="F35" s="211"/>
-      <c r="G35" s="211"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="70" t="s">
+      <c r="D67" s="198" t="s">
+        <v>370</v>
+      </c>
+      <c r="E67" s="198"/>
+      <c r="F67" s="198"/>
+      <c r="G67" s="198"/>
+    </row>
+    <row r="68" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="196" t="s">
+        <v>299</v>
+      </c>
+      <c r="C68" s="197"/>
+      <c r="D68" s="197"/>
+      <c r="E68" s="197"/>
+      <c r="F68" s="197"/>
+      <c r="G68" s="197"/>
+    </row>
+    <row r="69" spans="2:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="C69" s="193" t="s">
+        <v>341</v>
+      </c>
+      <c r="D69" s="194"/>
+      <c r="E69" s="194"/>
+      <c r="F69" s="194"/>
+      <c r="G69" s="195"/>
+    </row>
+    <row r="70" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="C70" s="220" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70" s="220"/>
+      <c r="E70" s="220"/>
+      <c r="F70" s="220"/>
+      <c r="G70" s="220"/>
+    </row>
+    <row r="71" spans="2:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="C71" s="220" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" s="220"/>
+      <c r="E71" s="220"/>
+      <c r="F71" s="220"/>
+      <c r="G71" s="220"/>
+    </row>
+    <row r="72" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="C36" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="211"/>
-      <c r="E36" s="211"/>
-      <c r="F36" s="211"/>
-      <c r="G36" s="211"/>
-    </row>
-    <row r="37" spans="2:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="156" t="s">
-        <v>304</v>
-      </c>
-      <c r="C37" s="155" t="s">
-        <v>309</v>
-      </c>
-      <c r="D37" s="236" t="s">
-        <v>310</v>
-      </c>
-      <c r="E37" s="237"/>
-      <c r="F37" s="236" t="s">
-        <v>311</v>
-      </c>
-      <c r="G37" s="237"/>
-    </row>
-    <row r="38" spans="2:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="164" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="179" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="240" t="s">
-        <v>156</v>
-      </c>
-      <c r="E38" s="241"/>
-      <c r="F38" s="240" t="s">
-        <v>156</v>
-      </c>
-      <c r="G38" s="241"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="68"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="244"/>
-      <c r="E39" s="245"/>
-      <c r="F39" s="242"/>
-      <c r="G39" s="243"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="68"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="238"/>
-      <c r="E40" s="239"/>
-      <c r="F40" s="238"/>
-      <c r="G40" s="239"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="68"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="238"/>
-      <c r="E41" s="239"/>
-      <c r="F41" s="238"/>
-      <c r="G41" s="239"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="68"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="238"/>
-      <c r="E42" s="239"/>
-      <c r="F42" s="238"/>
-      <c r="G42" s="239"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="68"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="238"/>
-      <c r="E43" s="239"/>
-      <c r="F43" s="238"/>
-      <c r="G43" s="239"/>
-    </row>
-    <row r="44" spans="2:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="228" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="229"/>
-      <c r="D44" s="229"/>
-      <c r="E44" s="229"/>
-      <c r="F44" s="229"/>
-      <c r="G44" s="229"/>
-    </row>
-    <row r="45" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="246" t="s">
-        <v>315</v>
-      </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="218" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" s="219"/>
-      <c r="F45" s="219"/>
-      <c r="G45" s="220"/>
-    </row>
-    <row r="46" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="201"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="218" t="s">
-        <v>156</v>
-      </c>
-      <c r="E46" s="219"/>
-      <c r="F46" s="219"/>
-      <c r="G46" s="220"/>
-    </row>
-    <row r="47" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="201"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="218" t="s">
-        <v>156</v>
-      </c>
-      <c r="E47" s="219"/>
-      <c r="F47" s="219"/>
-      <c r="G47" s="220"/>
-    </row>
-    <row r="48" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="201"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="218" t="s">
-        <v>156</v>
-      </c>
-      <c r="E48" s="219"/>
-      <c r="F48" s="219"/>
-      <c r="G48" s="220"/>
-    </row>
-    <row r="49" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="201"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="218" t="s">
-        <v>156</v>
-      </c>
-      <c r="E49" s="219"/>
-      <c r="F49" s="219"/>
-      <c r="G49" s="220"/>
-    </row>
-    <row r="50" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="201"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="218" t="s">
-        <v>156</v>
-      </c>
-      <c r="E50" s="219"/>
-      <c r="F50" s="219"/>
-      <c r="G50" s="220"/>
-    </row>
-    <row r="51" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="202"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="218" t="s">
-        <v>156</v>
-      </c>
-      <c r="E51" s="219"/>
-      <c r="F51" s="219"/>
-      <c r="G51" s="220"/>
-    </row>
-    <row r="52" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="201" t="s">
-        <v>316</v>
-      </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="218" t="s">
-        <v>156</v>
-      </c>
-      <c r="E52" s="219"/>
-      <c r="F52" s="219"/>
-      <c r="G52" s="220"/>
-    </row>
-    <row r="53" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="201"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="218" t="s">
-        <v>156</v>
-      </c>
-      <c r="E53" s="219"/>
-      <c r="F53" s="219"/>
-      <c r="G53" s="220"/>
-    </row>
-    <row r="54" spans="2:7" ht="105" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="201"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="221" t="s">
-        <v>156</v>
-      </c>
-      <c r="E54" s="221"/>
-      <c r="F54" s="227"/>
-      <c r="G54" s="227"/>
-    </row>
-    <row r="55" spans="2:7" ht="109.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="201"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="221" t="s">
-        <v>156</v>
-      </c>
-      <c r="E55" s="221"/>
-      <c r="F55" s="227"/>
-      <c r="G55" s="227"/>
-    </row>
-    <row r="56" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="202"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="217"/>
-      <c r="E56" s="217"/>
-      <c r="F56" s="217"/>
-      <c r="G56" s="217"/>
-    </row>
-    <row r="57" spans="2:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B57" s="228" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" s="229"/>
-      <c r="D57" s="229"/>
-      <c r="E57" s="229"/>
-      <c r="F57" s="229"/>
-      <c r="G57" s="229"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B58" s="54" t="s">
-        <v>317</v>
-      </c>
-      <c r="C58" s="211" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="211"/>
-      <c r="E58" s="211"/>
-      <c r="F58" s="211"/>
-      <c r="G58" s="211"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B59" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="C59" s="211" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" s="211"/>
-      <c r="E59" s="211"/>
-      <c r="F59" s="211"/>
-      <c r="G59" s="211"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B60" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="C60" s="211" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60" s="211"/>
-      <c r="E60" s="211"/>
-      <c r="F60" s="211"/>
-      <c r="G60" s="211"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B61" s="54" t="s">
-        <v>320</v>
-      </c>
-      <c r="C61" s="211" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" s="211"/>
-      <c r="E61" s="211"/>
-      <c r="F61" s="211"/>
-      <c r="G61" s="211"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B62" s="54" t="s">
-        <v>321</v>
-      </c>
-      <c r="C62" s="211" t="s">
-        <v>156</v>
-      </c>
-      <c r="D62" s="211"/>
-      <c r="E62" s="211"/>
-      <c r="F62" s="211"/>
-      <c r="G62" s="211"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B63" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="C63" s="211" t="s">
-        <v>156</v>
-      </c>
-      <c r="D63" s="211"/>
-      <c r="E63" s="211"/>
-      <c r="F63" s="211"/>
-      <c r="G63" s="211"/>
-    </row>
-    <row r="64" spans="2:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="228" t="s">
-        <v>298</v>
-      </c>
-      <c r="C64" s="229"/>
-      <c r="D64" s="229"/>
-      <c r="E64" s="229"/>
-      <c r="F64" s="229"/>
-      <c r="G64" s="229"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B65" s="54" t="s">
-        <v>297</v>
-      </c>
-      <c r="C65" s="230"/>
-      <c r="D65" s="231"/>
-      <c r="E65" s="231"/>
-      <c r="F65" s="231"/>
-      <c r="G65" s="231"/>
-    </row>
-    <row r="66" spans="2:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="C66" s="210" t="s">
-        <v>156</v>
-      </c>
-      <c r="D66" s="210"/>
-      <c r="E66" s="210"/>
-      <c r="F66" s="210"/>
-      <c r="G66" s="210"/>
-    </row>
-    <row r="67" spans="2:7" ht="81" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="54" t="s">
-        <v>327</v>
-      </c>
-      <c r="C67" s="165" t="s">
-        <v>333</v>
-      </c>
-      <c r="D67" s="210" t="s">
-        <v>334</v>
-      </c>
-      <c r="E67" s="210"/>
-      <c r="F67" s="210"/>
-      <c r="G67" s="210"/>
-    </row>
-    <row r="68" spans="2:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B68" s="208" t="s">
-        <v>299</v>
-      </c>
-      <c r="C68" s="209"/>
-      <c r="D68" s="209"/>
-      <c r="E68" s="209"/>
-      <c r="F68" s="209"/>
-      <c r="G68" s="209"/>
-    </row>
-    <row r="69" spans="2:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="C69" s="205" t="s">
-        <v>346</v>
-      </c>
-      <c r="D69" s="206"/>
-      <c r="E69" s="206"/>
-      <c r="F69" s="206"/>
-      <c r="G69" s="207"/>
-    </row>
-    <row r="70" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="54" t="s">
-        <v>325</v>
-      </c>
-      <c r="C70" s="232" t="s">
-        <v>156</v>
-      </c>
-      <c r="D70" s="232"/>
-      <c r="E70" s="232"/>
-      <c r="F70" s="232"/>
-      <c r="G70" s="232"/>
-    </row>
-    <row r="71" spans="2:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="54" t="s">
-        <v>326</v>
-      </c>
-      <c r="C71" s="232" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" s="232"/>
-      <c r="E71" s="232"/>
-      <c r="F71" s="232"/>
-      <c r="G71" s="232"/>
-    </row>
-    <row r="72" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="C72" s="233" t="s">
-        <v>353</v>
-      </c>
-      <c r="D72" s="234"/>
-      <c r="E72" s="234"/>
-      <c r="F72" s="234"/>
-      <c r="G72" s="235"/>
+      <c r="C72" s="221" t="s">
+        <v>348</v>
+      </c>
+      <c r="D72" s="222"/>
+      <c r="E72" s="222"/>
+      <c r="F72" s="222"/>
+      <c r="G72" s="223"/>
     </row>
   </sheetData>
   <mergeCells count="86">
@@ -10185,14 +10071,14 @@
     <mergeCell ref="C10:G10"/>
   </mergeCells>
   <conditionalFormatting sqref="C65">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>0.9</formula>
       <formula>0.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10211,19 +10097,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -10234,7 +10120,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -10242,7 +10128,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <f>A3+1</f>
         <v>2</v>
@@ -10251,7 +10137,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <f t="shared" ref="A5:A14" si="0">A4+1</f>
         <v>3</v>
@@ -10260,7 +10146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10269,79 +10155,79 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -10366,20 +10252,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -10392,7 +10278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -10407,7 +10293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -10422,7 +10308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -10437,7 +10323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -10466,70 +10352,70 @@
       <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="52.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" customWidth="1"/>
-    <col min="4" max="5" width="21.453125" customWidth="1"/>
-    <col min="6" max="8" width="16.1796875" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" customWidth="1"/>
-    <col min="11" max="11" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="4" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="247" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="235" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="247"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="92.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="39">
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
@@ -10541,11 +10427,11 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="41" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -10558,7 +10444,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -10571,7 +10457,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -10584,7 +10470,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -10597,7 +10483,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -10610,7 +10496,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -10623,7 +10509,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -10636,7 +10522,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -10649,7 +10535,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -10662,7 +10548,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -10675,7 +10561,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -10688,7 +10574,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -10701,7 +10587,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -10714,7 +10600,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -10727,7 +10613,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -10740,7 +10626,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -10753,7 +10639,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -10780,727 +10666,723 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="8" style="46" customWidth="1"/>
-    <col min="3" max="3" width="31.81640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="80" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" style="46" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" style="46" customWidth="1"/>
-    <col min="10" max="15" width="15.81640625" style="46" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" style="46" customWidth="1"/>
-    <col min="17" max="17" width="18.1796875" style="46" customWidth="1"/>
-    <col min="18" max="18" width="29.1796875" style="46" customWidth="1"/>
-    <col min="19" max="16384" width="8.81640625" style="46"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="262" t="s">
+    <row r="1" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="250" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
-      <c r="L2" s="263"/>
-      <c r="M2" s="263"/>
-      <c r="N2" s="263"/>
-      <c r="O2" s="263"/>
-      <c r="P2" s="263"/>
-      <c r="Q2" s="263"/>
-      <c r="R2" s="264"/>
-    </row>
-    <row r="3" spans="1:18" s="55" customFormat="1" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="258" t="s">
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
+      <c r="R2" s="252"/>
+    </row>
+    <row r="3" spans="1:18" s="52" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="246" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="258" t="s">
+      <c r="C3" s="246" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="258" t="s">
+      <c r="D3" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="258" t="s">
+      <c r="E3" s="246" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="258" t="s">
+      <c r="F3" s="246" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="258" t="s">
+      <c r="G3" s="246" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="269" t="s">
+      <c r="H3" s="257" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="270"/>
-      <c r="J3" s="270"/>
-      <c r="K3" s="271"/>
-      <c r="L3" s="265" t="s">
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="253" t="s">
         <v>130</v>
       </c>
-      <c r="M3" s="266"/>
-      <c r="N3" s="266"/>
-      <c r="O3" s="266"/>
-      <c r="P3" s="258" t="s">
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="246" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="258" t="s">
+      <c r="Q3" s="246" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="260" t="s">
+      <c r="R3" s="248" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="48" customFormat="1" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="259"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="49" t="s">
+    <row r="4" spans="1:18" s="46" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="247"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="K4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="56" t="s">
+      <c r="O4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="261"/>
-    </row>
-    <row r="5" spans="1:18" s="61" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="190">
+      <c r="P4" s="247"/>
+      <c r="Q4" s="247"/>
+      <c r="R4" s="249"/>
+    </row>
+    <row r="5" spans="1:18" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="179">
         <v>1</v>
       </c>
-      <c r="C5" s="191" t="s">
+      <c r="C5" s="180" t="s">
         <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>370</v>
-      </c>
-      <c r="E5" s="191" t="s">
+        <v>364</v>
+      </c>
+      <c r="E5" s="180" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="180" t="s">
+        <v>346</v>
+      </c>
+      <c r="G5" s="180" t="s">
+        <v>346</v>
+      </c>
+      <c r="H5" s="180" t="s">
+        <v>349</v>
+      </c>
+      <c r="I5" s="180" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" s="180" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="180" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" s="180" t="s">
+        <v>156</v>
+      </c>
+      <c r="M5" s="180" t="s">
+        <v>156</v>
+      </c>
+      <c r="N5" s="180" t="s">
+        <v>156</v>
+      </c>
+      <c r="O5" s="180" t="s">
+        <v>156</v>
+      </c>
+      <c r="P5" s="180" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q5" s="180" t="s">
+        <v>156</v>
+      </c>
+      <c r="R5" s="180" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="38"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="166"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="37"/>
+    </row>
+    <row r="7" spans="1:18" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="183"/>
+    </row>
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+    </row>
+    <row r="10" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="250" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="251"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="251"/>
+      <c r="H10" s="251"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="251"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="251"/>
+      <c r="M10" s="251"/>
+      <c r="N10" s="251"/>
+      <c r="O10" s="251"/>
+      <c r="P10" s="251"/>
+      <c r="Q10" s="251"/>
+      <c r="R10" s="252"/>
+    </row>
+    <row r="11" spans="1:18" s="52" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="246" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="246" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="246" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="246" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="246" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="246" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="257" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="258"/>
+      <c r="J11" s="258"/>
+      <c r="K11" s="259"/>
+      <c r="L11" s="253" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="254"/>
+      <c r="N11" s="254"/>
+      <c r="O11" s="254"/>
+      <c r="P11" s="246" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="246" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="248" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="46" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="255"/>
+      <c r="C12" s="255"/>
+      <c r="D12" s="255"/>
+      <c r="E12" s="255"/>
+      <c r="F12" s="255"/>
+      <c r="G12" s="255"/>
+      <c r="H12" s="170" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="171" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="171" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="171" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="171" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="171" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="171" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="172" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="255"/>
+      <c r="Q12" s="255"/>
+      <c r="R12" s="256"/>
+    </row>
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="38">
+        <v>1</v>
+      </c>
+      <c r="C13" s="244" t="s">
+        <v>341</v>
+      </c>
+      <c r="D13" s="178" t="s">
+        <v>350</v>
+      </c>
+      <c r="E13" s="245" t="s">
+        <v>342</v>
+      </c>
+      <c r="F13" s="178" t="s">
+        <v>346</v>
+      </c>
+      <c r="G13" s="241" t="s">
+        <v>346</v>
+      </c>
+      <c r="H13" s="242" t="s">
+        <v>356</v>
+      </c>
+      <c r="I13" s="240">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="J13" s="240">
+        <v>0</v>
+      </c>
+      <c r="K13" s="241" t="s">
         <v>347</v>
       </c>
-      <c r="F5" s="191" t="s">
+      <c r="L13" s="242"/>
+      <c r="M13" s="243"/>
+      <c r="N13" s="243"/>
+      <c r="O13" s="236"/>
+      <c r="P13" s="236"/>
+      <c r="Q13" s="236"/>
+      <c r="R13" s="236"/>
+    </row>
+    <row r="14" spans="1:18" s="4" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="38">
+        <v>2</v>
+      </c>
+      <c r="C14" s="244"/>
+      <c r="D14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E14" s="245"/>
+      <c r="F14" s="178" t="s">
+        <v>346</v>
+      </c>
+      <c r="G14" s="241"/>
+      <c r="H14" s="242"/>
+      <c r="I14" s="240"/>
+      <c r="J14" s="240"/>
+      <c r="K14" s="241"/>
+      <c r="L14" s="242"/>
+      <c r="M14" s="243"/>
+      <c r="N14" s="243"/>
+      <c r="O14" s="236"/>
+      <c r="P14" s="236"/>
+      <c r="Q14" s="236"/>
+      <c r="R14" s="236"/>
+    </row>
+    <row r="15" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="175">
+        <v>3</v>
+      </c>
+      <c r="C15" s="244"/>
+      <c r="D15" s="178" t="s">
+        <v>344</v>
+      </c>
+      <c r="E15" s="245"/>
+      <c r="F15" s="178" t="s">
+        <v>346</v>
+      </c>
+      <c r="G15" s="241"/>
+      <c r="H15" s="242"/>
+      <c r="I15" s="240"/>
+      <c r="J15" s="240"/>
+      <c r="K15" s="241"/>
+      <c r="L15" s="242"/>
+      <c r="M15" s="243"/>
+      <c r="N15" s="243"/>
+      <c r="O15" s="236"/>
+      <c r="P15" s="236"/>
+      <c r="Q15" s="236"/>
+      <c r="R15" s="236"/>
+    </row>
+    <row r="16" spans="1:18" s="4" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="175">
+        <v>4</v>
+      </c>
+      <c r="C16" s="244"/>
+      <c r="D16" s="178" t="s">
+        <v>345</v>
+      </c>
+      <c r="E16" s="245"/>
+      <c r="F16" s="178" t="s">
+        <v>346</v>
+      </c>
+      <c r="G16" s="241"/>
+      <c r="H16" s="242"/>
+      <c r="I16" s="240"/>
+      <c r="J16" s="240"/>
+      <c r="K16" s="241"/>
+      <c r="L16" s="242"/>
+      <c r="M16" s="243"/>
+      <c r="N16" s="243"/>
+      <c r="O16" s="236"/>
+      <c r="P16" s="236"/>
+      <c r="Q16" s="236"/>
+      <c r="R16" s="236"/>
+    </row>
+    <row r="17" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="175">
+        <v>5</v>
+      </c>
+      <c r="C17" s="244"/>
+      <c r="D17" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="G5" s="191" t="s">
-        <v>351</v>
-      </c>
-      <c r="H5" s="191" t="s">
-        <v>354</v>
-      </c>
-      <c r="I5" s="191" t="s">
+      <c r="E17" s="245"/>
+      <c r="F17" s="178" t="s">
+        <v>346</v>
+      </c>
+      <c r="G17" s="241"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="240"/>
+      <c r="J17" s="240"/>
+      <c r="K17" s="241"/>
+      <c r="L17" s="242"/>
+      <c r="M17" s="243"/>
+      <c r="N17" s="243"/>
+      <c r="O17" s="236"/>
+      <c r="P17" s="236"/>
+      <c r="Q17" s="236"/>
+      <c r="R17" s="236"/>
+    </row>
+    <row r="18" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="237" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="238"/>
+      <c r="D18" s="238"/>
+      <c r="E18" s="238"/>
+      <c r="F18" s="238"/>
+      <c r="G18" s="238"/>
+      <c r="H18" s="238"/>
+      <c r="I18" s="238"/>
+      <c r="J18" s="238"/>
+      <c r="K18" s="238"/>
+      <c r="L18" s="238"/>
+      <c r="M18" s="238"/>
+      <c r="N18" s="238"/>
+      <c r="O18" s="238"/>
+      <c r="P18" s="238"/>
+      <c r="Q18" s="238"/>
+      <c r="R18" s="239"/>
+    </row>
+    <row r="19" spans="1:18" s="52" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="246" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="246" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="246" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="246" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="246" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="246" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="257" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="258"/>
+      <c r="J19" s="258"/>
+      <c r="K19" s="259"/>
+      <c r="L19" s="253" t="s">
+        <v>130</v>
+      </c>
+      <c r="M19" s="254"/>
+      <c r="N19" s="254"/>
+      <c r="O19" s="254"/>
+      <c r="P19" s="246" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="246" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="248" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="46" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="247"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="247"/>
+      <c r="E20" s="247"/>
+      <c r="F20" s="247"/>
+      <c r="G20" s="247"/>
+      <c r="H20" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="247"/>
+      <c r="Q20" s="247"/>
+      <c r="R20" s="249"/>
+    </row>
+    <row r="21" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="158">
+        <v>1</v>
+      </c>
+      <c r="C21" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="191" t="s">
+      <c r="D21" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="191" t="s">
+      <c r="E21" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="L5" s="191" t="s">
+      <c r="F21" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="M5" s="191" t="s">
+      <c r="G21" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="N5" s="191" t="s">
+      <c r="H21" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="O5" s="191" t="s">
+      <c r="I21" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="P5" s="191" t="s">
+      <c r="J21" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="Q5" s="191" t="s">
+      <c r="K21" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="R5" s="191" t="s">
+      <c r="L21" s="157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="177"/>
-      <c r="L6" s="178"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="176"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="38"/>
-    </row>
-    <row r="7" spans="1:18" s="61" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="195"/>
-    </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="64"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-    </row>
-    <row r="10" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="262" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="263"/>
-      <c r="H10" s="263"/>
-      <c r="I10" s="263"/>
-      <c r="J10" s="263"/>
-      <c r="K10" s="263"/>
-      <c r="L10" s="263"/>
-      <c r="M10" s="263"/>
-      <c r="N10" s="263"/>
-      <c r="O10" s="263"/>
-      <c r="P10" s="263"/>
-      <c r="Q10" s="263"/>
-      <c r="R10" s="264"/>
-    </row>
-    <row r="11" spans="1:18" s="55" customFormat="1" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="258" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="258" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="258" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="258" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="258" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="258" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="269" t="s">
-        <v>129</v>
-      </c>
-      <c r="I11" s="270"/>
-      <c r="J11" s="270"/>
-      <c r="K11" s="271"/>
-      <c r="L11" s="265" t="s">
-        <v>130</v>
-      </c>
-      <c r="M11" s="266"/>
-      <c r="N11" s="266"/>
-      <c r="O11" s="266"/>
-      <c r="P11" s="258" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="258" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="260" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="48" customFormat="1" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="267"/>
-      <c r="C12" s="267"/>
-      <c r="D12" s="267"/>
-      <c r="E12" s="267"/>
-      <c r="F12" s="267"/>
-      <c r="G12" s="267"/>
-      <c r="H12" s="181" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="182" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="182" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="182" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="182" t="s">
-        <v>118</v>
-      </c>
-      <c r="M12" s="182" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="182" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="183" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" s="267"/>
-      <c r="Q12" s="267"/>
-      <c r="R12" s="268"/>
-    </row>
-    <row r="13" spans="1:18" s="61" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="59"/>
-      <c r="B13" s="62">
-        <v>1</v>
-      </c>
-      <c r="C13" s="256" t="s">
-        <v>346</v>
-      </c>
-      <c r="D13" s="189" t="s">
-        <v>355</v>
-      </c>
-      <c r="E13" s="257" t="s">
-        <v>347</v>
-      </c>
-      <c r="F13" s="189" t="s">
-        <v>351</v>
-      </c>
-      <c r="G13" s="253" t="s">
-        <v>351</v>
-      </c>
-      <c r="H13" s="254" t="s">
-        <v>361</v>
-      </c>
-      <c r="I13" s="252">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="J13" s="252">
-        <v>0</v>
-      </c>
-      <c r="K13" s="253" t="s">
-        <v>352</v>
-      </c>
-      <c r="L13" s="254"/>
-      <c r="M13" s="255"/>
-      <c r="N13" s="255"/>
-      <c r="O13" s="248"/>
-      <c r="P13" s="248"/>
-      <c r="Q13" s="248"/>
-      <c r="R13" s="248"/>
-    </row>
-    <row r="14" spans="1:18" s="61" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="59"/>
-      <c r="B14" s="62">
-        <v>2</v>
-      </c>
-      <c r="C14" s="256"/>
-      <c r="D14" t="s">
-        <v>348</v>
-      </c>
-      <c r="E14" s="257"/>
-      <c r="F14" s="189" t="s">
-        <v>351</v>
-      </c>
-      <c r="G14" s="253"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="252"/>
-      <c r="J14" s="252"/>
-      <c r="K14" s="253"/>
-      <c r="L14" s="254"/>
-      <c r="M14" s="255"/>
-      <c r="N14" s="255"/>
-      <c r="O14" s="248"/>
-      <c r="P14" s="248"/>
-      <c r="Q14" s="248"/>
-      <c r="R14" s="248"/>
-    </row>
-    <row r="15" spans="1:18" s="61" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="59"/>
-      <c r="B15" s="186">
-        <v>3</v>
-      </c>
-      <c r="C15" s="256"/>
-      <c r="D15" s="189" t="s">
-        <v>349</v>
-      </c>
-      <c r="E15" s="257"/>
-      <c r="F15" s="189" t="s">
-        <v>351</v>
-      </c>
-      <c r="G15" s="253"/>
-      <c r="H15" s="254"/>
-      <c r="I15" s="252"/>
-      <c r="J15" s="252"/>
-      <c r="K15" s="253"/>
-      <c r="L15" s="254"/>
-      <c r="M15" s="255"/>
-      <c r="N15" s="255"/>
-      <c r="O15" s="248"/>
-      <c r="P15" s="248"/>
-      <c r="Q15" s="248"/>
-      <c r="R15" s="248"/>
-    </row>
-    <row r="16" spans="1:18" s="61" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="59"/>
-      <c r="B16" s="186">
-        <v>4</v>
-      </c>
-      <c r="C16" s="256"/>
-      <c r="D16" s="189" t="s">
-        <v>350</v>
-      </c>
-      <c r="E16" s="257"/>
-      <c r="F16" s="189" t="s">
-        <v>351</v>
-      </c>
-      <c r="G16" s="253"/>
-      <c r="H16" s="254"/>
-      <c r="I16" s="252"/>
-      <c r="J16" s="252"/>
-      <c r="K16" s="253"/>
-      <c r="L16" s="254"/>
-      <c r="M16" s="255"/>
-      <c r="N16" s="255"/>
-      <c r="O16" s="248"/>
-      <c r="P16" s="248"/>
-      <c r="Q16" s="248"/>
-      <c r="R16" s="248"/>
-    </row>
-    <row r="17" spans="1:18" s="61" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="59"/>
-      <c r="B17" s="186">
-        <v>5</v>
-      </c>
-      <c r="C17" s="256"/>
-      <c r="D17" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E17" s="257"/>
-      <c r="F17" s="189" t="s">
-        <v>351</v>
-      </c>
-      <c r="G17" s="253"/>
-      <c r="H17" s="254"/>
-      <c r="I17" s="252"/>
-      <c r="J17" s="252"/>
-      <c r="K17" s="253"/>
-      <c r="L17" s="254"/>
-      <c r="M17" s="255"/>
-      <c r="N17" s="255"/>
-      <c r="O17" s="248"/>
-      <c r="P17" s="248"/>
-      <c r="Q17" s="248"/>
-      <c r="R17" s="248"/>
-    </row>
-    <row r="18" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="249" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="250"/>
-      <c r="D18" s="250"/>
-      <c r="E18" s="250"/>
-      <c r="F18" s="250"/>
-      <c r="G18" s="250"/>
-      <c r="H18" s="250"/>
-      <c r="I18" s="250"/>
-      <c r="J18" s="250"/>
-      <c r="K18" s="250"/>
-      <c r="L18" s="250"/>
-      <c r="M18" s="250"/>
-      <c r="N18" s="250"/>
-      <c r="O18" s="250"/>
-      <c r="P18" s="250"/>
-      <c r="Q18" s="250"/>
-      <c r="R18" s="251"/>
-    </row>
-    <row r="19" spans="1:18" s="55" customFormat="1" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="258" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="258" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="258" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="258" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="258" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="258" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="269" t="s">
-        <v>129</v>
-      </c>
-      <c r="I19" s="270"/>
-      <c r="J19" s="270"/>
-      <c r="K19" s="271"/>
-      <c r="L19" s="265" t="s">
-        <v>130</v>
-      </c>
-      <c r="M19" s="266"/>
-      <c r="N19" s="266"/>
-      <c r="O19" s="266"/>
-      <c r="P19" s="258" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="258" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" s="260" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="48" customFormat="1" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="259"/>
-      <c r="C20" s="259"/>
-      <c r="D20" s="259"/>
-      <c r="E20" s="259"/>
-      <c r="F20" s="259"/>
-      <c r="G20" s="259"/>
-      <c r="H20" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="P20" s="259"/>
-      <c r="Q20" s="259"/>
-      <c r="R20" s="261"/>
-    </row>
-    <row r="21" spans="1:18" s="61" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="167">
-        <v>1</v>
-      </c>
-      <c r="C21" s="166" t="s">
+      <c r="M21" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="166" t="s">
+      <c r="N21" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="O21" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="166" t="s">
+      <c r="P21" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="166" t="s">
+      <c r="Q21" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="166" t="s">
+      <c r="R21" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="I21" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="J21" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="K21" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="L21" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="M21" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="N21" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="O21" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="P21" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q21" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="R21" s="166" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="61" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="176"/>
-      <c r="K22" s="174"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="176"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="38"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B27"/>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C36" s="272"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188"/>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C37" s="272"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C38" s="272"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C39" s="272"/>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C40" s="272"/>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
+    </row>
+    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="38"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="37"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="260"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="260"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="177"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="260"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="177"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="260"/>
+      <c r="D39" s="177"/>
+      <c r="E39" s="177"/>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="260"/>
+      <c r="D40" s="177"/>
+      <c r="E40" s="177"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -11572,71 +11454,71 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.1796875" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="8" width="16.1796875" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" customWidth="1"/>
-    <col min="11" max="11" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="8" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="247" t="s">
+    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="235" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="247"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A3" s="39">
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
@@ -11648,11 +11530,11 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="37" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -11665,7 +11547,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -11678,7 +11560,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -11691,7 +11573,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -11704,7 +11586,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -11717,7 +11599,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -11730,7 +11612,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -11743,7 +11625,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -11756,7 +11638,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -11769,7 +11651,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -11782,7 +11664,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -11795,7 +11677,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -11808,7 +11690,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -11821,7 +11703,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -11834,7 +11716,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -11847,7 +11729,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -11860,7 +11742,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -11873,8 +11755,8 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C23" s="37" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="36" t="s">
         <v>106</v>
       </c>
     </row>
@@ -11889,279 +11771,274 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B1:R12"/>
+  <dimension ref="B1:R10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="136.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="136.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="136.453125" style="46"/>
-    <col min="2" max="2" width="15.26953125" style="46" customWidth="1"/>
-    <col min="3" max="16384" width="136.453125" style="46"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="22.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:18" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="262" t="s">
+    <row r="1" spans="2:18" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="250" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
-      <c r="L2" s="263"/>
-      <c r="M2" s="263"/>
-      <c r="N2" s="263"/>
-      <c r="O2" s="263"/>
-      <c r="P2" s="263"/>
-      <c r="Q2" s="263"/>
-      <c r="R2" s="264"/>
-    </row>
-    <row r="3" spans="2:18" s="55" customFormat="1" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="258" t="s">
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
+      <c r="R2" s="252"/>
+    </row>
+    <row r="3" spans="2:18" s="52" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="246" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="258" t="s">
+      <c r="C3" s="246" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="258" t="s">
+      <c r="D3" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="258" t="s">
+      <c r="E3" s="246" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="258" t="s">
+      <c r="F3" s="246" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="258" t="s">
+      <c r="G3" s="246" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="269" t="s">
+      <c r="H3" s="257" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="270"/>
-      <c r="J3" s="270"/>
-      <c r="K3" s="271"/>
-      <c r="L3" s="265" t="s">
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="253" t="s">
         <v>130</v>
       </c>
-      <c r="M3" s="266"/>
-      <c r="N3" s="266"/>
-      <c r="O3" s="266"/>
-      <c r="P3" s="258" t="s">
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="246" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="258" t="s">
+      <c r="Q3" s="246" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="260" t="s">
+      <c r="R3" s="248" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="48" customFormat="1" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="259"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="49" t="s">
+    <row r="4" spans="2:18" s="46" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="247"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="K4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="56" t="s">
+      <c r="O4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="261"/>
-    </row>
-    <row r="5" spans="2:18" s="61" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="198">
+      <c r="P4" s="247"/>
+      <c r="Q4" s="247"/>
+      <c r="R4" s="249"/>
+    </row>
+    <row r="5" spans="2:18" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="186">
         <v>1</v>
       </c>
-      <c r="C5" s="197" t="s">
-        <v>362</v>
-      </c>
-      <c r="D5" s="166" t="s">
+      <c r="C5" s="185" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="166" t="s">
+      <c r="E5" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="166" t="s">
+      <c r="F5" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="G5" s="166" t="s">
+      <c r="G5" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="H5" s="166" t="s">
+      <c r="H5" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="166" t="s">
+      <c r="I5" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="166" t="s">
+      <c r="J5" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="166" t="s">
+      <c r="K5" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="L5" s="166" t="s">
+      <c r="L5" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="M5" s="166" t="s">
+      <c r="M5" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="N5" s="166" t="s">
+      <c r="N5" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="O5" s="166" t="s">
+      <c r="O5" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="P5" s="166" t="s">
+      <c r="P5" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="Q5" s="166" t="s">
+      <c r="Q5" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="R5" s="166" t="s">
+      <c r="R5" s="157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="199">
+    <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="187">
         <v>2</v>
       </c>
-      <c r="C6" s="197" t="s">
-        <v>363</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="177"/>
-      <c r="L6" s="178"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="176"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-    </row>
-    <row r="7" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="199">
+      <c r="C6" s="185" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="187">
         <v>3</v>
       </c>
-      <c r="C7" s="197" t="s">
-        <v>364</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-    </row>
-    <row r="8" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="200">
+      <c r="C7" s="185" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="188">
         <v>4</v>
       </c>
-      <c r="C8" s="197" t="s">
-        <v>365</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="C12"/>
+      <c r="C8" s="185" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -12192,27 +12069,26 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.81640625" style="46" customWidth="1"/>
-    <col min="2" max="16384" width="8.81640625" style="46"/>
+    <col min="1" max="1" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="43"/>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/PLDT.xlsx
+++ b/templates/PLDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjul\office\changemanagement\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8001D23-3139-4FAB-A78B-1DA8E5FDC61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9A2D32-2C0E-4D96-B228-9E3397818082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2535,7 +2535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="371">
   <si>
     <t>Prepared By</t>
   </si>
@@ -3825,105 +3825,10 @@
     <t>ROLE</t>
   </si>
   <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>John Samonte</t>
-  </si>
-  <si>
-    <t>JohnRoderick.Samonte@amdocs.com</t>
-  </si>
-  <si>
-    <t>+639209519383</t>
-  </si>
-  <si>
-    <t>AIA</t>
-  </si>
-  <si>
     <t>SR/ DR No.SCTASK3921718
 PROJECT NAME: n/a</t>
   </si>
   <si>
-    <t>Configuration update for onecloud nginx prod servers ec2prdngnix01, ec2prdngnix02</t>
-  </si>
-  <si>
-    <t>Infocast</t>
-  </si>
-  <si>
-    <t>Save the new configuration</t>
-  </si>
-  <si>
-    <t>check nginx configuration with below command
-nginx -t</t>
-  </si>
-  <si>
-    <t>After successful syntax varification reload nginx service</t>
-  </si>
-  <si>
-    <t>Fusion cloud Infra team</t>
-  </si>
-  <si>
-    <t>2 Hrs</t>
-  </si>
-  <si>
-    <t>SCTASK4149524</t>
-  </si>
-  <si>
-    <t>18/06/2024</t>
-  </si>
-  <si>
-    <t>Replace the nginx configuration file for infocast on location /etc/nginx/sites-available/infocast file attached with the change.</t>
-  </si>
-  <si>
-    <t>Check with Ops and application for verfication if infocast URL is working as expected</t>
-  </si>
-  <si>
-    <t>Devi prasad goddi/Anjul Singh</t>
-  </si>
-  <si>
-    <t>devivaraprasad.goddi@amdocs.com,anjul.singh@amdocs.com</t>
-  </si>
-  <si>
-    <t>7416481909/7275177775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- What is the purpose of this activity?  
-Configuration update for onecloud nginx prod servers ec2prdngnix01, ec2prdngnix02s                                                                                          - Why do we need this activity?
- update needed on onecloud nginx production servers configuration. 
- - What are the changes?
-We received the configuration file from team just need to copy that configuration file in this location /etc/nginx/sites-available/infocast. Attaching file with this change.
-What triggered change? SCTASK4149524
-</t>
-  </si>
-  <si>
-    <t>20/06/2024</t>
-  </si>
-  <si>
-    <t>Roll Back Steps</t>
-  </si>
-  <si>
-    <t>Restore the backed up configuration file</t>
-  </si>
-  <si>
-    <t>Restart the nginx service</t>
-  </si>
-  <si>
-    <t>Validate the Changes</t>
-  </si>
-  <si>
-    <t>&lt;Shweta Chopde&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Prashant yergude&gt;</t>
-  </si>
-  <si>
-    <t>&lt;SCTASK4149524&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Take backup of nginx configuration file for infocast&gt;</t>
-  </si>
-  <si>
     <t>Indicate the total duration of the downtime (in hh:mm format)</t>
   </si>
   <si>
@@ -3931,18 +3836,110 @@
   </si>
   <si>
     <t>Specify the change impact, clearly indicate if the change will incur a downtime</t>
-  </si>
-  <si>
-    <t>Specify the impacted or involved services/systems</t>
-  </si>
-  <si>
-    <t>6/19/2024</t>
   </si>
   <si>
     <t>Provide Production Owner Approval (Milind)  if less than 100%
 Y - Indicate the Document Center Number where evidence can be found (ex. email approval etc.)
 N - Indicate reason why approval has not yet been secured.
 N/A - Mark this section as N/A</t>
+  </si>
+  <si>
+    <t>&lt;Revision Date&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Prepared By&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Reviewed By&gt;</t>
+  </si>
+  <si>
+    <t>&lt;SCTASKID&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Objective of Change&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Change Summary&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Others_Enter SCTASKID&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Write pre deployment steps&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Name of Activity&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Write the deployment steps&gt;</t>
+  </si>
+  <si>
+    <t>&lt;application_name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Implementor for predeployment activity&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Implementor for deployment activity&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Validator for pre deployment activity&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Validator for deployment activity&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Date for pre deployment activity&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Date for deployment activity&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Start Time for deployment activity&gt;</t>
+  </si>
+  <si>
+    <t>&lt;End Time for deployment activity&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Duration of deployment activity in hrs&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Write the rollback steps in details&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Team name of the implementor&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Full name of the implementor&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Application name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Email address of the implementor seperated by commas&gt;</t>
+  </si>
+  <si>
+    <t>&lt;phone number of the implementor seperated by slash&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Testing Certification&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Specify the impacted or involved services/systems&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Hardware Upgrade/Refresh&gt;</t>
+  </si>
+  <si>
+    <t>&lt;CAPACITY ASSESSMENT PERFORMED&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- What is the purpose of this activity? 
+ - Why do we need this activity?
+ - What are the changes?
+- What triggered change?
+</t>
   </si>
 </sst>
 </file>
@@ -4309,7 +4306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -4700,8 +4697,30 @@
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFFFFFFF"/>
-      </top>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FFFFFFFF"/>
       </bottom>
@@ -4712,7 +4731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="336">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5205,9 +5224,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="29" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5226,9 +5242,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="164" fontId="29" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5238,39 +5251,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5280,179 +5386,164 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="33" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="33" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5466,65 +5557,113 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5556,116 +5695,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6598,8 +6629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CFDEA7-B5B6-46B6-8482-0B7E5E79483C}">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView topLeftCell="A48" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6867,16 +6898,16 @@
         <v>171</v>
       </c>
       <c r="D15" s="100"/>
-      <c r="E15" s="261" t="s">
+      <c r="E15" s="285" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="261" t="s">
+      <c r="F15" s="285" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="261" t="s">
+      <c r="G15" s="285" t="s">
         <v>156</v>
       </c>
-      <c r="H15" s="261" t="s">
+      <c r="H15" s="285" t="s">
         <v>155</v>
       </c>
       <c r="I15" s="66" t="s">
@@ -6890,10 +6921,10 @@
         <v>172</v>
       </c>
       <c r="D16" s="102"/>
-      <c r="E16" s="262"/>
-      <c r="F16" s="262"/>
-      <c r="G16" s="262"/>
-      <c r="H16" s="262"/>
+      <c r="E16" s="286"/>
+      <c r="F16" s="286"/>
+      <c r="G16" s="286"/>
+      <c r="H16" s="286"/>
     </row>
     <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="101"/>
@@ -6902,10 +6933,10 @@
         <v>173</v>
       </c>
       <c r="D17" s="102"/>
-      <c r="E17" s="262"/>
-      <c r="F17" s="262"/>
-      <c r="G17" s="262"/>
-      <c r="H17" s="262"/>
+      <c r="E17" s="286"/>
+      <c r="F17" s="286"/>
+      <c r="G17" s="286"/>
+      <c r="H17" s="286"/>
     </row>
     <row r="18" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="101"/>
@@ -6916,10 +6947,10 @@
       <c r="D18" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="E18" s="262"/>
-      <c r="F18" s="262"/>
-      <c r="G18" s="262"/>
-      <c r="H18" s="262"/>
+      <c r="E18" s="286"/>
+      <c r="F18" s="286"/>
+      <c r="G18" s="286"/>
+      <c r="H18" s="286"/>
     </row>
     <row r="19" spans="1:9" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="101"/>
@@ -6928,10 +6959,10 @@
         <v>176</v>
       </c>
       <c r="D19" s="103"/>
-      <c r="E19" s="262"/>
-      <c r="F19" s="262"/>
-      <c r="G19" s="262"/>
-      <c r="H19" s="262"/>
+      <c r="E19" s="286"/>
+      <c r="F19" s="286"/>
+      <c r="G19" s="286"/>
+      <c r="H19" s="286"/>
     </row>
     <row r="20" spans="1:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="101"/>
@@ -6940,10 +6971,10 @@
         <v>177</v>
       </c>
       <c r="D20" s="103"/>
-      <c r="E20" s="262"/>
-      <c r="F20" s="262"/>
-      <c r="G20" s="262"/>
-      <c r="H20" s="262"/>
+      <c r="E20" s="286"/>
+      <c r="F20" s="286"/>
+      <c r="G20" s="286"/>
+      <c r="H20" s="286"/>
     </row>
     <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101"/>
@@ -6952,10 +6983,10 @@
         <v>178</v>
       </c>
       <c r="D21" s="103"/>
-      <c r="E21" s="262"/>
-      <c r="F21" s="262"/>
-      <c r="G21" s="262"/>
-      <c r="H21" s="262"/>
+      <c r="E21" s="286"/>
+      <c r="F21" s="286"/>
+      <c r="G21" s="286"/>
+      <c r="H21" s="286"/>
     </row>
     <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="104"/>
@@ -6964,10 +6995,10 @@
         <v>179</v>
       </c>
       <c r="D22" s="106"/>
-      <c r="E22" s="263"/>
-      <c r="F22" s="263"/>
-      <c r="G22" s="263"/>
-      <c r="H22" s="263"/>
+      <c r="E22" s="287"/>
+      <c r="F22" s="287"/>
+      <c r="G22" s="287"/>
+      <c r="H22" s="287"/>
     </row>
     <row r="23" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A23" s="97"/>
@@ -6976,19 +7007,19 @@
         <v>180</v>
       </c>
       <c r="D23" s="100"/>
-      <c r="E23" s="261" t="s">
+      <c r="E23" s="285" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="261" t="s">
+      <c r="F23" s="285" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="261" t="s">
+      <c r="G23" s="285" t="s">
         <v>156</v>
       </c>
-      <c r="H23" s="261" t="s">
+      <c r="H23" s="285" t="s">
         <v>156</v>
       </c>
-      <c r="I23" s="264" t="s">
+      <c r="I23" s="288" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6999,11 +7030,11 @@
         <v>182</v>
       </c>
       <c r="D24" s="102"/>
-      <c r="E24" s="262"/>
-      <c r="F24" s="262"/>
-      <c r="G24" s="262"/>
-      <c r="H24" s="262"/>
-      <c r="I24" s="264"/>
+      <c r="E24" s="286"/>
+      <c r="F24" s="286"/>
+      <c r="G24" s="286"/>
+      <c r="H24" s="286"/>
+      <c r="I24" s="288"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="101"/>
@@ -7012,11 +7043,11 @@
         <v>183</v>
       </c>
       <c r="D25" s="102"/>
-      <c r="E25" s="262"/>
-      <c r="F25" s="262"/>
-      <c r="G25" s="262"/>
-      <c r="H25" s="262"/>
-      <c r="I25" s="264"/>
+      <c r="E25" s="286"/>
+      <c r="F25" s="286"/>
+      <c r="G25" s="286"/>
+      <c r="H25" s="286"/>
+      <c r="I25" s="288"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="101"/>
@@ -7025,11 +7056,11 @@
         <v>184</v>
       </c>
       <c r="D26" s="102"/>
-      <c r="E26" s="262"/>
-      <c r="F26" s="262"/>
-      <c r="G26" s="262"/>
-      <c r="H26" s="262"/>
-      <c r="I26" s="264"/>
+      <c r="E26" s="286"/>
+      <c r="F26" s="286"/>
+      <c r="G26" s="286"/>
+      <c r="H26" s="286"/>
+      <c r="I26" s="288"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="101"/>
@@ -7038,11 +7069,11 @@
         <v>185</v>
       </c>
       <c r="D27" s="102"/>
-      <c r="E27" s="262"/>
-      <c r="F27" s="262"/>
-      <c r="G27" s="262"/>
-      <c r="H27" s="262"/>
-      <c r="I27" s="264"/>
+      <c r="E27" s="286"/>
+      <c r="F27" s="286"/>
+      <c r="G27" s="286"/>
+      <c r="H27" s="286"/>
+      <c r="I27" s="288"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="101"/>
@@ -7051,11 +7082,11 @@
         <v>186</v>
       </c>
       <c r="D28" s="102"/>
-      <c r="E28" s="262"/>
-      <c r="F28" s="262"/>
-      <c r="G28" s="262"/>
-      <c r="H28" s="262"/>
-      <c r="I28" s="264"/>
+      <c r="E28" s="286"/>
+      <c r="F28" s="286"/>
+      <c r="G28" s="286"/>
+      <c r="H28" s="286"/>
+      <c r="I28" s="288"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="101"/>
@@ -7064,11 +7095,11 @@
         <v>187</v>
       </c>
       <c r="D29" s="102"/>
-      <c r="E29" s="262"/>
-      <c r="F29" s="262"/>
-      <c r="G29" s="262"/>
-      <c r="H29" s="262"/>
-      <c r="I29" s="264"/>
+      <c r="E29" s="286"/>
+      <c r="F29" s="286"/>
+      <c r="G29" s="286"/>
+      <c r="H29" s="286"/>
+      <c r="I29" s="288"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="101"/>
@@ -7077,11 +7108,11 @@
         <v>188</v>
       </c>
       <c r="D30" s="102"/>
-      <c r="E30" s="262"/>
-      <c r="F30" s="262"/>
-      <c r="G30" s="262"/>
-      <c r="H30" s="262"/>
-      <c r="I30" s="264"/>
+      <c r="E30" s="286"/>
+      <c r="F30" s="286"/>
+      <c r="G30" s="286"/>
+      <c r="H30" s="286"/>
+      <c r="I30" s="288"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="101"/>
@@ -7090,11 +7121,11 @@
         <v>189</v>
       </c>
       <c r="D31" s="102"/>
-      <c r="E31" s="262"/>
-      <c r="F31" s="262"/>
-      <c r="G31" s="262"/>
-      <c r="H31" s="262"/>
-      <c r="I31" s="264"/>
+      <c r="E31" s="286"/>
+      <c r="F31" s="286"/>
+      <c r="G31" s="286"/>
+      <c r="H31" s="286"/>
+      <c r="I31" s="288"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="101"/>
@@ -7103,11 +7134,11 @@
         <v>190</v>
       </c>
       <c r="D32" s="102"/>
-      <c r="E32" s="262"/>
-      <c r="F32" s="262"/>
-      <c r="G32" s="262"/>
-      <c r="H32" s="262"/>
-      <c r="I32" s="264"/>
+      <c r="E32" s="286"/>
+      <c r="F32" s="286"/>
+      <c r="G32" s="286"/>
+      <c r="H32" s="286"/>
+      <c r="I32" s="288"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="101"/>
@@ -7116,11 +7147,11 @@
         <v>191</v>
       </c>
       <c r="D33" s="102"/>
-      <c r="E33" s="262"/>
-      <c r="F33" s="262"/>
-      <c r="G33" s="262"/>
-      <c r="H33" s="262"/>
-      <c r="I33" s="264"/>
+      <c r="E33" s="286"/>
+      <c r="F33" s="286"/>
+      <c r="G33" s="286"/>
+      <c r="H33" s="286"/>
+      <c r="I33" s="288"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="101"/>
@@ -7129,11 +7160,11 @@
         <v>192</v>
       </c>
       <c r="D34" s="102"/>
-      <c r="E34" s="262"/>
-      <c r="F34" s="262"/>
-      <c r="G34" s="262"/>
-      <c r="H34" s="262"/>
-      <c r="I34" s="264"/>
+      <c r="E34" s="286"/>
+      <c r="F34" s="286"/>
+      <c r="G34" s="286"/>
+      <c r="H34" s="286"/>
+      <c r="I34" s="288"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="101"/>
@@ -7142,11 +7173,11 @@
         <v>193</v>
       </c>
       <c r="D35" s="102"/>
-      <c r="E35" s="262"/>
-      <c r="F35" s="262"/>
-      <c r="G35" s="262"/>
-      <c r="H35" s="262"/>
-      <c r="I35" s="264"/>
+      <c r="E35" s="286"/>
+      <c r="F35" s="286"/>
+      <c r="G35" s="286"/>
+      <c r="H35" s="286"/>
+      <c r="I35" s="288"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="104"/>
@@ -7155,11 +7186,11 @@
         <v>194</v>
       </c>
       <c r="D36" s="106"/>
-      <c r="E36" s="263"/>
-      <c r="F36" s="263"/>
-      <c r="G36" s="263"/>
-      <c r="H36" s="263"/>
-      <c r="I36" s="264"/>
+      <c r="E36" s="287"/>
+      <c r="F36" s="287"/>
+      <c r="G36" s="287"/>
+      <c r="H36" s="287"/>
+      <c r="I36" s="288"/>
     </row>
     <row r="37" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97"/>
@@ -7168,16 +7199,16 @@
         <v>195</v>
       </c>
       <c r="D37" s="100"/>
-      <c r="E37" s="261" t="s">
+      <c r="E37" s="285" t="s">
         <v>155</v>
       </c>
-      <c r="F37" s="261" t="s">
+      <c r="F37" s="285" t="s">
         <v>155</v>
       </c>
-      <c r="G37" s="261" t="s">
+      <c r="G37" s="285" t="s">
         <v>155</v>
       </c>
-      <c r="H37" s="261" t="s">
+      <c r="H37" s="285" t="s">
         <v>155</v>
       </c>
       <c r="I37" s="66" t="s">
@@ -7191,10 +7222,10 @@
         <v>197</v>
       </c>
       <c r="D38" s="107"/>
-      <c r="E38" s="263"/>
-      <c r="F38" s="263"/>
-      <c r="G38" s="263"/>
-      <c r="H38" s="263"/>
+      <c r="E38" s="287"/>
+      <c r="F38" s="287"/>
+      <c r="G38" s="287"/>
+      <c r="H38" s="287"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="108"/>
@@ -7203,19 +7234,19 @@
         <v>198</v>
       </c>
       <c r="D39" s="100"/>
-      <c r="E39" s="261" t="s">
+      <c r="E39" s="285" t="s">
         <v>155</v>
       </c>
-      <c r="F39" s="261" t="s">
+      <c r="F39" s="285" t="s">
         <v>156</v>
       </c>
-      <c r="G39" s="261" t="s">
+      <c r="G39" s="285" t="s">
         <v>156</v>
       </c>
-      <c r="H39" s="261" t="s">
+      <c r="H39" s="285" t="s">
         <v>156</v>
       </c>
-      <c r="I39" s="264" t="s">
+      <c r="I39" s="288" t="s">
         <v>199</v>
       </c>
     </row>
@@ -7228,11 +7259,11 @@
       <c r="D40" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="E40" s="262"/>
-      <c r="F40" s="262"/>
-      <c r="G40" s="262"/>
-      <c r="H40" s="262"/>
-      <c r="I40" s="264"/>
+      <c r="E40" s="286"/>
+      <c r="F40" s="286"/>
+      <c r="G40" s="286"/>
+      <c r="H40" s="286"/>
+      <c r="I40" s="288"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="110"/>
@@ -7243,11 +7274,11 @@
       <c r="D41" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="E41" s="262"/>
-      <c r="F41" s="262"/>
-      <c r="G41" s="262"/>
-      <c r="H41" s="262"/>
-      <c r="I41" s="264"/>
+      <c r="E41" s="286"/>
+      <c r="F41" s="286"/>
+      <c r="G41" s="286"/>
+      <c r="H41" s="286"/>
+      <c r="I41" s="288"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="113"/>
@@ -7256,11 +7287,11 @@
         <v>204</v>
       </c>
       <c r="D42" s="107"/>
-      <c r="E42" s="263"/>
-      <c r="F42" s="263"/>
-      <c r="G42" s="263"/>
-      <c r="H42" s="263"/>
-      <c r="I42" s="264"/>
+      <c r="E42" s="287"/>
+      <c r="F42" s="287"/>
+      <c r="G42" s="287"/>
+      <c r="H42" s="287"/>
+      <c r="I42" s="288"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="80">
@@ -7277,7 +7308,7 @@
       <c r="H43" s="84"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="266" t="s">
+      <c r="A44" s="282" t="s">
         <v>163</v>
       </c>
       <c r="B44" s="115"/>
@@ -7285,104 +7316,104 @@
         <v>206</v>
       </c>
       <c r="D44" s="100"/>
-      <c r="E44" s="261" t="s">
+      <c r="E44" s="285" t="s">
         <v>155</v>
       </c>
-      <c r="F44" s="261" t="s">
+      <c r="F44" s="285" t="s">
         <v>156</v>
       </c>
-      <c r="G44" s="261" t="s">
+      <c r="G44" s="285" t="s">
         <v>156</v>
       </c>
-      <c r="H44" s="261" t="s">
+      <c r="H44" s="285" t="s">
         <v>155</v>
       </c>
-      <c r="I44" s="264" t="s">
+      <c r="I44" s="288" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="267"/>
+      <c r="A45" s="283"/>
       <c r="B45" s="116"/>
       <c r="C45" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="265" t="s">
+      <c r="D45" s="277" t="s">
         <v>208</v>
       </c>
-      <c r="E45" s="262"/>
-      <c r="F45" s="262"/>
-      <c r="G45" s="262"/>
-      <c r="H45" s="262"/>
-      <c r="I45" s="264"/>
+      <c r="E45" s="286"/>
+      <c r="F45" s="286"/>
+      <c r="G45" s="286"/>
+      <c r="H45" s="286"/>
+      <c r="I45" s="288"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="267"/>
+      <c r="A46" s="283"/>
       <c r="B46" s="116"/>
       <c r="C46" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="D46" s="265"/>
-      <c r="E46" s="262"/>
-      <c r="F46" s="262"/>
-      <c r="G46" s="262"/>
-      <c r="H46" s="262"/>
-      <c r="I46" s="264"/>
+      <c r="D46" s="277"/>
+      <c r="E46" s="286"/>
+      <c r="F46" s="286"/>
+      <c r="G46" s="286"/>
+      <c r="H46" s="286"/>
+      <c r="I46" s="288"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="267"/>
+      <c r="A47" s="283"/>
       <c r="B47" s="116"/>
       <c r="C47" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D47" s="265"/>
-      <c r="E47" s="262"/>
-      <c r="F47" s="262"/>
-      <c r="G47" s="262"/>
-      <c r="H47" s="262"/>
-      <c r="I47" s="264"/>
+      <c r="D47" s="277"/>
+      <c r="E47" s="286"/>
+      <c r="F47" s="286"/>
+      <c r="G47" s="286"/>
+      <c r="H47" s="286"/>
+      <c r="I47" s="288"/>
     </row>
     <row r="48" spans="1:9" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="267"/>
+      <c r="A48" s="283"/>
       <c r="B48" s="116"/>
       <c r="C48" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="D48" s="265"/>
-      <c r="E48" s="262"/>
-      <c r="F48" s="262"/>
-      <c r="G48" s="262"/>
-      <c r="H48" s="262"/>
-      <c r="I48" s="264"/>
+      <c r="D48" s="277"/>
+      <c r="E48" s="286"/>
+      <c r="F48" s="286"/>
+      <c r="G48" s="286"/>
+      <c r="H48" s="286"/>
+      <c r="I48" s="288"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="267"/>
+      <c r="A49" s="283"/>
       <c r="B49" s="116"/>
       <c r="C49" s="90" t="s">
         <v>212</v>
       </c>
       <c r="D49" s="90"/>
-      <c r="E49" s="262"/>
-      <c r="F49" s="262"/>
-      <c r="G49" s="262"/>
-      <c r="H49" s="262"/>
-      <c r="I49" s="264"/>
+      <c r="E49" s="286"/>
+      <c r="F49" s="286"/>
+      <c r="G49" s="286"/>
+      <c r="H49" s="286"/>
+      <c r="I49" s="288"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="267"/>
+      <c r="A50" s="283"/>
       <c r="B50" s="116"/>
       <c r="C50" s="90" t="s">
         <v>213</v>
       </c>
       <c r="D50" s="90"/>
-      <c r="E50" s="262"/>
-      <c r="F50" s="262"/>
-      <c r="G50" s="262"/>
-      <c r="H50" s="262"/>
-      <c r="I50" s="264"/>
+      <c r="E50" s="286"/>
+      <c r="F50" s="286"/>
+      <c r="G50" s="286"/>
+      <c r="H50" s="286"/>
+      <c r="I50" s="288"/>
     </row>
     <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="268"/>
+      <c r="A51" s="284"/>
       <c r="B51" s="117"/>
       <c r="C51" s="118" t="s">
         <v>214</v>
@@ -7390,11 +7421,11 @@
       <c r="D51" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="E51" s="263"/>
-      <c r="F51" s="263"/>
-      <c r="G51" s="263"/>
-      <c r="H51" s="263"/>
-      <c r="I51" s="264"/>
+      <c r="E51" s="287"/>
+      <c r="F51" s="287"/>
+      <c r="G51" s="287"/>
+      <c r="H51" s="287"/>
+      <c r="I51" s="288"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="80"/>
@@ -7409,7 +7440,7 @@
       <c r="H52" s="84"/>
     </row>
     <row r="53" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="270" t="s">
+      <c r="A53" s="274" t="s">
         <v>163</v>
       </c>
       <c r="B53" s="119"/>
@@ -7417,16 +7448,16 @@
         <v>217</v>
       </c>
       <c r="D53" s="100"/>
-      <c r="E53" s="273" t="s">
+      <c r="E53" s="266" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="273" t="s">
+      <c r="F53" s="266" t="s">
         <v>155</v>
       </c>
-      <c r="G53" s="273" t="s">
+      <c r="G53" s="266" t="s">
         <v>156</v>
       </c>
-      <c r="H53" s="273" t="s">
+      <c r="H53" s="266" t="s">
         <v>155</v>
       </c>
       <c r="I53" s="269" t="s">
@@ -7434,57 +7465,57 @@
       </c>
     </row>
     <row r="54" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="271"/>
+      <c r="A54" s="275"/>
       <c r="B54" s="120"/>
       <c r="C54" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="D54" s="265" t="s">
+      <c r="D54" s="277" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="274"/>
-      <c r="F54" s="274"/>
-      <c r="G54" s="274"/>
-      <c r="H54" s="274"/>
+      <c r="E54" s="267"/>
+      <c r="F54" s="267"/>
+      <c r="G54" s="267"/>
+      <c r="H54" s="267"/>
       <c r="I54" s="269"/>
     </row>
     <row r="55" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="271"/>
+      <c r="A55" s="275"/>
       <c r="B55" s="120"/>
       <c r="C55" s="112" t="s">
         <v>221</v>
       </c>
-      <c r="D55" s="265"/>
-      <c r="E55" s="274"/>
-      <c r="F55" s="274"/>
-      <c r="G55" s="274"/>
-      <c r="H55" s="274"/>
+      <c r="D55" s="277"/>
+      <c r="E55" s="267"/>
+      <c r="F55" s="267"/>
+      <c r="G55" s="267"/>
+      <c r="H55" s="267"/>
       <c r="I55" s="269"/>
     </row>
     <row r="56" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="271"/>
+      <c r="A56" s="275"/>
       <c r="B56" s="120"/>
       <c r="C56" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="D56" s="265"/>
-      <c r="E56" s="274"/>
-      <c r="F56" s="274"/>
-      <c r="G56" s="274"/>
-      <c r="H56" s="274"/>
+      <c r="D56" s="277"/>
+      <c r="E56" s="267"/>
+      <c r="F56" s="267"/>
+      <c r="G56" s="267"/>
+      <c r="H56" s="267"/>
       <c r="I56" s="269"/>
     </row>
     <row r="57" spans="1:9" s="90" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="272"/>
+      <c r="A57" s="276"/>
       <c r="B57" s="121"/>
       <c r="C57" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="D57" s="276"/>
-      <c r="E57" s="275"/>
-      <c r="F57" s="275"/>
-      <c r="G57" s="275"/>
-      <c r="H57" s="275"/>
+      <c r="D57" s="278"/>
+      <c r="E57" s="268"/>
+      <c r="F57" s="268"/>
+      <c r="G57" s="268"/>
+      <c r="H57" s="268"/>
       <c r="I57" s="269"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -7501,7 +7532,7 @@
       <c r="I58" s="123"/>
     </row>
     <row r="59" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="277" t="s">
+      <c r="A59" s="279" t="s">
         <v>163</v>
       </c>
       <c r="B59" s="124"/>
@@ -7509,16 +7540,16 @@
         <v>225</v>
       </c>
       <c r="D59" s="100"/>
-      <c r="E59" s="273" t="s">
+      <c r="E59" s="266" t="s">
         <v>155</v>
       </c>
-      <c r="F59" s="273" t="s">
+      <c r="F59" s="266" t="s">
         <v>155</v>
       </c>
-      <c r="G59" s="273" t="s">
+      <c r="G59" s="266" t="s">
         <v>156</v>
       </c>
-      <c r="H59" s="273" t="s">
+      <c r="H59" s="266" t="s">
         <v>155</v>
       </c>
       <c r="I59" s="269" t="s">
@@ -7526,7 +7557,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="278"/>
+      <c r="A60" s="280"/>
       <c r="B60" s="125"/>
       <c r="C60" s="90" t="s">
         <v>226</v>
@@ -7534,35 +7565,35 @@
       <c r="D60" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="E60" s="274"/>
-      <c r="F60" s="274"/>
-      <c r="G60" s="274"/>
-      <c r="H60" s="274"/>
+      <c r="E60" s="267"/>
+      <c r="F60" s="267"/>
+      <c r="G60" s="267"/>
+      <c r="H60" s="267"/>
       <c r="I60" s="269"/>
     </row>
     <row r="61" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="278"/>
+      <c r="A61" s="280"/>
       <c r="B61" s="125"/>
       <c r="C61" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="274"/>
-      <c r="F61" s="274"/>
-      <c r="G61" s="274"/>
-      <c r="H61" s="274"/>
+      <c r="E61" s="267"/>
+      <c r="F61" s="267"/>
+      <c r="G61" s="267"/>
+      <c r="H61" s="267"/>
       <c r="I61" s="269"/>
     </row>
     <row r="62" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="279"/>
+      <c r="A62" s="281"/>
       <c r="B62" s="126"/>
       <c r="C62" s="107" t="s">
         <v>228</v>
       </c>
       <c r="D62" s="107"/>
-      <c r="E62" s="275"/>
-      <c r="F62" s="275"/>
-      <c r="G62" s="275"/>
-      <c r="H62" s="275"/>
+      <c r="E62" s="268"/>
+      <c r="F62" s="268"/>
+      <c r="G62" s="268"/>
+      <c r="H62" s="268"/>
       <c r="I62" s="269"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -7587,16 +7618,16 @@
         <v>230</v>
       </c>
       <c r="D64" s="100"/>
-      <c r="E64" s="273" t="s">
+      <c r="E64" s="266" t="s">
         <v>155</v>
       </c>
-      <c r="F64" s="273" t="s">
+      <c r="F64" s="266" t="s">
         <v>155</v>
       </c>
-      <c r="G64" s="273" t="s">
+      <c r="G64" s="266" t="s">
         <v>156</v>
       </c>
-      <c r="H64" s="273" t="s">
+      <c r="H64" s="266" t="s">
         <v>155</v>
       </c>
       <c r="I64" s="269" t="s">
@@ -7610,10 +7641,10 @@
         <v>231</v>
       </c>
       <c r="D65" s="102"/>
-      <c r="E65" s="274"/>
-      <c r="F65" s="274"/>
-      <c r="G65" s="274"/>
-      <c r="H65" s="274"/>
+      <c r="E65" s="267"/>
+      <c r="F65" s="267"/>
+      <c r="G65" s="267"/>
+      <c r="H65" s="267"/>
       <c r="I65" s="269"/>
     </row>
     <row r="66" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -7622,10 +7653,10 @@
       <c r="C66" s="90" t="s">
         <v>232</v>
       </c>
-      <c r="E66" s="274"/>
-      <c r="F66" s="274"/>
-      <c r="G66" s="274"/>
-      <c r="H66" s="274"/>
+      <c r="E66" s="267"/>
+      <c r="F66" s="267"/>
+      <c r="G66" s="267"/>
+      <c r="H66" s="267"/>
       <c r="I66" s="269"/>
     </row>
     <row r="67" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -7635,10 +7666,10 @@
         <v>233</v>
       </c>
       <c r="D67" s="107"/>
-      <c r="E67" s="275"/>
-      <c r="F67" s="275"/>
-      <c r="G67" s="275"/>
-      <c r="H67" s="275"/>
+      <c r="E67" s="268"/>
+      <c r="F67" s="268"/>
+      <c r="G67" s="268"/>
+      <c r="H67" s="268"/>
       <c r="I67" s="269"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -7688,19 +7719,19 @@
       <c r="D70" s="140" t="s">
         <v>237</v>
       </c>
-      <c r="E70" s="280" t="s">
+      <c r="E70" s="270" t="s">
         <v>155</v>
       </c>
-      <c r="F70" s="280" t="s">
+      <c r="F70" s="270" t="s">
         <v>155</v>
       </c>
-      <c r="G70" s="280" t="s">
+      <c r="G70" s="270" t="s">
         <v>156</v>
       </c>
-      <c r="H70" s="280" t="s">
+      <c r="H70" s="270" t="s">
         <v>155</v>
       </c>
-      <c r="I70" s="283" t="s">
+      <c r="I70" s="273" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7710,11 +7741,11 @@
       <c r="C71" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="E71" s="281"/>
-      <c r="F71" s="281"/>
-      <c r="G71" s="281"/>
-      <c r="H71" s="281"/>
-      <c r="I71" s="283"/>
+      <c r="E71" s="271"/>
+      <c r="F71" s="271"/>
+      <c r="G71" s="271"/>
+      <c r="H71" s="271"/>
+      <c r="I71" s="273"/>
     </row>
     <row r="72" spans="1:9" s="136" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A72" s="141"/>
@@ -7725,11 +7756,11 @@
       <c r="D72" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="E72" s="281"/>
-      <c r="F72" s="281"/>
-      <c r="G72" s="281"/>
-      <c r="H72" s="281"/>
-      <c r="I72" s="283"/>
+      <c r="E72" s="271"/>
+      <c r="F72" s="271"/>
+      <c r="G72" s="271"/>
+      <c r="H72" s="271"/>
+      <c r="I72" s="273"/>
     </row>
     <row r="73" spans="1:9" s="136" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A73" s="144"/>
@@ -7740,11 +7771,11 @@
       <c r="D73" s="145" t="s">
         <v>242</v>
       </c>
-      <c r="E73" s="282"/>
-      <c r="F73" s="282"/>
-      <c r="G73" s="282"/>
-      <c r="H73" s="282"/>
-      <c r="I73" s="283"/>
+      <c r="E73" s="272"/>
+      <c r="F73" s="272"/>
+      <c r="G73" s="272"/>
+      <c r="H73" s="272"/>
+      <c r="I73" s="273"/>
     </row>
     <row r="74" spans="1:9" s="136" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="131"/>
@@ -7795,7 +7826,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="284" t="s">
+      <c r="A79" s="265" t="s">
         <v>247</v>
       </c>
       <c r="B79" s="149" t="s">
@@ -7807,7 +7838,7 @@
       <c r="D79" s="150"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="284"/>
+      <c r="A80" s="265"/>
       <c r="B80" s="149" t="s">
         <v>250</v>
       </c>
@@ -7817,7 +7848,7 @@
       <c r="D80" s="150"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="284"/>
+      <c r="A81" s="265"/>
       <c r="B81" s="149" t="s">
         <v>251</v>
       </c>
@@ -7827,7 +7858,7 @@
       <c r="D81" s="150"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="284"/>
+      <c r="A82" s="265"/>
       <c r="B82" s="149" t="s">
         <v>253</v>
       </c>
@@ -7837,7 +7868,7 @@
       <c r="D82" s="150"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="284"/>
+      <c r="A83" s="265"/>
       <c r="B83" s="149" t="s">
         <v>255</v>
       </c>
@@ -7847,7 +7878,7 @@
       <c r="D83" s="150"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="284"/>
+      <c r="A84" s="265"/>
       <c r="B84" s="149" t="s">
         <v>257</v>
       </c>
@@ -7857,7 +7888,7 @@
       <c r="D84" s="150"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="284"/>
+      <c r="A85" s="265"/>
       <c r="B85" s="149" t="s">
         <v>258</v>
       </c>
@@ -7873,7 +7904,7 @@
       <c r="D86" s="82"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="284" t="s">
+      <c r="A87" s="265" t="s">
         <v>259</v>
       </c>
       <c r="B87" s="149" t="s">
@@ -7885,7 +7916,7 @@
       <c r="D87" s="150"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="284"/>
+      <c r="A88" s="265"/>
       <c r="B88" s="149" t="s">
         <v>262</v>
       </c>
@@ -7895,7 +7926,7 @@
       <c r="D88" s="150"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="284"/>
+      <c r="A89" s="265"/>
       <c r="B89" s="149" t="s">
         <v>264</v>
       </c>
@@ -7905,7 +7936,7 @@
       <c r="D89" s="150"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="284"/>
+      <c r="A90" s="265"/>
       <c r="B90" s="149" t="s">
         <v>265</v>
       </c>
@@ -7915,7 +7946,7 @@
       <c r="D90" s="150"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="284"/>
+      <c r="A91" s="265"/>
       <c r="B91" s="149" t="s">
         <v>266</v>
       </c>
@@ -7925,7 +7956,7 @@
       <c r="D91" s="150"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="284"/>
+      <c r="A92" s="265"/>
       <c r="B92" s="149" t="s">
         <v>267</v>
       </c>
@@ -7935,7 +7966,7 @@
       <c r="D92" s="150"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="284"/>
+      <c r="A93" s="265"/>
       <c r="B93" s="149" t="s">
         <v>268</v>
       </c>
@@ -7945,7 +7976,7 @@
       <c r="D93" s="150"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="284"/>
+      <c r="A94" s="265"/>
       <c r="B94" s="149" t="s">
         <v>269</v>
       </c>
@@ -7955,7 +7986,7 @@
       <c r="D94" s="150"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="284"/>
+      <c r="A95" s="265"/>
       <c r="B95" s="149" t="s">
         <v>270</v>
       </c>
@@ -7965,7 +7996,7 @@
       <c r="D95" s="150"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="284"/>
+      <c r="A96" s="265"/>
       <c r="B96" s="149" t="s">
         <v>271</v>
       </c>
@@ -7975,7 +8006,7 @@
       <c r="D96" s="150"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="284"/>
+      <c r="A97" s="265"/>
       <c r="B97" s="149" t="s">
         <v>272</v>
       </c>
@@ -7985,7 +8016,7 @@
       <c r="D97" s="150"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="284"/>
+      <c r="A98" s="265"/>
       <c r="B98" s="149" t="s">
         <v>274</v>
       </c>
@@ -7995,7 +8026,7 @@
       <c r="D98" s="150"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="284"/>
+      <c r="A99" s="265"/>
       <c r="B99" s="149" t="s">
         <v>275</v>
       </c>
@@ -8005,7 +8036,7 @@
       <c r="D99" s="150"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="284"/>
+      <c r="A100" s="265"/>
       <c r="B100" s="149" t="s">
         <v>276</v>
       </c>
@@ -8029,7 +8060,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="284" t="s">
+      <c r="A102" s="265" t="s">
         <v>277</v>
       </c>
       <c r="B102" s="149" t="s">
@@ -8041,7 +8072,7 @@
       <c r="D102" s="150"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="284"/>
+      <c r="A103" s="265"/>
       <c r="B103" s="149" t="s">
         <v>280</v>
       </c>
@@ -8051,7 +8082,7 @@
       <c r="D103" s="150"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="284"/>
+      <c r="A104" s="265"/>
       <c r="B104" s="149" t="s">
         <v>281</v>
       </c>
@@ -8061,7 +8092,7 @@
       <c r="D104" s="150"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="284"/>
+      <c r="A105" s="265"/>
       <c r="B105" s="149" t="s">
         <v>282</v>
       </c>
@@ -8071,7 +8102,7 @@
       <c r="D105" s="150"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="284"/>
+      <c r="A106" s="265"/>
       <c r="B106" s="149" t="s">
         <v>283</v>
       </c>
@@ -8081,7 +8112,7 @@
       <c r="D106" s="150"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="284"/>
+      <c r="A107" s="265"/>
       <c r="B107" s="149" t="s">
         <v>284</v>
       </c>
@@ -8091,7 +8122,7 @@
       <c r="D107" s="150"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="284"/>
+      <c r="A108" s="265"/>
       <c r="B108" s="149" t="s">
         <v>285</v>
       </c>
@@ -8101,7 +8132,7 @@
       <c r="D108" s="150"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="284"/>
+      <c r="A109" s="265"/>
       <c r="B109" s="149" t="s">
         <v>286</v>
       </c>
@@ -8111,7 +8142,7 @@
       <c r="D109" s="150"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="284"/>
+      <c r="A110" s="265"/>
       <c r="B110" s="149" t="s">
         <v>287</v>
       </c>
@@ -8121,7 +8152,7 @@
       <c r="D110" s="150"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="284"/>
+      <c r="A111" s="265"/>
       <c r="B111" s="149" t="s">
         <v>288</v>
       </c>
@@ -8137,7 +8168,7 @@
       <c r="D112" s="82"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="284" t="s">
+      <c r="A113" s="265" t="s">
         <v>289</v>
       </c>
       <c r="B113" s="149" t="s">
@@ -8149,7 +8180,7 @@
       <c r="D113" s="150"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="284"/>
+      <c r="A114" s="265"/>
       <c r="B114" s="149" t="s">
         <v>291</v>
       </c>
@@ -8165,7 +8196,7 @@
       <c r="D115" s="82"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="284" t="s">
+      <c r="A116" s="265" t="s">
         <v>292</v>
       </c>
       <c r="B116" s="149" t="s">
@@ -8177,7 +8208,7 @@
       <c r="D116" s="149"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="284"/>
+      <c r="A117" s="265"/>
       <c r="B117" s="149" t="s">
         <v>295</v>
       </c>
@@ -8188,21 +8219,31 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A79:A85"/>
-    <mergeCell ref="A87:A100"/>
-    <mergeCell ref="A102:A111"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="I64:I67"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="I70:I73"/>
+    <mergeCell ref="E15:E22"/>
+    <mergeCell ref="F15:F22"/>
+    <mergeCell ref="G15:G22"/>
+    <mergeCell ref="H15:H22"/>
+    <mergeCell ref="E23:E36"/>
+    <mergeCell ref="F23:F36"/>
+    <mergeCell ref="G23:G36"/>
+    <mergeCell ref="H23:H36"/>
+    <mergeCell ref="I44:I51"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="I23:I36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="E44:E51"/>
+    <mergeCell ref="F44:F51"/>
+    <mergeCell ref="G44:G51"/>
+    <mergeCell ref="H44:H51"/>
     <mergeCell ref="I59:I62"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="E53:E57"/>
@@ -8216,31 +8257,21 @@
     <mergeCell ref="F59:F62"/>
     <mergeCell ref="G59:G62"/>
     <mergeCell ref="H59:H62"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="E44:E51"/>
-    <mergeCell ref="F44:F51"/>
-    <mergeCell ref="G44:G51"/>
-    <mergeCell ref="H44:H51"/>
-    <mergeCell ref="I44:I51"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="I23:I36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="E15:E22"/>
-    <mergeCell ref="F15:F22"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="H15:H22"/>
-    <mergeCell ref="E23:E36"/>
-    <mergeCell ref="F23:F36"/>
-    <mergeCell ref="G23:G36"/>
-    <mergeCell ref="H23:H36"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="I70:I73"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="I64:I67"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="A87:A100"/>
+    <mergeCell ref="A102:A111"/>
+    <mergeCell ref="A113:A114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8251,8 +8282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C0A79D-A626-4DD4-B8EE-5B53C29B3719}">
   <dimension ref="B1:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8260,9 +8291,9 @@
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -8292,33 +8323,27 @@
     </row>
     <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="161" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E4" s="184" t="s">
-        <v>353</v>
+        <v>363</v>
+      </c>
+      <c r="E4" s="183" t="s">
+        <v>364</v>
       </c>
       <c r="F4" s="160" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="161"/>
-      <c r="C5" s="173" t="s">
-        <v>336</v>
-      </c>
+      <c r="C5" s="173"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="174" t="s">
-        <v>337</v>
-      </c>
-      <c r="F5" s="160" t="s">
-        <v>338</v>
-      </c>
+      <c r="E5" s="174"/>
+      <c r="F5" s="160"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="161"/>
@@ -8378,11 +8403,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{432BE3F2-D764-4042-A746-5A36D72F030E}"/>
-    <hyperlink ref="E5" r:id="rId2" display="mailto:JohnRoderick.Samonte@amdocs.com" xr:uid="{EC5334D5-262E-4C0B-A132-DF532DB2D587}"/>
+    <hyperlink ref="E4" r:id="rId1" display="devivaraprasad.goddi@amdocs.com,anjul.singh@amdocs.com" xr:uid="{432BE3F2-D764-4042-A746-5A36D72F030E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8409,127 +8433,127 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="285" t="s">
+      <c r="D3" s="325" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="286"/>
-      <c r="K3" s="286"/>
-      <c r="L3" s="286"/>
-      <c r="M3" s="286"/>
-      <c r="N3" s="286"/>
-      <c r="O3" s="287"/>
-      <c r="P3" s="291" t="s">
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326"/>
+      <c r="H3" s="326"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+      <c r="L3" s="326"/>
+      <c r="M3" s="326"/>
+      <c r="N3" s="326"/>
+      <c r="O3" s="327"/>
+      <c r="P3" s="331" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="292"/>
+      <c r="Q3" s="332"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="288"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
-      <c r="I4" s="289"/>
-      <c r="J4" s="289"/>
-      <c r="K4" s="289"/>
-      <c r="L4" s="289"/>
-      <c r="M4" s="289"/>
-      <c r="N4" s="289"/>
-      <c r="O4" s="290"/>
-      <c r="P4" s="293"/>
-      <c r="Q4" s="294"/>
+      <c r="D4" s="328"/>
+      <c r="E4" s="329"/>
+      <c r="F4" s="329"/>
+      <c r="G4" s="329"/>
+      <c r="H4" s="329"/>
+      <c r="I4" s="329"/>
+      <c r="J4" s="329"/>
+      <c r="K4" s="329"/>
+      <c r="L4" s="329"/>
+      <c r="M4" s="329"/>
+      <c r="N4" s="329"/>
+      <c r="O4" s="330"/>
+      <c r="P4" s="333"/>
+      <c r="Q4" s="334"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="295" t="s">
+      <c r="B6" s="305" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="296"/>
-      <c r="D6" s="296"/>
-      <c r="E6" s="296"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="296"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="296"/>
-      <c r="K6" s="296"/>
-      <c r="L6" s="296"/>
-      <c r="M6" s="296"/>
-      <c r="N6" s="296"/>
-      <c r="O6" s="296"/>
-      <c r="P6" s="296"/>
-      <c r="Q6" s="297"/>
+      <c r="C6" s="290"/>
+      <c r="D6" s="290"/>
+      <c r="E6" s="290"/>
+      <c r="F6" s="290"/>
+      <c r="G6" s="290"/>
+      <c r="H6" s="290"/>
+      <c r="I6" s="290"/>
+      <c r="J6" s="290"/>
+      <c r="K6" s="290"/>
+      <c r="L6" s="290"/>
+      <c r="M6" s="290"/>
+      <c r="N6" s="290"/>
+      <c r="O6" s="290"/>
+      <c r="P6" s="290"/>
+      <c r="Q6" s="291"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="298"/>
-      <c r="C7" s="299"/>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="299"/>
-      <c r="J7" s="299"/>
-      <c r="K7" s="299"/>
-      <c r="L7" s="299"/>
-      <c r="M7" s="299"/>
-      <c r="N7" s="299"/>
-      <c r="O7" s="299"/>
-      <c r="P7" s="299"/>
-      <c r="Q7" s="300"/>
+      <c r="B7" s="292"/>
+      <c r="C7" s="293"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="293"/>
+      <c r="G7" s="293"/>
+      <c r="H7" s="293"/>
+      <c r="I7" s="293"/>
+      <c r="J7" s="293"/>
+      <c r="K7" s="293"/>
+      <c r="L7" s="293"/>
+      <c r="M7" s="293"/>
+      <c r="N7" s="293"/>
+      <c r="O7" s="293"/>
+      <c r="P7" s="293"/>
+      <c r="Q7" s="294"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="301"/>
-      <c r="C8" s="302"/>
-      <c r="D8" s="302"/>
-      <c r="E8" s="302"/>
-      <c r="F8" s="302"/>
-      <c r="G8" s="302"/>
-      <c r="H8" s="302"/>
-      <c r="I8" s="302"/>
-      <c r="J8" s="302"/>
-      <c r="K8" s="302"/>
-      <c r="L8" s="302"/>
-      <c r="M8" s="302"/>
-      <c r="N8" s="302"/>
-      <c r="O8" s="302"/>
-      <c r="P8" s="302"/>
-      <c r="Q8" s="303"/>
+      <c r="B8" s="295"/>
+      <c r="C8" s="296"/>
+      <c r="D8" s="296"/>
+      <c r="E8" s="296"/>
+      <c r="F8" s="296"/>
+      <c r="G8" s="296"/>
+      <c r="H8" s="296"/>
+      <c r="I8" s="296"/>
+      <c r="J8" s="296"/>
+      <c r="K8" s="296"/>
+      <c r="L8" s="296"/>
+      <c r="M8" s="296"/>
+      <c r="N8" s="296"/>
+      <c r="O8" s="296"/>
+      <c r="P8" s="296"/>
+      <c r="Q8" s="297"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="304" t="s">
+      <c r="B10" s="302" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="305"/>
-      <c r="D10" s="305"/>
-      <c r="E10" s="305"/>
-      <c r="F10" s="305"/>
-      <c r="G10" s="305"/>
-      <c r="H10" s="305"/>
-      <c r="I10" s="305"/>
-      <c r="J10" s="305"/>
-      <c r="K10" s="305"/>
-      <c r="L10" s="305"/>
-      <c r="M10" s="305"/>
-      <c r="N10" s="305"/>
-      <c r="O10" s="305"/>
-      <c r="P10" s="305"/>
-      <c r="Q10" s="306"/>
+      <c r="C10" s="303"/>
+      <c r="D10" s="303"/>
+      <c r="E10" s="303"/>
+      <c r="F10" s="303"/>
+      <c r="G10" s="303"/>
+      <c r="H10" s="303"/>
+      <c r="I10" s="303"/>
+      <c r="J10" s="303"/>
+      <c r="K10" s="303"/>
+      <c r="L10" s="303"/>
+      <c r="M10" s="303"/>
+      <c r="N10" s="303"/>
+      <c r="O10" s="303"/>
+      <c r="P10" s="303"/>
+      <c r="Q10" s="304"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
-      <c r="C11" s="307" t="s">
+      <c r="C11" s="335" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="307"/>
+      <c r="D11" s="335"/>
       <c r="E11" s="17" t="s">
         <v>40</v>
       </c>
@@ -8538,10 +8562,10 @@
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="307" t="s">
+      <c r="K11" s="335" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="307"/>
+      <c r="L11" s="335"/>
       <c r="M11" s="17" t="s">
         <v>42</v>
       </c>
@@ -8552,20 +8576,20 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19"/>
-      <c r="C12" s="308" t="s">
+      <c r="C12" s="298" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="308"/>
+      <c r="D12" s="298"/>
       <c r="E12" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="K12" s="308" t="s">
+      <c r="K12" s="298" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="308"/>
+      <c r="L12" s="298"/>
       <c r="M12" s="17" t="s">
         <v>46</v>
       </c>
@@ -8576,20 +8600,20 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="19"/>
-      <c r="C13" s="308" t="s">
+      <c r="C13" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="308"/>
+      <c r="D13" s="298"/>
       <c r="E13" s="17" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="K13" s="308" t="s">
+      <c r="K13" s="298" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="308"/>
+      <c r="L13" s="298"/>
       <c r="M13" s="17" t="s">
         <v>50</v>
       </c>
@@ -8600,20 +8624,20 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="19"/>
-      <c r="C14" s="308" t="s">
+      <c r="C14" s="298" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="308"/>
+      <c r="D14" s="298"/>
       <c r="E14" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
-      <c r="K14" s="308" t="s">
+      <c r="K14" s="298" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="308"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="17" t="s">
         <v>54</v>
       </c>
@@ -8624,10 +8648,10 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="19"/>
-      <c r="C15" s="308" t="s">
+      <c r="C15" s="298" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="308"/>
+      <c r="D15" s="298"/>
       <c r="E15" s="17" t="s">
         <v>56</v>
       </c>
@@ -8648,24 +8672,24 @@
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="19"/>
-      <c r="C17" s="309" t="s">
+      <c r="C17" s="317" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="310"/>
+      <c r="D17" s="311"/>
       <c r="E17" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="311" t="s">
+      <c r="F17" s="318" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="311"/>
-      <c r="H17" s="311"/>
-      <c r="K17" s="309" t="s">
+      <c r="G17" s="318"/>
+      <c r="H17" s="318"/>
+      <c r="K17" s="317" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="312"/>
-      <c r="M17" s="312"/>
-      <c r="N17" s="310"/>
+      <c r="L17" s="324"/>
+      <c r="M17" s="324"/>
+      <c r="N17" s="311"/>
       <c r="O17" s="23" t="s">
         <v>61</v>
       </c>
@@ -8676,42 +8700,42 @@
     </row>
     <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="19"/>
-      <c r="C18" s="309"/>
-      <c r="D18" s="310"/>
+      <c r="C18" s="317"/>
+      <c r="D18" s="311"/>
       <c r="E18" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="311"/>
-      <c r="G18" s="311"/>
-      <c r="H18" s="311"/>
-      <c r="K18" s="313" t="s">
+      <c r="F18" s="318"/>
+      <c r="G18" s="318"/>
+      <c r="H18" s="318"/>
+      <c r="K18" s="319" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="314"/>
-      <c r="M18" s="314"/>
-      <c r="N18" s="315"/>
+      <c r="L18" s="320"/>
+      <c r="M18" s="320"/>
+      <c r="N18" s="321"/>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="20"/>
     </row>
     <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19"/>
-      <c r="C19" s="309"/>
-      <c r="D19" s="310"/>
+      <c r="C19" s="317"/>
+      <c r="D19" s="311"/>
       <c r="E19" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="311"/>
-      <c r="G19" s="311"/>
-      <c r="H19" s="311"/>
-      <c r="K19" s="313" t="s">
+      <c r="F19" s="318"/>
+      <c r="G19" s="318"/>
+      <c r="H19" s="318"/>
+      <c r="K19" s="319" t="s">
         <v>66</v>
       </c>
-      <c r="L19" s="314"/>
-      <c r="M19" s="314"/>
-      <c r="N19" s="314"/>
-      <c r="O19" s="314"/>
-      <c r="P19" s="315"/>
+      <c r="L19" s="320"/>
+      <c r="M19" s="320"/>
+      <c r="N19" s="320"/>
+      <c r="O19" s="320"/>
+      <c r="P19" s="321"/>
       <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8719,93 +8743,93 @@
       <c r="Q20" s="20"/>
     </row>
     <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="316" t="s">
+      <c r="B21" s="322" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="309" t="s">
+      <c r="C21" s="317" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="312"/>
-      <c r="E21" s="312"/>
-      <c r="F21" s="312"/>
-      <c r="G21" s="312"/>
-      <c r="H21" s="310"/>
-      <c r="I21" s="309" t="s">
+      <c r="D21" s="324"/>
+      <c r="E21" s="324"/>
+      <c r="F21" s="324"/>
+      <c r="G21" s="324"/>
+      <c r="H21" s="311"/>
+      <c r="I21" s="317" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="312"/>
-      <c r="K21" s="312"/>
-      <c r="L21" s="312"/>
-      <c r="M21" s="312"/>
-      <c r="N21" s="310"/>
-      <c r="O21" s="316" t="s">
+      <c r="J21" s="324"/>
+      <c r="K21" s="324"/>
+      <c r="L21" s="324"/>
+      <c r="M21" s="324"/>
+      <c r="N21" s="311"/>
+      <c r="O21" s="322" t="s">
         <v>70</v>
       </c>
-      <c r="P21" s="316" t="s">
+      <c r="P21" s="322" t="s">
         <v>71</v>
       </c>
-      <c r="Q21" s="321" t="s">
+      <c r="Q21" s="306" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="317"/>
-      <c r="C22" s="322" t="s">
+      <c r="B22" s="323"/>
+      <c r="C22" s="308" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="323"/>
+      <c r="D22" s="309"/>
       <c r="E22" s="27" t="s">
         <v>73</v>
       </c>
       <c r="F22" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="324" t="s">
+      <c r="G22" s="310" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="310"/>
-      <c r="I22" s="322" t="s">
+      <c r="H22" s="311"/>
+      <c r="I22" s="308" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="323"/>
+      <c r="J22" s="309"/>
       <c r="K22" s="27" t="s">
         <v>73</v>
       </c>
       <c r="L22" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="M22" s="324" t="s">
+      <c r="M22" s="310" t="s">
         <v>75</v>
       </c>
-      <c r="N22" s="310"/>
-      <c r="O22" s="317"/>
-      <c r="P22" s="318"/>
-      <c r="Q22" s="318"/>
+      <c r="N22" s="311"/>
+      <c r="O22" s="323"/>
+      <c r="P22" s="307"/>
+      <c r="Q22" s="307"/>
     </row>
     <row r="23" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="26">
         <v>1</v>
       </c>
-      <c r="C23" s="325" t="s">
+      <c r="C23" s="312" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="326"/>
+      <c r="D23" s="313"/>
       <c r="E23" s="29" t="s">
         <v>77</v>
       </c>
       <c r="F23" s="26"/>
-      <c r="G23" s="319"/>
-      <c r="H23" s="320"/>
+      <c r="G23" s="300"/>
+      <c r="H23" s="301"/>
       <c r="I23" s="30" t="s">
         <v>78</v>
       </c>
       <c r="J23" s="31"/>
-      <c r="K23" s="327" t="s">
+      <c r="K23" s="314" t="s">
         <v>79</v>
       </c>
       <c r="L23" s="26"/>
-      <c r="M23" s="319"/>
-      <c r="N23" s="320"/>
+      <c r="M23" s="300"/>
+      <c r="N23" s="301"/>
       <c r="O23" s="26" t="s">
         <v>9</v>
       </c>
@@ -8816,24 +8840,24 @@
       <c r="B24" s="26">
         <v>2</v>
       </c>
-      <c r="C24" s="325" t="s">
+      <c r="C24" s="312" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="326"/>
+      <c r="D24" s="313"/>
       <c r="E24" s="29" t="s">
         <v>77</v>
       </c>
       <c r="F24" s="26"/>
-      <c r="G24" s="319"/>
-      <c r="H24" s="320"/>
+      <c r="G24" s="300"/>
+      <c r="H24" s="301"/>
       <c r="I24" s="30" t="s">
         <v>78</v>
       </c>
       <c r="J24" s="31"/>
-      <c r="K24" s="328"/>
+      <c r="K24" s="315"/>
       <c r="L24" s="26"/>
-      <c r="M24" s="319"/>
-      <c r="N24" s="320"/>
+      <c r="M24" s="300"/>
+      <c r="N24" s="301"/>
       <c r="O24" s="26" t="s">
         <v>9</v>
       </c>
@@ -8844,24 +8868,24 @@
       <c r="B25" s="26">
         <v>3</v>
       </c>
-      <c r="C25" s="325" t="s">
+      <c r="C25" s="312" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="326"/>
+      <c r="D25" s="313"/>
       <c r="E25" s="29" t="s">
         <v>77</v>
       </c>
       <c r="F25" s="26"/>
-      <c r="G25" s="319"/>
-      <c r="H25" s="320"/>
+      <c r="G25" s="300"/>
+      <c r="H25" s="301"/>
       <c r="I25" s="30" t="s">
         <v>78</v>
       </c>
       <c r="J25" s="31"/>
-      <c r="K25" s="329"/>
+      <c r="K25" s="316"/>
       <c r="L25" s="26"/>
-      <c r="M25" s="319"/>
-      <c r="N25" s="320"/>
+      <c r="M25" s="300"/>
+      <c r="N25" s="301"/>
       <c r="O25" s="26" t="s">
         <v>9</v>
       </c>
@@ -8872,18 +8896,18 @@
       <c r="B26" s="26">
         <v>4</v>
       </c>
-      <c r="C26" s="319"/>
-      <c r="D26" s="320"/>
+      <c r="C26" s="300"/>
+      <c r="D26" s="301"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
-      <c r="G26" s="319"/>
-      <c r="H26" s="320"/>
-      <c r="I26" s="319"/>
-      <c r="J26" s="320"/>
+      <c r="G26" s="300"/>
+      <c r="H26" s="301"/>
+      <c r="I26" s="300"/>
+      <c r="J26" s="301"/>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
-      <c r="M26" s="319"/>
-      <c r="N26" s="320"/>
+      <c r="M26" s="300"/>
+      <c r="N26" s="301"/>
       <c r="O26" s="26"/>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
@@ -8892,42 +8916,42 @@
       <c r="B27" s="26">
         <v>5</v>
       </c>
-      <c r="C27" s="319"/>
-      <c r="D27" s="320"/>
+      <c r="C27" s="300"/>
+      <c r="D27" s="301"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="319"/>
-      <c r="H27" s="320"/>
-      <c r="I27" s="319"/>
-      <c r="J27" s="320"/>
+      <c r="G27" s="300"/>
+      <c r="H27" s="301"/>
+      <c r="I27" s="300"/>
+      <c r="J27" s="301"/>
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
-      <c r="M27" s="319"/>
-      <c r="N27" s="320"/>
+      <c r="M27" s="300"/>
+      <c r="N27" s="301"/>
       <c r="O27" s="26"/>
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
     </row>
     <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="304" t="s">
+      <c r="B29" s="302" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="305"/>
-      <c r="D29" s="305"/>
-      <c r="E29" s="305"/>
-      <c r="F29" s="305"/>
-      <c r="G29" s="305"/>
-      <c r="H29" s="305"/>
-      <c r="I29" s="305"/>
-      <c r="J29" s="305"/>
-      <c r="K29" s="305"/>
-      <c r="L29" s="305"/>
-      <c r="M29" s="305"/>
-      <c r="N29" s="305"/>
-      <c r="O29" s="305"/>
-      <c r="P29" s="305"/>
-      <c r="Q29" s="306"/>
+      <c r="C29" s="303"/>
+      <c r="D29" s="303"/>
+      <c r="E29" s="303"/>
+      <c r="F29" s="303"/>
+      <c r="G29" s="303"/>
+      <c r="H29" s="303"/>
+      <c r="I29" s="303"/>
+      <c r="J29" s="303"/>
+      <c r="K29" s="303"/>
+      <c r="L29" s="303"/>
+      <c r="M29" s="303"/>
+      <c r="N29" s="303"/>
+      <c r="O29" s="303"/>
+      <c r="P29" s="303"/>
+      <c r="Q29" s="304"/>
     </row>
     <row r="30" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
@@ -8949,32 +8973,32 @@
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="19"/>
-      <c r="C31" s="295" t="s">
+      <c r="C31" s="305" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="296"/>
-      <c r="E31" s="296"/>
-      <c r="F31" s="296"/>
-      <c r="G31" s="296"/>
-      <c r="H31" s="297"/>
-      <c r="K31" s="308" t="s">
+      <c r="D31" s="290"/>
+      <c r="E31" s="290"/>
+      <c r="F31" s="290"/>
+      <c r="G31" s="290"/>
+      <c r="H31" s="291"/>
+      <c r="K31" s="298" t="s">
         <v>84</v>
       </c>
-      <c r="L31" s="308"/>
+      <c r="L31" s="298"/>
       <c r="Q31" s="20"/>
     </row>
     <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="19"/>
-      <c r="C32" s="298"/>
-      <c r="D32" s="299"/>
-      <c r="E32" s="299"/>
-      <c r="F32" s="299"/>
-      <c r="G32" s="299"/>
-      <c r="H32" s="300"/>
-      <c r="K32" s="330" t="s">
+      <c r="C32" s="292"/>
+      <c r="D32" s="293"/>
+      <c r="E32" s="293"/>
+      <c r="F32" s="293"/>
+      <c r="G32" s="293"/>
+      <c r="H32" s="294"/>
+      <c r="K32" s="299" t="s">
         <v>85</v>
       </c>
-      <c r="L32" s="330"/>
+      <c r="L32" s="299"/>
       <c r="M32" s="32" t="s">
         <v>86</v>
       </c>
@@ -8985,16 +9009,16 @@
     </row>
     <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="19"/>
-      <c r="C33" s="298"/>
-      <c r="D33" s="299"/>
-      <c r="E33" s="299"/>
-      <c r="F33" s="299"/>
-      <c r="G33" s="299"/>
-      <c r="H33" s="300"/>
-      <c r="K33" s="330" t="s">
+      <c r="C33" s="292"/>
+      <c r="D33" s="293"/>
+      <c r="E33" s="293"/>
+      <c r="F33" s="293"/>
+      <c r="G33" s="293"/>
+      <c r="H33" s="294"/>
+      <c r="K33" s="299" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="330"/>
+      <c r="L33" s="299"/>
       <c r="M33" s="17" t="s">
         <v>86</v>
       </c>
@@ -9005,16 +9029,16 @@
     </row>
     <row r="34" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="19"/>
-      <c r="C34" s="301"/>
-      <c r="D34" s="302"/>
-      <c r="E34" s="302"/>
-      <c r="F34" s="302"/>
-      <c r="G34" s="302"/>
-      <c r="H34" s="303"/>
-      <c r="K34" s="330" t="s">
+      <c r="C34" s="295"/>
+      <c r="D34" s="296"/>
+      <c r="E34" s="296"/>
+      <c r="F34" s="296"/>
+      <c r="G34" s="296"/>
+      <c r="H34" s="297"/>
+      <c r="K34" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="330"/>
+      <c r="L34" s="299"/>
       <c r="M34" s="17" t="s">
         <v>86</v>
       </c>
@@ -9031,10 +9055,10 @@
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="K35" s="330" t="s">
+      <c r="K35" s="299" t="s">
         <v>89</v>
       </c>
-      <c r="L35" s="330"/>
+      <c r="L35" s="299"/>
       <c r="M35" s="32" t="s">
         <v>86</v>
       </c>
@@ -9045,38 +9069,38 @@
     </row>
     <row r="36" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="19"/>
-      <c r="K36" s="330"/>
-      <c r="L36" s="330"/>
+      <c r="K36" s="299"/>
+      <c r="L36" s="299"/>
       <c r="Q36" s="20"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
-      <c r="C37" s="331" t="s">
+      <c r="C37" s="289" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="296"/>
-      <c r="E37" s="296"/>
-      <c r="F37" s="296"/>
-      <c r="G37" s="296"/>
-      <c r="H37" s="297"/>
-      <c r="K37" s="308" t="s">
+      <c r="D37" s="290"/>
+      <c r="E37" s="290"/>
+      <c r="F37" s="290"/>
+      <c r="G37" s="290"/>
+      <c r="H37" s="291"/>
+      <c r="K37" s="298" t="s">
         <v>91</v>
       </c>
-      <c r="L37" s="308"/>
+      <c r="L37" s="298"/>
       <c r="Q37" s="20"/>
     </row>
     <row r="38" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="19"/>
-      <c r="C38" s="298"/>
-      <c r="D38" s="299"/>
-      <c r="E38" s="299"/>
-      <c r="F38" s="299"/>
-      <c r="G38" s="299"/>
-      <c r="H38" s="300"/>
-      <c r="K38" s="330" t="s">
+      <c r="C38" s="292"/>
+      <c r="D38" s="293"/>
+      <c r="E38" s="293"/>
+      <c r="F38" s="293"/>
+      <c r="G38" s="293"/>
+      <c r="H38" s="294"/>
+      <c r="K38" s="299" t="s">
         <v>89</v>
       </c>
-      <c r="L38" s="330"/>
+      <c r="L38" s="299"/>
       <c r="M38" s="32" t="s">
         <v>86</v>
       </c>
@@ -9087,22 +9111,22 @@
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="19"/>
-      <c r="C39" s="298"/>
-      <c r="D39" s="299"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
-      <c r="G39" s="299"/>
-      <c r="H39" s="300"/>
+      <c r="C39" s="292"/>
+      <c r="D39" s="293"/>
+      <c r="E39" s="293"/>
+      <c r="F39" s="293"/>
+      <c r="G39" s="293"/>
+      <c r="H39" s="294"/>
       <c r="Q39" s="20"/>
     </row>
     <row r="40" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="19"/>
-      <c r="C40" s="301"/>
-      <c r="D40" s="302"/>
-      <c r="E40" s="302"/>
-      <c r="F40" s="302"/>
-      <c r="G40" s="302"/>
-      <c r="H40" s="303"/>
+      <c r="C40" s="295"/>
+      <c r="D40" s="296"/>
+      <c r="E40" s="296"/>
+      <c r="F40" s="296"/>
+      <c r="G40" s="296"/>
+      <c r="H40" s="297"/>
       <c r="Q40" s="20"/>
     </row>
     <row r="41" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9125,24 +9149,33 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C37:H40"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="C31:H34"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="D3:O4"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="B6:Q8"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="C22:D22"/>
@@ -9159,33 +9192,24 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="D3:O4"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="B6:Q8"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="C31:H34"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="C37:H40"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9197,8 +9221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N67" sqref="N67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9213,10 +9237,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="40.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="191" t="s">
-        <v>340</v>
-      </c>
-      <c r="C2" s="192"/>
+      <c r="B2" s="227" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="228"/>
     </row>
     <row r="3" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -9238,142 +9262,142 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="152">
         <v>1</v>
       </c>
       <c r="C4" s="169" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D4" s="153" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="E4" s="153" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="F4" s="153" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="G4" s="154" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="I4" s="176"/>
     </row>
     <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="197"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="215"/>
+      <c r="G6" s="215"/>
     </row>
     <row r="7" spans="2:9" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="193" t="s">
-        <v>341</v>
-      </c>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="195"/>
+      <c r="C7" s="207" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="209"/>
     </row>
     <row r="8" spans="2:9" ht="67.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="198" t="s">
+      <c r="C8" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
     </row>
     <row r="9" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="193" t="s">
-        <v>341</v>
-      </c>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="195"/>
+      <c r="C9" s="207" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="208"/>
+      <c r="E9" s="208"/>
+      <c r="F9" s="208"/>
+      <c r="G9" s="209"/>
     </row>
     <row r="10" spans="2:9" ht="194.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="193" t="s">
-        <v>355</v>
-      </c>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="195"/>
+      <c r="C10" s="207" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="208"/>
+      <c r="E10" s="208"/>
+      <c r="F10" s="208"/>
+      <c r="G10" s="209"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="C11" s="199" t="s">
-        <v>368</v>
-      </c>
-      <c r="D11" s="199"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="199"/>
-      <c r="G11" s="199"/>
+      <c r="C11" s="195" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" s="195"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="195"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="C12" s="199" t="s">
-        <v>367</v>
-      </c>
-      <c r="D12" s="199"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="199"/>
-      <c r="G12" s="199"/>
+      <c r="C12" s="195" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" s="195"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="195"/>
+      <c r="G12" s="195"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="C13" s="199" t="s">
-        <v>365</v>
-      </c>
-      <c r="D13" s="199"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="199"/>
+      <c r="C13" s="195" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="195"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="C14" s="199" t="s">
-        <v>366</v>
-      </c>
-      <c r="D14" s="199"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="199"/>
+      <c r="C14" s="195" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" s="195"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
     </row>
     <row r="15" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="220" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="210"/>
-      <c r="G15" s="210"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="220"/>
+      <c r="E15" s="220"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="220"/>
     </row>
     <row r="16" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="147" t="s">
@@ -9382,202 +9406,202 @@
       <c r="C16" s="147" t="s">
         <v>313</v>
       </c>
-      <c r="D16" s="211" t="s">
+      <c r="D16" s="221" t="s">
         <v>314</v>
       </c>
-      <c r="E16" s="211"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="211"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="221"/>
     </row>
     <row r="17" spans="2:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="189" t="s">
+      <c r="B17" s="193" t="s">
         <v>304</v>
       </c>
-      <c r="C17" s="203" t="s">
+      <c r="C17" s="225" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="212"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="214"/>
+      <c r="D17" s="222"/>
+      <c r="E17" s="223"/>
+      <c r="F17" s="223"/>
+      <c r="G17" s="224"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="189"/>
-      <c r="C18" s="204"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="226"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="195"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="189"/>
-      <c r="C19" s="203" t="s">
+      <c r="B19" s="193"/>
+      <c r="C19" s="225" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="199"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
+      <c r="D19" s="195"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="195"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="189"/>
-      <c r="C20" s="204"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="199"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="189"/>
+      <c r="B21" s="193"/>
       <c r="C21" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
+      <c r="D21" s="195"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="195"/>
+      <c r="G21" s="195"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="189"/>
+      <c r="B22" s="193"/>
       <c r="C22" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="199"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="199"/>
+      <c r="D22" s="195"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="195"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="190"/>
+      <c r="B23" s="194"/>
       <c r="C23" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="199"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="199"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="195"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="200" t="s">
+      <c r="B24" s="229" t="s">
         <v>305</v>
       </c>
-      <c r="C24" s="203" t="s">
+      <c r="C24" s="225" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="199"/>
-      <c r="E24" s="199"/>
-      <c r="F24" s="199"/>
-      <c r="G24" s="199"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="195"/>
+      <c r="G24" s="195"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="201"/>
-      <c r="C25" s="204"/>
-      <c r="D25" s="199"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="199"/>
+      <c r="B25" s="230"/>
+      <c r="C25" s="226"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="195"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="201"/>
+      <c r="B26" s="230"/>
       <c r="C26" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="199"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="195"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="201"/>
-      <c r="C27" s="203" t="s">
+      <c r="B27" s="230"/>
+      <c r="C27" s="225" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="199"/>
-      <c r="E27" s="199"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="199"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="195"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="202"/>
-      <c r="C28" s="204"/>
-      <c r="D28" s="199"/>
-      <c r="E28" s="199"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
+      <c r="B28" s="231"/>
+      <c r="C28" s="226"/>
+      <c r="D28" s="195"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="195"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="200" t="s">
+      <c r="B29" s="229" t="s">
         <v>306</v>
       </c>
       <c r="C29" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="199"/>
-      <c r="E29" s="199"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="199"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="195"/>
+      <c r="G29" s="195"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="201"/>
+      <c r="B30" s="230"/>
       <c r="C30" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="199"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="195"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="201"/>
+      <c r="B31" s="230"/>
       <c r="C31" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="198"/>
-      <c r="E31" s="199"/>
-      <c r="F31" s="199"/>
-      <c r="G31" s="199"/>
+      <c r="D31" s="206"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="195"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="201"/>
+      <c r="B32" s="230"/>
       <c r="C32" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="199" t="s">
-        <v>341</v>
-      </c>
-      <c r="E32" s="199"/>
-      <c r="F32" s="199"/>
-      <c r="G32" s="199"/>
+      <c r="D32" s="195" t="s">
+        <v>368</v>
+      </c>
+      <c r="E32" s="195"/>
+      <c r="F32" s="195"/>
+      <c r="G32" s="195"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="201"/>
+      <c r="B33" s="230"/>
       <c r="C33" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="199"/>
-      <c r="E33" s="199"/>
-      <c r="F33" s="199"/>
-      <c r="G33" s="199"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="195"/>
+      <c r="G33" s="195"/>
     </row>
     <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="201"/>
+      <c r="B34" s="230"/>
       <c r="C34" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="199"/>
-      <c r="E34" s="199"/>
-      <c r="F34" s="199"/>
-      <c r="G34" s="199"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="195"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="62" t="s">
         <v>307</v>
       </c>
       <c r="C35" s="48"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="199"/>
-      <c r="G35" s="199"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="195"/>
     </row>
     <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="62" t="s">
@@ -9586,10 +9610,10 @@
       <c r="C36" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="199"/>
-      <c r="E36" s="199"/>
-      <c r="F36" s="199"/>
-      <c r="G36" s="199"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="195"/>
     </row>
     <row r="37" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B37" s="148" t="s">
@@ -9598,14 +9622,14 @@
       <c r="C37" s="147" t="s">
         <v>309</v>
       </c>
-      <c r="D37" s="224" t="s">
+      <c r="D37" s="196" t="s">
         <v>310</v>
       </c>
-      <c r="E37" s="225"/>
-      <c r="F37" s="224" t="s">
+      <c r="E37" s="197"/>
+      <c r="F37" s="196" t="s">
         <v>311</v>
       </c>
-      <c r="G37" s="225"/>
+      <c r="G37" s="197"/>
     </row>
     <row r="38" spans="2:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="155" t="s">
@@ -9614,300 +9638,300 @@
       <c r="C38" s="168" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="228" t="s">
+      <c r="D38" s="200" t="s">
         <v>156</v>
       </c>
-      <c r="E38" s="229"/>
-      <c r="F38" s="228" t="s">
+      <c r="E38" s="201"/>
+      <c r="F38" s="200" t="s">
         <v>156</v>
       </c>
-      <c r="G38" s="229"/>
+      <c r="G38" s="201"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="60"/>
       <c r="C39" s="168"/>
-      <c r="D39" s="232"/>
-      <c r="E39" s="233"/>
-      <c r="F39" s="230"/>
-      <c r="G39" s="231"/>
+      <c r="D39" s="204"/>
+      <c r="E39" s="205"/>
+      <c r="F39" s="202"/>
+      <c r="G39" s="203"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="60"/>
       <c r="C40" s="64"/>
-      <c r="D40" s="226"/>
-      <c r="E40" s="227"/>
-      <c r="F40" s="226"/>
-      <c r="G40" s="227"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="199"/>
+      <c r="F40" s="198"/>
+      <c r="G40" s="199"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="60"/>
       <c r="C41" s="64"/>
-      <c r="D41" s="226"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="226"/>
-      <c r="G41" s="227"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="199"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="199"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="60"/>
       <c r="C42" s="64"/>
-      <c r="D42" s="226"/>
-      <c r="E42" s="227"/>
-      <c r="F42" s="226"/>
-      <c r="G42" s="227"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="199"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="60"/>
       <c r="C43" s="64"/>
-      <c r="D43" s="226"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="226"/>
-      <c r="G43" s="227"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="199"/>
+      <c r="F43" s="198"/>
+      <c r="G43" s="199"/>
     </row>
     <row r="44" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="216" t="s">
+      <c r="B44" s="187" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="217"/>
-      <c r="D44" s="217"/>
-      <c r="E44" s="217"/>
-      <c r="F44" s="217"/>
-      <c r="G44" s="217"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="188"/>
+      <c r="E44" s="188"/>
+      <c r="F44" s="188"/>
+      <c r="G44" s="188"/>
     </row>
     <row r="45" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="234" t="s">
+      <c r="B45" s="192" t="s">
         <v>315</v>
       </c>
       <c r="C45" s="63"/>
-      <c r="D45" s="206" t="s">
+      <c r="D45" s="189" t="s">
         <v>156</v>
       </c>
-      <c r="E45" s="207"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="208"/>
+      <c r="E45" s="190"/>
+      <c r="F45" s="190"/>
+      <c r="G45" s="191"/>
     </row>
     <row r="46" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="189"/>
+      <c r="B46" s="193"/>
       <c r="C46" s="63"/>
-      <c r="D46" s="206" t="s">
+      <c r="D46" s="189" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="207"/>
-      <c r="F46" s="207"/>
-      <c r="G46" s="208"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="190"/>
+      <c r="G46" s="191"/>
     </row>
     <row r="47" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="189"/>
+      <c r="B47" s="193"/>
       <c r="C47" s="63"/>
-      <c r="D47" s="206" t="s">
+      <c r="D47" s="189" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="207"/>
-      <c r="F47" s="207"/>
-      <c r="G47" s="208"/>
+      <c r="E47" s="190"/>
+      <c r="F47" s="190"/>
+      <c r="G47" s="191"/>
     </row>
     <row r="48" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="189"/>
+      <c r="B48" s="193"/>
       <c r="C48" s="63"/>
-      <c r="D48" s="206" t="s">
+      <c r="D48" s="189" t="s">
         <v>156</v>
       </c>
-      <c r="E48" s="207"/>
-      <c r="F48" s="207"/>
-      <c r="G48" s="208"/>
+      <c r="E48" s="190"/>
+      <c r="F48" s="190"/>
+      <c r="G48" s="191"/>
     </row>
     <row r="49" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="189"/>
+      <c r="B49" s="193"/>
       <c r="C49" s="63"/>
-      <c r="D49" s="206" t="s">
+      <c r="D49" s="189" t="s">
         <v>156</v>
       </c>
-      <c r="E49" s="207"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="208"/>
+      <c r="E49" s="190"/>
+      <c r="F49" s="190"/>
+      <c r="G49" s="191"/>
     </row>
     <row r="50" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="189"/>
+      <c r="B50" s="193"/>
       <c r="C50" s="63"/>
-      <c r="D50" s="206" t="s">
+      <c r="D50" s="189" t="s">
         <v>156</v>
       </c>
-      <c r="E50" s="207"/>
-      <c r="F50" s="207"/>
-      <c r="G50" s="208"/>
+      <c r="E50" s="190"/>
+      <c r="F50" s="190"/>
+      <c r="G50" s="191"/>
     </row>
     <row r="51" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="190"/>
+      <c r="B51" s="194"/>
       <c r="C51" s="63"/>
-      <c r="D51" s="206" t="s">
+      <c r="D51" s="189" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="207"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="208"/>
+      <c r="E51" s="190"/>
+      <c r="F51" s="190"/>
+      <c r="G51" s="191"/>
     </row>
     <row r="52" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="189" t="s">
+      <c r="B52" s="193" t="s">
         <v>316</v>
       </c>
       <c r="C52" s="63"/>
-      <c r="D52" s="206" t="s">
+      <c r="D52" s="189" t="s">
         <v>156</v>
       </c>
-      <c r="E52" s="207"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="208"/>
+      <c r="E52" s="190"/>
+      <c r="F52" s="190"/>
+      <c r="G52" s="191"/>
     </row>
     <row r="53" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="189"/>
+      <c r="B53" s="193"/>
       <c r="C53" s="63"/>
-      <c r="D53" s="206" t="s">
+      <c r="D53" s="189" t="s">
         <v>156</v>
       </c>
-      <c r="E53" s="207"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="208"/>
+      <c r="E53" s="190"/>
+      <c r="F53" s="190"/>
+      <c r="G53" s="191"/>
     </row>
     <row r="54" spans="2:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="189"/>
+      <c r="B54" s="193"/>
       <c r="C54" s="63"/>
-      <c r="D54" s="209" t="s">
+      <c r="D54" s="218" t="s">
         <v>156</v>
       </c>
-      <c r="E54" s="209"/>
-      <c r="F54" s="215"/>
-      <c r="G54" s="215"/>
+      <c r="E54" s="218"/>
+      <c r="F54" s="219"/>
+      <c r="G54" s="219"/>
     </row>
     <row r="55" spans="2:7" ht="109.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="189"/>
+      <c r="B55" s="193"/>
       <c r="C55" s="63"/>
-      <c r="D55" s="209" t="s">
+      <c r="D55" s="218" t="s">
         <v>156</v>
       </c>
-      <c r="E55" s="209"/>
-      <c r="F55" s="215"/>
-      <c r="G55" s="215"/>
+      <c r="E55" s="218"/>
+      <c r="F55" s="219"/>
+      <c r="G55" s="219"/>
     </row>
     <row r="56" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="190"/>
+      <c r="B56" s="194"/>
       <c r="C56" s="63"/>
-      <c r="D56" s="205"/>
-      <c r="E56" s="205"/>
-      <c r="F56" s="205"/>
-      <c r="G56" s="205"/>
+      <c r="D56" s="232"/>
+      <c r="E56" s="232"/>
+      <c r="F56" s="232"/>
+      <c r="G56" s="232"/>
     </row>
     <row r="57" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="216" t="s">
+      <c r="B57" s="187" t="s">
         <v>137</v>
       </c>
-      <c r="C57" s="217"/>
-      <c r="D57" s="217"/>
-      <c r="E57" s="217"/>
-      <c r="F57" s="217"/>
-      <c r="G57" s="217"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="188"/>
+      <c r="F57" s="188"/>
+      <c r="G57" s="188"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="C58" s="199" t="s">
+      <c r="C58" s="195" t="s">
         <v>156</v>
       </c>
-      <c r="D58" s="199"/>
-      <c r="E58" s="199"/>
-      <c r="F58" s="199"/>
-      <c r="G58" s="199"/>
+      <c r="D58" s="195"/>
+      <c r="E58" s="195"/>
+      <c r="F58" s="195"/>
+      <c r="G58" s="195"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="C59" s="199" t="s">
+      <c r="C59" s="195" t="s">
         <v>156</v>
       </c>
-      <c r="D59" s="199"/>
-      <c r="E59" s="199"/>
-      <c r="F59" s="199"/>
-      <c r="G59" s="199"/>
+      <c r="D59" s="195"/>
+      <c r="E59" s="195"/>
+      <c r="F59" s="195"/>
+      <c r="G59" s="195"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="C60" s="199" t="s">
+      <c r="C60" s="195" t="s">
         <v>156</v>
       </c>
-      <c r="D60" s="199"/>
-      <c r="E60" s="199"/>
-      <c r="F60" s="199"/>
-      <c r="G60" s="199"/>
+      <c r="D60" s="195"/>
+      <c r="E60" s="195"/>
+      <c r="F60" s="195"/>
+      <c r="G60" s="195"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="C61" s="199" t="s">
+      <c r="C61" s="195" t="s">
         <v>156</v>
       </c>
-      <c r="D61" s="199"/>
-      <c r="E61" s="199"/>
-      <c r="F61" s="199"/>
-      <c r="G61" s="199"/>
+      <c r="D61" s="195"/>
+      <c r="E61" s="195"/>
+      <c r="F61" s="195"/>
+      <c r="G61" s="195"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="C62" s="199" t="s">
+      <c r="C62" s="195" t="s">
         <v>156</v>
       </c>
-      <c r="D62" s="199"/>
-      <c r="E62" s="199"/>
-      <c r="F62" s="199"/>
-      <c r="G62" s="199"/>
+      <c r="D62" s="195"/>
+      <c r="E62" s="195"/>
+      <c r="F62" s="195"/>
+      <c r="G62" s="195"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="C63" s="199" t="s">
+      <c r="C63" s="195" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="199"/>
-      <c r="E63" s="199"/>
-      <c r="F63" s="199"/>
-      <c r="G63" s="199"/>
+      <c r="D63" s="195"/>
+      <c r="E63" s="195"/>
+      <c r="F63" s="195"/>
+      <c r="G63" s="195"/>
     </row>
     <row r="64" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="216" t="s">
+      <c r="B64" s="187" t="s">
         <v>298</v>
       </c>
-      <c r="C64" s="217"/>
-      <c r="D64" s="217"/>
-      <c r="E64" s="217"/>
-      <c r="F64" s="217"/>
-      <c r="G64" s="217"/>
+      <c r="C64" s="188"/>
+      <c r="D64" s="188"/>
+      <c r="E64" s="188"/>
+      <c r="F64" s="188"/>
+      <c r="G64" s="188"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="C65" s="218"/>
-      <c r="D65" s="219"/>
-      <c r="E65" s="219"/>
-      <c r="F65" s="219"/>
-      <c r="G65" s="219"/>
+      <c r="C65" s="216"/>
+      <c r="D65" s="217"/>
+      <c r="E65" s="217"/>
+      <c r="F65" s="217"/>
+      <c r="G65" s="217"/>
     </row>
     <row r="66" spans="2:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="C66" s="198" t="s">
+      <c r="C66" s="206" t="s">
         <v>156</v>
       </c>
-      <c r="D66" s="198"/>
-      <c r="E66" s="198"/>
-      <c r="F66" s="198"/>
-      <c r="G66" s="198"/>
+      <c r="D66" s="206"/>
+      <c r="E66" s="206"/>
+      <c r="F66" s="206"/>
+      <c r="G66" s="206"/>
     </row>
     <row r="67" spans="2:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="51" t="s">
@@ -9916,79 +9940,137 @@
       <c r="C67" s="156" t="s">
         <v>329</v>
       </c>
-      <c r="D67" s="198" t="s">
-        <v>370</v>
-      </c>
-      <c r="E67" s="198"/>
-      <c r="F67" s="198"/>
-      <c r="G67" s="198"/>
+      <c r="D67" s="206" t="s">
+        <v>339</v>
+      </c>
+      <c r="E67" s="206"/>
+      <c r="F67" s="206"/>
+      <c r="G67" s="206"/>
     </row>
     <row r="68" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="196" t="s">
+      <c r="B68" s="214" t="s">
         <v>299</v>
       </c>
-      <c r="C68" s="197"/>
-      <c r="D68" s="197"/>
-      <c r="E68" s="197"/>
-      <c r="F68" s="197"/>
-      <c r="G68" s="197"/>
+      <c r="C68" s="215"/>
+      <c r="D68" s="215"/>
+      <c r="E68" s="215"/>
+      <c r="F68" s="215"/>
+      <c r="G68" s="215"/>
     </row>
     <row r="69" spans="2:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="C69" s="193" t="s">
-        <v>341</v>
-      </c>
-      <c r="D69" s="194"/>
-      <c r="E69" s="194"/>
-      <c r="F69" s="194"/>
-      <c r="G69" s="195"/>
+      <c r="C69" s="207" t="s">
+        <v>369</v>
+      </c>
+      <c r="D69" s="208"/>
+      <c r="E69" s="208"/>
+      <c r="F69" s="208"/>
+      <c r="G69" s="209"/>
     </row>
     <row r="70" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="C70" s="220" t="s">
+      <c r="C70" s="210" t="s">
         <v>156</v>
       </c>
-      <c r="D70" s="220"/>
-      <c r="E70" s="220"/>
-      <c r="F70" s="220"/>
-      <c r="G70" s="220"/>
+      <c r="D70" s="210"/>
+      <c r="E70" s="210"/>
+      <c r="F70" s="210"/>
+      <c r="G70" s="210"/>
     </row>
     <row r="71" spans="2:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="C71" s="220" t="s">
+      <c r="C71" s="210" t="s">
         <v>156</v>
       </c>
-      <c r="D71" s="220"/>
-      <c r="E71" s="220"/>
-      <c r="F71" s="220"/>
-      <c r="G71" s="220"/>
+      <c r="D71" s="210"/>
+      <c r="E71" s="210"/>
+      <c r="F71" s="210"/>
+      <c r="G71" s="210"/>
     </row>
     <row r="72" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="C72" s="221" t="s">
-        <v>348</v>
-      </c>
-      <c r="D72" s="222"/>
-      <c r="E72" s="222"/>
-      <c r="F72" s="222"/>
-      <c r="G72" s="223"/>
+      <c r="C72" s="211" t="s">
+        <v>346</v>
+      </c>
+      <c r="D72" s="212"/>
+      <c r="E72" s="212"/>
+      <c r="F72" s="212"/>
+      <c r="G72" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="D37:E37"/>
@@ -10005,70 +10087,12 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B45:B51"/>
   </mergeCells>
   <conditionalFormatting sqref="C65">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
@@ -10365,19 +10389,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="233" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -10666,8 +10690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10689,74 +10713,74 @@
   <sheetData>
     <row r="1" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="250" t="s">
+      <c r="B2" s="244" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="252"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="246"/>
     </row>
     <row r="3" spans="1:18" s="52" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="240" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="246" t="s">
+      <c r="C3" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="246" t="s">
+      <c r="D3" s="240" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="246" t="s">
+      <c r="E3" s="240" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="246" t="s">
+      <c r="F3" s="240" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="246" t="s">
+      <c r="G3" s="240" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="257" t="s">
+      <c r="H3" s="235" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="253" t="s">
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="238" t="s">
         <v>130</v>
       </c>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="254"/>
-      <c r="P3" s="246" t="s">
+      <c r="M3" s="239"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="240" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="246" t="s">
+      <c r="Q3" s="240" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="248" t="s">
+      <c r="R3" s="242" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="46" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="247"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
       <c r="H4" s="47" t="s">
         <v>118</v>
       </c>
@@ -10781,60 +10805,60 @@
       <c r="O4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="247"/>
-      <c r="Q4" s="247"/>
-      <c r="R4" s="249"/>
-    </row>
-    <row r="5" spans="1:18" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="179">
+      <c r="P4" s="241"/>
+      <c r="Q4" s="241"/>
+      <c r="R4" s="243"/>
+    </row>
+    <row r="5" spans="1:18" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="178">
         <v>1</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="179" t="s">
         <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E5" s="180" t="s">
-        <v>342</v>
-      </c>
-      <c r="F5" s="180" t="s">
-        <v>346</v>
-      </c>
-      <c r="G5" s="180" t="s">
-        <v>346</v>
-      </c>
-      <c r="H5" s="180" t="s">
-        <v>349</v>
-      </c>
-      <c r="I5" s="180" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" s="179" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="179" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="179" t="s">
+        <v>353</v>
+      </c>
+      <c r="H5" s="179" t="s">
+        <v>355</v>
+      </c>
+      <c r="I5" s="179" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="180" t="s">
+      <c r="J5" s="179" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="180" t="s">
+      <c r="K5" s="179" t="s">
         <v>156</v>
       </c>
-      <c r="L5" s="180" t="s">
+      <c r="L5" s="179" t="s">
         <v>156</v>
       </c>
-      <c r="M5" s="180" t="s">
+      <c r="M5" s="179" t="s">
         <v>156</v>
       </c>
-      <c r="N5" s="180" t="s">
+      <c r="N5" s="179" t="s">
         <v>156</v>
       </c>
-      <c r="O5" s="180" t="s">
+      <c r="O5" s="179" t="s">
         <v>156</v>
       </c>
-      <c r="P5" s="180" t="s">
+      <c r="P5" s="179" t="s">
         <v>156</v>
       </c>
-      <c r="Q5" s="180" t="s">
+      <c r="Q5" s="179" t="s">
         <v>156</v>
       </c>
-      <c r="R5" s="180" t="s">
+      <c r="R5" s="179" t="s">
         <v>156</v>
       </c>
     </row>
@@ -10862,8 +10886,8 @@
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
       <c r="H7" s="56"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="182"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="181"/>
       <c r="K7" s="56"/>
       <c r="L7" s="56"/>
       <c r="M7" s="56"/>
@@ -10871,7 +10895,7 @@
       <c r="O7" s="56"/>
       <c r="P7" s="56"/>
       <c r="Q7" s="55"/>
-      <c r="R7" s="183"/>
+      <c r="R7" s="182"/>
     </row>
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
@@ -10912,74 +10936,74 @@
       <c r="R9" s="58"/>
     </row>
     <row r="10" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="250" t="s">
+      <c r="B10" s="244" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="251"/>
-      <c r="D10" s="251"/>
-      <c r="E10" s="251"/>
-      <c r="F10" s="251"/>
-      <c r="G10" s="251"/>
-      <c r="H10" s="251"/>
-      <c r="I10" s="251"/>
-      <c r="J10" s="251"/>
-      <c r="K10" s="251"/>
-      <c r="L10" s="251"/>
-      <c r="M10" s="251"/>
-      <c r="N10" s="251"/>
-      <c r="O10" s="251"/>
-      <c r="P10" s="251"/>
-      <c r="Q10" s="251"/>
-      <c r="R10" s="252"/>
+      <c r="C10" s="245"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="245"/>
+      <c r="F10" s="245"/>
+      <c r="G10" s="245"/>
+      <c r="H10" s="245"/>
+      <c r="I10" s="245"/>
+      <c r="J10" s="245"/>
+      <c r="K10" s="245"/>
+      <c r="L10" s="245"/>
+      <c r="M10" s="245"/>
+      <c r="N10" s="245"/>
+      <c r="O10" s="245"/>
+      <c r="P10" s="245"/>
+      <c r="Q10" s="245"/>
+      <c r="R10" s="246"/>
     </row>
     <row r="11" spans="1:18" s="52" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="246" t="s">
+      <c r="B11" s="240" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="246" t="s">
+      <c r="C11" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="246" t="s">
+      <c r="D11" s="240" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="246" t="s">
+      <c r="E11" s="240" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="246" t="s">
+      <c r="F11" s="240" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="246" t="s">
+      <c r="G11" s="240" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="257" t="s">
+      <c r="H11" s="235" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="258"/>
-      <c r="J11" s="258"/>
-      <c r="K11" s="259"/>
-      <c r="L11" s="253" t="s">
+      <c r="I11" s="236"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="238" t="s">
         <v>130</v>
       </c>
-      <c r="M11" s="254"/>
-      <c r="N11" s="254"/>
-      <c r="O11" s="254"/>
-      <c r="P11" s="246" t="s">
+      <c r="M11" s="239"/>
+      <c r="N11" s="239"/>
+      <c r="O11" s="239"/>
+      <c r="P11" s="240" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="246" t="s">
+      <c r="Q11" s="240" t="s">
         <v>23</v>
       </c>
-      <c r="R11" s="248" t="s">
+      <c r="R11" s="242" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="46" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="255"/>
-      <c r="C12" s="255"/>
-      <c r="D12" s="255"/>
-      <c r="E12" s="255"/>
-      <c r="F12" s="255"/>
-      <c r="G12" s="255"/>
+      <c r="B12" s="247"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="247"/>
+      <c r="G12" s="247"/>
       <c r="H12" s="170" t="s">
         <v>118</v>
       </c>
@@ -11004,223 +11028,207 @@
       <c r="O12" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="255"/>
-      <c r="Q12" s="255"/>
-      <c r="R12" s="256"/>
-    </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="P12" s="247"/>
+      <c r="Q12" s="247"/>
+      <c r="R12" s="248"/>
+    </row>
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="38">
         <v>1</v>
       </c>
-      <c r="C13" s="244" t="s">
-        <v>341</v>
-      </c>
-      <c r="D13" s="178" t="s">
+      <c r="C13" s="256" t="s">
+        <v>348</v>
+      </c>
+      <c r="D13" s="258" t="s">
+        <v>349</v>
+      </c>
+      <c r="E13" s="257" t="s">
         <v>350</v>
       </c>
-      <c r="E13" s="245" t="s">
-        <v>342</v>
-      </c>
-      <c r="F13" s="178" t="s">
-        <v>346</v>
-      </c>
-      <c r="G13" s="241" t="s">
-        <v>346</v>
-      </c>
-      <c r="H13" s="242" t="s">
+      <c r="F13" s="258" t="s">
+        <v>352</v>
+      </c>
+      <c r="G13" s="253" t="s">
+        <v>354</v>
+      </c>
+      <c r="H13" s="254" t="s">
         <v>356</v>
       </c>
-      <c r="I13" s="240">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="J13" s="240">
-        <v>0</v>
-      </c>
-      <c r="K13" s="241" t="s">
-        <v>347</v>
-      </c>
-      <c r="L13" s="242"/>
-      <c r="M13" s="243"/>
-      <c r="N13" s="243"/>
-      <c r="O13" s="236"/>
-      <c r="P13" s="236"/>
-      <c r="Q13" s="236"/>
-      <c r="R13" s="236"/>
+      <c r="I13" s="252" t="s">
+        <v>357</v>
+      </c>
+      <c r="J13" s="252" t="s">
+        <v>358</v>
+      </c>
+      <c r="K13" s="253" t="s">
+        <v>359</v>
+      </c>
+      <c r="L13" s="254"/>
+      <c r="M13" s="255"/>
+      <c r="N13" s="255"/>
+      <c r="O13" s="261"/>
+      <c r="P13" s="261"/>
+      <c r="Q13" s="261"/>
+      <c r="R13" s="261"/>
     </row>
     <row r="14" spans="1:18" s="4" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="38">
         <v>2</v>
       </c>
-      <c r="C14" s="244"/>
-      <c r="D14" t="s">
-        <v>343</v>
-      </c>
-      <c r="E14" s="245"/>
-      <c r="F14" s="178" t="s">
-        <v>346</v>
-      </c>
-      <c r="G14" s="241"/>
-      <c r="H14" s="242"/>
-      <c r="I14" s="240"/>
-      <c r="J14" s="240"/>
-      <c r="K14" s="241"/>
-      <c r="L14" s="242"/>
-      <c r="M14" s="243"/>
-      <c r="N14" s="243"/>
-      <c r="O14" s="236"/>
-      <c r="P14" s="236"/>
-      <c r="Q14" s="236"/>
-      <c r="R14" s="236"/>
-    </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="256"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="257"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="253"/>
+      <c r="H14" s="254"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="252"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="254"/>
+      <c r="M14" s="255"/>
+      <c r="N14" s="255"/>
+      <c r="O14" s="261"/>
+      <c r="P14" s="261"/>
+      <c r="Q14" s="261"/>
+      <c r="R14" s="261"/>
+    </row>
+    <row r="15" spans="1:18" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="175">
         <v>3</v>
       </c>
-      <c r="C15" s="244"/>
-      <c r="D15" s="178" t="s">
-        <v>344</v>
-      </c>
-      <c r="E15" s="245"/>
-      <c r="F15" s="178" t="s">
-        <v>346</v>
-      </c>
-      <c r="G15" s="241"/>
-      <c r="H15" s="242"/>
-      <c r="I15" s="240"/>
-      <c r="J15" s="240"/>
-      <c r="K15" s="241"/>
-      <c r="L15" s="242"/>
-      <c r="M15" s="243"/>
-      <c r="N15" s="243"/>
-      <c r="O15" s="236"/>
-      <c r="P15" s="236"/>
-      <c r="Q15" s="236"/>
-      <c r="R15" s="236"/>
+      <c r="C15" s="256"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="257"/>
+      <c r="F15" s="259"/>
+      <c r="G15" s="253"/>
+      <c r="H15" s="254"/>
+      <c r="I15" s="252"/>
+      <c r="J15" s="252"/>
+      <c r="K15" s="253"/>
+      <c r="L15" s="254"/>
+      <c r="M15" s="255"/>
+      <c r="N15" s="255"/>
+      <c r="O15" s="261"/>
+      <c r="P15" s="261"/>
+      <c r="Q15" s="261"/>
+      <c r="R15" s="261"/>
     </row>
     <row r="16" spans="1:18" s="4" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="175">
         <v>4</v>
       </c>
-      <c r="C16" s="244"/>
-      <c r="D16" s="178" t="s">
-        <v>345</v>
-      </c>
-      <c r="E16" s="245"/>
-      <c r="F16" s="178" t="s">
-        <v>346</v>
-      </c>
-      <c r="G16" s="241"/>
-      <c r="H16" s="242"/>
-      <c r="I16" s="240"/>
-      <c r="J16" s="240"/>
-      <c r="K16" s="241"/>
-      <c r="L16" s="242"/>
-      <c r="M16" s="243"/>
-      <c r="N16" s="243"/>
-      <c r="O16" s="236"/>
-      <c r="P16" s="236"/>
-      <c r="Q16" s="236"/>
-      <c r="R16" s="236"/>
-    </row>
-    <row r="17" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="256"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="257"/>
+      <c r="F16" s="259"/>
+      <c r="G16" s="253"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="252"/>
+      <c r="J16" s="252"/>
+      <c r="K16" s="253"/>
+      <c r="L16" s="254"/>
+      <c r="M16" s="255"/>
+      <c r="N16" s="255"/>
+      <c r="O16" s="261"/>
+      <c r="P16" s="261"/>
+      <c r="Q16" s="261"/>
+      <c r="R16" s="261"/>
+    </row>
+    <row r="17" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="175">
         <v>5</v>
       </c>
-      <c r="C17" s="244"/>
-      <c r="D17" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E17" s="245"/>
-      <c r="F17" s="178" t="s">
-        <v>346</v>
-      </c>
-      <c r="G17" s="241"/>
-      <c r="H17" s="242"/>
-      <c r="I17" s="240"/>
-      <c r="J17" s="240"/>
-      <c r="K17" s="241"/>
-      <c r="L17" s="242"/>
-      <c r="M17" s="243"/>
-      <c r="N17" s="243"/>
-      <c r="O17" s="236"/>
-      <c r="P17" s="236"/>
-      <c r="Q17" s="236"/>
-      <c r="R17" s="236"/>
+      <c r="C17" s="256"/>
+      <c r="D17" s="260"/>
+      <c r="E17" s="257"/>
+      <c r="F17" s="260"/>
+      <c r="G17" s="253"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="252"/>
+      <c r="J17" s="252"/>
+      <c r="K17" s="253"/>
+      <c r="L17" s="254"/>
+      <c r="M17" s="255"/>
+      <c r="N17" s="255"/>
+      <c r="O17" s="261"/>
+      <c r="P17" s="261"/>
+      <c r="Q17" s="261"/>
+      <c r="R17" s="261"/>
     </row>
     <row r="18" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="249" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
-      <c r="E18" s="238"/>
-      <c r="F18" s="238"/>
-      <c r="G18" s="238"/>
-      <c r="H18" s="238"/>
-      <c r="I18" s="238"/>
-      <c r="J18" s="238"/>
-      <c r="K18" s="238"/>
-      <c r="L18" s="238"/>
-      <c r="M18" s="238"/>
-      <c r="N18" s="238"/>
-      <c r="O18" s="238"/>
-      <c r="P18" s="238"/>
-      <c r="Q18" s="238"/>
-      <c r="R18" s="239"/>
+      <c r="C18" s="250"/>
+      <c r="D18" s="250"/>
+      <c r="E18" s="250"/>
+      <c r="F18" s="250"/>
+      <c r="G18" s="250"/>
+      <c r="H18" s="250"/>
+      <c r="I18" s="250"/>
+      <c r="J18" s="250"/>
+      <c r="K18" s="250"/>
+      <c r="L18" s="250"/>
+      <c r="M18" s="250"/>
+      <c r="N18" s="250"/>
+      <c r="O18" s="250"/>
+      <c r="P18" s="250"/>
+      <c r="Q18" s="250"/>
+      <c r="R18" s="251"/>
     </row>
     <row r="19" spans="1:18" s="52" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="246" t="s">
+      <c r="B19" s="240" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="246" t="s">
+      <c r="C19" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="246" t="s">
+      <c r="D19" s="240" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="246" t="s">
+      <c r="E19" s="240" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="246" t="s">
+      <c r="F19" s="240" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="246" t="s">
+      <c r="G19" s="240" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="257" t="s">
+      <c r="H19" s="235" t="s">
         <v>129</v>
       </c>
-      <c r="I19" s="258"/>
-      <c r="J19" s="258"/>
-      <c r="K19" s="259"/>
-      <c r="L19" s="253" t="s">
+      <c r="I19" s="236"/>
+      <c r="J19" s="236"/>
+      <c r="K19" s="237"/>
+      <c r="L19" s="238" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="254"/>
-      <c r="N19" s="254"/>
-      <c r="O19" s="254"/>
-      <c r="P19" s="246" t="s">
+      <c r="M19" s="239"/>
+      <c r="N19" s="239"/>
+      <c r="O19" s="239"/>
+      <c r="P19" s="240" t="s">
         <v>22</v>
       </c>
-      <c r="Q19" s="246" t="s">
+      <c r="Q19" s="240" t="s">
         <v>23</v>
       </c>
-      <c r="R19" s="248" t="s">
+      <c r="R19" s="242" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="46" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="247"/>
-      <c r="C20" s="247"/>
-      <c r="D20" s="247"/>
-      <c r="E20" s="247"/>
-      <c r="F20" s="247"/>
-      <c r="G20" s="247"/>
+      <c r="B20" s="241"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="241"/>
+      <c r="F20" s="241"/>
+      <c r="G20" s="241"/>
       <c r="H20" s="47" t="s">
         <v>118</v>
       </c>
@@ -11245,9 +11253,9 @@
       <c r="O20" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="P20" s="247"/>
-      <c r="Q20" s="247"/>
-      <c r="R20" s="249"/>
+      <c r="P20" s="241"/>
+      <c r="Q20" s="241"/>
+      <c r="R20" s="243"/>
     </row>
     <row r="21" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="158">
@@ -11360,46 +11368,58 @@
       <c r="R24" s="2"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="260"/>
+      <c r="C36" s="234"/>
       <c r="D36" s="177"/>
       <c r="E36" s="177"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="260"/>
+      <c r="C37" s="234"/>
       <c r="D37" s="177"/>
       <c r="E37" s="177"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="260"/>
+      <c r="C38" s="234"/>
       <c r="D38" s="177"/>
       <c r="E38" s="177"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="260"/>
+      <c r="C39" s="234"/>
       <c r="D39" s="177"/>
       <c r="E39" s="177"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="260"/>
+      <c r="C40" s="234"/>
       <c r="D40" s="177"/>
       <c r="E40" s="177"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="52">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E19:E20"/>
+  <mergeCells count="54">
+    <mergeCell ref="R13:R17"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="M13:M17"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="L11:O11"/>
     <mergeCell ref="P11:P12"/>
@@ -11416,29 +11436,19 @@
     <mergeCell ref="B10:R10"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="O13:O17"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="R13:R17"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="L13:L17"/>
-    <mergeCell ref="M13:M17"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:P20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11468,19 +11478,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="233" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -11773,8 +11783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:R10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="136.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11784,74 +11794,74 @@
   <sheetData>
     <row r="1" spans="2:18" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="250" t="s">
+      <c r="B2" s="244" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="252"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="246"/>
     </row>
     <row r="3" spans="2:18" s="52" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="240" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="246" t="s">
+      <c r="C3" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="246" t="s">
+      <c r="D3" s="240" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="246" t="s">
+      <c r="E3" s="240" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="246" t="s">
+      <c r="F3" s="240" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="246" t="s">
+      <c r="G3" s="240" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="257" t="s">
+      <c r="H3" s="235" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="253" t="s">
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="238" t="s">
         <v>130</v>
       </c>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="254"/>
-      <c r="P3" s="246" t="s">
+      <c r="M3" s="239"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="240" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="246" t="s">
+      <c r="Q3" s="240" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="248" t="s">
+      <c r="R3" s="242" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:18" s="46" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="247"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
       <c r="H4" s="47" t="s">
         <v>118</v>
       </c>
@@ -11876,16 +11886,16 @@
       <c r="O4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="247"/>
-      <c r="Q4" s="247"/>
-      <c r="R4" s="249"/>
-    </row>
-    <row r="5" spans="2:18" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="186">
+      <c r="P4" s="241"/>
+      <c r="Q4" s="241"/>
+      <c r="R4" s="243"/>
+    </row>
+    <row r="5" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="184">
         <v>1</v>
       </c>
-      <c r="C5" s="185" t="s">
-        <v>357</v>
+      <c r="C5" s="262" t="s">
+        <v>360</v>
       </c>
       <c r="D5" s="157" t="s">
         <v>156</v>
@@ -11933,13 +11943,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="187">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="185">
         <v>2</v>
       </c>
-      <c r="C6" s="185" t="s">
-        <v>358</v>
-      </c>
+      <c r="C6" s="263"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -11956,13 +11964,11 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="187">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="185">
         <v>3</v>
       </c>
-      <c r="C7" s="185" t="s">
-        <v>359</v>
-      </c>
+      <c r="C7" s="263"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -11980,12 +11986,10 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="188">
+      <c r="B8" s="186">
         <v>4</v>
       </c>
-      <c r="C8" s="185" t="s">
-        <v>360</v>
-      </c>
+      <c r="C8" s="264"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -12041,7 +12045,8 @@
       <c r="R10" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="C5:C8"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>

--- a/templates/PLDT.xlsx
+++ b/templates/PLDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjul\office\changemanagement\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9A2D32-2C0E-4D96-B228-9E3397818082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6006F7CB-BBC0-48B1-A3C1-64C499488FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dropdown" sheetId="12" state="hidden" r:id="rId1"/>
@@ -3871,9 +3871,6 @@
     <t>&lt;Name of Activity&gt;</t>
   </si>
   <si>
-    <t>&lt;Write the deployment steps&gt;</t>
-  </si>
-  <si>
     <t>&lt;application_name&gt;</t>
   </si>
   <si>
@@ -3902,9 +3899,6 @@
   </si>
   <si>
     <t>&lt;Duration of deployment activity in hrs&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Write the rollback steps in details&gt;</t>
   </si>
   <si>
     <t>&lt;Team name of the implementor&gt;</t>
@@ -3940,6 +3934,12 @@
  - What are the changes?
 - What triggered change?
 </t>
+  </si>
+  <si>
+    <t>*Write the rollback steps in details*</t>
+  </si>
+  <si>
+    <t>**Write your activity in short so AI can write steps for you**</t>
   </si>
 </sst>
 </file>
@@ -5251,231 +5251,231 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="33" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="33" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -5485,218 +5485,218 @@
     <xf numFmtId="0" fontId="34" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6898,16 +6898,16 @@
         <v>171</v>
       </c>
       <c r="D15" s="100"/>
-      <c r="E15" s="285" t="s">
+      <c r="E15" s="265" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="285" t="s">
+      <c r="F15" s="265" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="285" t="s">
+      <c r="G15" s="265" t="s">
         <v>156</v>
       </c>
-      <c r="H15" s="285" t="s">
+      <c r="H15" s="265" t="s">
         <v>155</v>
       </c>
       <c r="I15" s="66" t="s">
@@ -6921,10 +6921,10 @@
         <v>172</v>
       </c>
       <c r="D16" s="102"/>
-      <c r="E16" s="286"/>
-      <c r="F16" s="286"/>
-      <c r="G16" s="286"/>
-      <c r="H16" s="286"/>
+      <c r="E16" s="266"/>
+      <c r="F16" s="266"/>
+      <c r="G16" s="266"/>
+      <c r="H16" s="266"/>
     </row>
     <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="101"/>
@@ -6933,10 +6933,10 @@
         <v>173</v>
       </c>
       <c r="D17" s="102"/>
-      <c r="E17" s="286"/>
-      <c r="F17" s="286"/>
-      <c r="G17" s="286"/>
-      <c r="H17" s="286"/>
+      <c r="E17" s="266"/>
+      <c r="F17" s="266"/>
+      <c r="G17" s="266"/>
+      <c r="H17" s="266"/>
     </row>
     <row r="18" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="101"/>
@@ -6947,10 +6947,10 @@
       <c r="D18" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="E18" s="286"/>
-      <c r="F18" s="286"/>
-      <c r="G18" s="286"/>
-      <c r="H18" s="286"/>
+      <c r="E18" s="266"/>
+      <c r="F18" s="266"/>
+      <c r="G18" s="266"/>
+      <c r="H18" s="266"/>
     </row>
     <row r="19" spans="1:9" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="101"/>
@@ -6959,10 +6959,10 @@
         <v>176</v>
       </c>
       <c r="D19" s="103"/>
-      <c r="E19" s="286"/>
-      <c r="F19" s="286"/>
-      <c r="G19" s="286"/>
-      <c r="H19" s="286"/>
+      <c r="E19" s="266"/>
+      <c r="F19" s="266"/>
+      <c r="G19" s="266"/>
+      <c r="H19" s="266"/>
     </row>
     <row r="20" spans="1:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="101"/>
@@ -6971,10 +6971,10 @@
         <v>177</v>
       </c>
       <c r="D20" s="103"/>
-      <c r="E20" s="286"/>
-      <c r="F20" s="286"/>
-      <c r="G20" s="286"/>
-      <c r="H20" s="286"/>
+      <c r="E20" s="266"/>
+      <c r="F20" s="266"/>
+      <c r="G20" s="266"/>
+      <c r="H20" s="266"/>
     </row>
     <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101"/>
@@ -6983,10 +6983,10 @@
         <v>178</v>
       </c>
       <c r="D21" s="103"/>
-      <c r="E21" s="286"/>
-      <c r="F21" s="286"/>
-      <c r="G21" s="286"/>
-      <c r="H21" s="286"/>
+      <c r="E21" s="266"/>
+      <c r="F21" s="266"/>
+      <c r="G21" s="266"/>
+      <c r="H21" s="266"/>
     </row>
     <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="104"/>
@@ -6995,10 +6995,10 @@
         <v>179</v>
       </c>
       <c r="D22" s="106"/>
-      <c r="E22" s="287"/>
-      <c r="F22" s="287"/>
-      <c r="G22" s="287"/>
-      <c r="H22" s="287"/>
+      <c r="E22" s="267"/>
+      <c r="F22" s="267"/>
+      <c r="G22" s="267"/>
+      <c r="H22" s="267"/>
     </row>
     <row r="23" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A23" s="97"/>
@@ -7007,19 +7007,19 @@
         <v>180</v>
       </c>
       <c r="D23" s="100"/>
-      <c r="E23" s="285" t="s">
+      <c r="E23" s="265" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="285" t="s">
+      <c r="F23" s="265" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="285" t="s">
+      <c r="G23" s="265" t="s">
         <v>156</v>
       </c>
-      <c r="H23" s="285" t="s">
+      <c r="H23" s="265" t="s">
         <v>156</v>
       </c>
-      <c r="I23" s="288" t="s">
+      <c r="I23" s="268" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7030,11 +7030,11 @@
         <v>182</v>
       </c>
       <c r="D24" s="102"/>
-      <c r="E24" s="286"/>
-      <c r="F24" s="286"/>
-      <c r="G24" s="286"/>
-      <c r="H24" s="286"/>
-      <c r="I24" s="288"/>
+      <c r="E24" s="266"/>
+      <c r="F24" s="266"/>
+      <c r="G24" s="266"/>
+      <c r="H24" s="266"/>
+      <c r="I24" s="268"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="101"/>
@@ -7043,11 +7043,11 @@
         <v>183</v>
       </c>
       <c r="D25" s="102"/>
-      <c r="E25" s="286"/>
-      <c r="F25" s="286"/>
-      <c r="G25" s="286"/>
-      <c r="H25" s="286"/>
-      <c r="I25" s="288"/>
+      <c r="E25" s="266"/>
+      <c r="F25" s="266"/>
+      <c r="G25" s="266"/>
+      <c r="H25" s="266"/>
+      <c r="I25" s="268"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="101"/>
@@ -7056,11 +7056,11 @@
         <v>184</v>
       </c>
       <c r="D26" s="102"/>
-      <c r="E26" s="286"/>
-      <c r="F26" s="286"/>
-      <c r="G26" s="286"/>
-      <c r="H26" s="286"/>
-      <c r="I26" s="288"/>
+      <c r="E26" s="266"/>
+      <c r="F26" s="266"/>
+      <c r="G26" s="266"/>
+      <c r="H26" s="266"/>
+      <c r="I26" s="268"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="101"/>
@@ -7069,11 +7069,11 @@
         <v>185</v>
       </c>
       <c r="D27" s="102"/>
-      <c r="E27" s="286"/>
-      <c r="F27" s="286"/>
-      <c r="G27" s="286"/>
-      <c r="H27" s="286"/>
-      <c r="I27" s="288"/>
+      <c r="E27" s="266"/>
+      <c r="F27" s="266"/>
+      <c r="G27" s="266"/>
+      <c r="H27" s="266"/>
+      <c r="I27" s="268"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="101"/>
@@ -7082,11 +7082,11 @@
         <v>186</v>
       </c>
       <c r="D28" s="102"/>
-      <c r="E28" s="286"/>
-      <c r="F28" s="286"/>
-      <c r="G28" s="286"/>
-      <c r="H28" s="286"/>
-      <c r="I28" s="288"/>
+      <c r="E28" s="266"/>
+      <c r="F28" s="266"/>
+      <c r="G28" s="266"/>
+      <c r="H28" s="266"/>
+      <c r="I28" s="268"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="101"/>
@@ -7095,11 +7095,11 @@
         <v>187</v>
       </c>
       <c r="D29" s="102"/>
-      <c r="E29" s="286"/>
-      <c r="F29" s="286"/>
-      <c r="G29" s="286"/>
-      <c r="H29" s="286"/>
-      <c r="I29" s="288"/>
+      <c r="E29" s="266"/>
+      <c r="F29" s="266"/>
+      <c r="G29" s="266"/>
+      <c r="H29" s="266"/>
+      <c r="I29" s="268"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="101"/>
@@ -7108,11 +7108,11 @@
         <v>188</v>
       </c>
       <c r="D30" s="102"/>
-      <c r="E30" s="286"/>
-      <c r="F30" s="286"/>
-      <c r="G30" s="286"/>
-      <c r="H30" s="286"/>
-      <c r="I30" s="288"/>
+      <c r="E30" s="266"/>
+      <c r="F30" s="266"/>
+      <c r="G30" s="266"/>
+      <c r="H30" s="266"/>
+      <c r="I30" s="268"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="101"/>
@@ -7121,11 +7121,11 @@
         <v>189</v>
       </c>
       <c r="D31" s="102"/>
-      <c r="E31" s="286"/>
-      <c r="F31" s="286"/>
-      <c r="G31" s="286"/>
-      <c r="H31" s="286"/>
-      <c r="I31" s="288"/>
+      <c r="E31" s="266"/>
+      <c r="F31" s="266"/>
+      <c r="G31" s="266"/>
+      <c r="H31" s="266"/>
+      <c r="I31" s="268"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="101"/>
@@ -7134,11 +7134,11 @@
         <v>190</v>
       </c>
       <c r="D32" s="102"/>
-      <c r="E32" s="286"/>
-      <c r="F32" s="286"/>
-      <c r="G32" s="286"/>
-      <c r="H32" s="286"/>
-      <c r="I32" s="288"/>
+      <c r="E32" s="266"/>
+      <c r="F32" s="266"/>
+      <c r="G32" s="266"/>
+      <c r="H32" s="266"/>
+      <c r="I32" s="268"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="101"/>
@@ -7147,11 +7147,11 @@
         <v>191</v>
       </c>
       <c r="D33" s="102"/>
-      <c r="E33" s="286"/>
-      <c r="F33" s="286"/>
-      <c r="G33" s="286"/>
-      <c r="H33" s="286"/>
-      <c r="I33" s="288"/>
+      <c r="E33" s="266"/>
+      <c r="F33" s="266"/>
+      <c r="G33" s="266"/>
+      <c r="H33" s="266"/>
+      <c r="I33" s="268"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="101"/>
@@ -7160,11 +7160,11 @@
         <v>192</v>
       </c>
       <c r="D34" s="102"/>
-      <c r="E34" s="286"/>
-      <c r="F34" s="286"/>
-      <c r="G34" s="286"/>
-      <c r="H34" s="286"/>
-      <c r="I34" s="288"/>
+      <c r="E34" s="266"/>
+      <c r="F34" s="266"/>
+      <c r="G34" s="266"/>
+      <c r="H34" s="266"/>
+      <c r="I34" s="268"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="101"/>
@@ -7173,11 +7173,11 @@
         <v>193</v>
       </c>
       <c r="D35" s="102"/>
-      <c r="E35" s="286"/>
-      <c r="F35" s="286"/>
-      <c r="G35" s="286"/>
-      <c r="H35" s="286"/>
-      <c r="I35" s="288"/>
+      <c r="E35" s="266"/>
+      <c r="F35" s="266"/>
+      <c r="G35" s="266"/>
+      <c r="H35" s="266"/>
+      <c r="I35" s="268"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="104"/>
@@ -7186,11 +7186,11 @@
         <v>194</v>
       </c>
       <c r="D36" s="106"/>
-      <c r="E36" s="287"/>
-      <c r="F36" s="287"/>
-      <c r="G36" s="287"/>
-      <c r="H36" s="287"/>
-      <c r="I36" s="288"/>
+      <c r="E36" s="267"/>
+      <c r="F36" s="267"/>
+      <c r="G36" s="267"/>
+      <c r="H36" s="267"/>
+      <c r="I36" s="268"/>
     </row>
     <row r="37" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97"/>
@@ -7199,16 +7199,16 @@
         <v>195</v>
       </c>
       <c r="D37" s="100"/>
-      <c r="E37" s="285" t="s">
+      <c r="E37" s="265" t="s">
         <v>155</v>
       </c>
-      <c r="F37" s="285" t="s">
+      <c r="F37" s="265" t="s">
         <v>155</v>
       </c>
-      <c r="G37" s="285" t="s">
+      <c r="G37" s="265" t="s">
         <v>155</v>
       </c>
-      <c r="H37" s="285" t="s">
+      <c r="H37" s="265" t="s">
         <v>155</v>
       </c>
       <c r="I37" s="66" t="s">
@@ -7222,10 +7222,10 @@
         <v>197</v>
       </c>
       <c r="D38" s="107"/>
-      <c r="E38" s="287"/>
-      <c r="F38" s="287"/>
-      <c r="G38" s="287"/>
-      <c r="H38" s="287"/>
+      <c r="E38" s="267"/>
+      <c r="F38" s="267"/>
+      <c r="G38" s="267"/>
+      <c r="H38" s="267"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="108"/>
@@ -7234,19 +7234,19 @@
         <v>198</v>
       </c>
       <c r="D39" s="100"/>
-      <c r="E39" s="285" t="s">
+      <c r="E39" s="265" t="s">
         <v>155</v>
       </c>
-      <c r="F39" s="285" t="s">
+      <c r="F39" s="265" t="s">
         <v>156</v>
       </c>
-      <c r="G39" s="285" t="s">
+      <c r="G39" s="265" t="s">
         <v>156</v>
       </c>
-      <c r="H39" s="285" t="s">
+      <c r="H39" s="265" t="s">
         <v>156</v>
       </c>
-      <c r="I39" s="288" t="s">
+      <c r="I39" s="268" t="s">
         <v>199</v>
       </c>
     </row>
@@ -7259,11 +7259,11 @@
       <c r="D40" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="E40" s="286"/>
-      <c r="F40" s="286"/>
-      <c r="G40" s="286"/>
-      <c r="H40" s="286"/>
-      <c r="I40" s="288"/>
+      <c r="E40" s="266"/>
+      <c r="F40" s="266"/>
+      <c r="G40" s="266"/>
+      <c r="H40" s="266"/>
+      <c r="I40" s="268"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="110"/>
@@ -7274,11 +7274,11 @@
       <c r="D41" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="E41" s="286"/>
-      <c r="F41" s="286"/>
-      <c r="G41" s="286"/>
-      <c r="H41" s="286"/>
-      <c r="I41" s="288"/>
+      <c r="E41" s="266"/>
+      <c r="F41" s="266"/>
+      <c r="G41" s="266"/>
+      <c r="H41" s="266"/>
+      <c r="I41" s="268"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="113"/>
@@ -7287,11 +7287,11 @@
         <v>204</v>
       </c>
       <c r="D42" s="107"/>
-      <c r="E42" s="287"/>
-      <c r="F42" s="287"/>
-      <c r="G42" s="287"/>
-      <c r="H42" s="287"/>
-      <c r="I42" s="288"/>
+      <c r="E42" s="267"/>
+      <c r="F42" s="267"/>
+      <c r="G42" s="267"/>
+      <c r="H42" s="267"/>
+      <c r="I42" s="268"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="80">
@@ -7308,7 +7308,7 @@
       <c r="H43" s="84"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="282" t="s">
+      <c r="A44" s="270" t="s">
         <v>163</v>
       </c>
       <c r="B44" s="115"/>
@@ -7316,104 +7316,104 @@
         <v>206</v>
       </c>
       <c r="D44" s="100"/>
-      <c r="E44" s="285" t="s">
+      <c r="E44" s="265" t="s">
         <v>155</v>
       </c>
-      <c r="F44" s="285" t="s">
+      <c r="F44" s="265" t="s">
         <v>156</v>
       </c>
-      <c r="G44" s="285" t="s">
+      <c r="G44" s="265" t="s">
         <v>156</v>
       </c>
-      <c r="H44" s="285" t="s">
+      <c r="H44" s="265" t="s">
         <v>155</v>
       </c>
-      <c r="I44" s="288" t="s">
+      <c r="I44" s="268" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="283"/>
+      <c r="A45" s="271"/>
       <c r="B45" s="116"/>
       <c r="C45" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="277" t="s">
+      <c r="D45" s="269" t="s">
         <v>208</v>
       </c>
-      <c r="E45" s="286"/>
-      <c r="F45" s="286"/>
-      <c r="G45" s="286"/>
-      <c r="H45" s="286"/>
-      <c r="I45" s="288"/>
+      <c r="E45" s="266"/>
+      <c r="F45" s="266"/>
+      <c r="G45" s="266"/>
+      <c r="H45" s="266"/>
+      <c r="I45" s="268"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="283"/>
+      <c r="A46" s="271"/>
       <c r="B46" s="116"/>
       <c r="C46" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="D46" s="277"/>
-      <c r="E46" s="286"/>
-      <c r="F46" s="286"/>
-      <c r="G46" s="286"/>
-      <c r="H46" s="286"/>
-      <c r="I46" s="288"/>
+      <c r="D46" s="269"/>
+      <c r="E46" s="266"/>
+      <c r="F46" s="266"/>
+      <c r="G46" s="266"/>
+      <c r="H46" s="266"/>
+      <c r="I46" s="268"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="283"/>
+      <c r="A47" s="271"/>
       <c r="B47" s="116"/>
       <c r="C47" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="D47" s="277"/>
-      <c r="E47" s="286"/>
-      <c r="F47" s="286"/>
-      <c r="G47" s="286"/>
-      <c r="H47" s="286"/>
-      <c r="I47" s="288"/>
+      <c r="D47" s="269"/>
+      <c r="E47" s="266"/>
+      <c r="F47" s="266"/>
+      <c r="G47" s="266"/>
+      <c r="H47" s="266"/>
+      <c r="I47" s="268"/>
     </row>
     <row r="48" spans="1:9" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="283"/>
+      <c r="A48" s="271"/>
       <c r="B48" s="116"/>
       <c r="C48" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="D48" s="277"/>
-      <c r="E48" s="286"/>
-      <c r="F48" s="286"/>
-      <c r="G48" s="286"/>
-      <c r="H48" s="286"/>
-      <c r="I48" s="288"/>
+      <c r="D48" s="269"/>
+      <c r="E48" s="266"/>
+      <c r="F48" s="266"/>
+      <c r="G48" s="266"/>
+      <c r="H48" s="266"/>
+      <c r="I48" s="268"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="283"/>
+      <c r="A49" s="271"/>
       <c r="B49" s="116"/>
       <c r="C49" s="90" t="s">
         <v>212</v>
       </c>
       <c r="D49" s="90"/>
-      <c r="E49" s="286"/>
-      <c r="F49" s="286"/>
-      <c r="G49" s="286"/>
-      <c r="H49" s="286"/>
-      <c r="I49" s="288"/>
+      <c r="E49" s="266"/>
+      <c r="F49" s="266"/>
+      <c r="G49" s="266"/>
+      <c r="H49" s="266"/>
+      <c r="I49" s="268"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="283"/>
+      <c r="A50" s="271"/>
       <c r="B50" s="116"/>
       <c r="C50" s="90" t="s">
         <v>213</v>
       </c>
       <c r="D50" s="90"/>
-      <c r="E50" s="286"/>
-      <c r="F50" s="286"/>
-      <c r="G50" s="286"/>
-      <c r="H50" s="286"/>
-      <c r="I50" s="288"/>
+      <c r="E50" s="266"/>
+      <c r="F50" s="266"/>
+      <c r="G50" s="266"/>
+      <c r="H50" s="266"/>
+      <c r="I50" s="268"/>
     </row>
     <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="284"/>
+      <c r="A51" s="272"/>
       <c r="B51" s="117"/>
       <c r="C51" s="118" t="s">
         <v>214</v>
@@ -7421,11 +7421,11 @@
       <c r="D51" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="E51" s="287"/>
-      <c r="F51" s="287"/>
-      <c r="G51" s="287"/>
-      <c r="H51" s="287"/>
-      <c r="I51" s="288"/>
+      <c r="E51" s="267"/>
+      <c r="F51" s="267"/>
+      <c r="G51" s="267"/>
+      <c r="H51" s="267"/>
+      <c r="I51" s="268"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="80"/>
@@ -7448,19 +7448,19 @@
         <v>217</v>
       </c>
       <c r="D53" s="100"/>
-      <c r="E53" s="266" t="s">
+      <c r="E53" s="277" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="266" t="s">
+      <c r="F53" s="277" t="s">
         <v>155</v>
       </c>
-      <c r="G53" s="266" t="s">
+      <c r="G53" s="277" t="s">
         <v>156</v>
       </c>
-      <c r="H53" s="266" t="s">
+      <c r="H53" s="277" t="s">
         <v>155</v>
       </c>
-      <c r="I53" s="269" t="s">
+      <c r="I53" s="273" t="s">
         <v>218</v>
       </c>
     </row>
@@ -7470,14 +7470,14 @@
       <c r="C54" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="D54" s="277" t="s">
+      <c r="D54" s="269" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="267"/>
-      <c r="F54" s="267"/>
-      <c r="G54" s="267"/>
-      <c r="H54" s="267"/>
-      <c r="I54" s="269"/>
+      <c r="E54" s="278"/>
+      <c r="F54" s="278"/>
+      <c r="G54" s="278"/>
+      <c r="H54" s="278"/>
+      <c r="I54" s="273"/>
     </row>
     <row r="55" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A55" s="275"/>
@@ -7485,12 +7485,12 @@
       <c r="C55" s="112" t="s">
         <v>221</v>
       </c>
-      <c r="D55" s="277"/>
-      <c r="E55" s="267"/>
-      <c r="F55" s="267"/>
-      <c r="G55" s="267"/>
-      <c r="H55" s="267"/>
-      <c r="I55" s="269"/>
+      <c r="D55" s="269"/>
+      <c r="E55" s="278"/>
+      <c r="F55" s="278"/>
+      <c r="G55" s="278"/>
+      <c r="H55" s="278"/>
+      <c r="I55" s="273"/>
     </row>
     <row r="56" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A56" s="275"/>
@@ -7498,12 +7498,12 @@
       <c r="C56" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="D56" s="277"/>
-      <c r="E56" s="267"/>
-      <c r="F56" s="267"/>
-      <c r="G56" s="267"/>
-      <c r="H56" s="267"/>
-      <c r="I56" s="269"/>
+      <c r="D56" s="269"/>
+      <c r="E56" s="278"/>
+      <c r="F56" s="278"/>
+      <c r="G56" s="278"/>
+      <c r="H56" s="278"/>
+      <c r="I56" s="273"/>
     </row>
     <row r="57" spans="1:9" s="90" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="276"/>
@@ -7511,12 +7511,12 @@
       <c r="C57" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="D57" s="278"/>
-      <c r="E57" s="268"/>
-      <c r="F57" s="268"/>
-      <c r="G57" s="268"/>
-      <c r="H57" s="268"/>
-      <c r="I57" s="269"/>
+      <c r="D57" s="280"/>
+      <c r="E57" s="279"/>
+      <c r="F57" s="279"/>
+      <c r="G57" s="279"/>
+      <c r="H57" s="279"/>
+      <c r="I57" s="273"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="80"/>
@@ -7532,7 +7532,7 @@
       <c r="I58" s="123"/>
     </row>
     <row r="59" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="279" t="s">
+      <c r="A59" s="281" t="s">
         <v>163</v>
       </c>
       <c r="B59" s="124"/>
@@ -7540,24 +7540,24 @@
         <v>225</v>
       </c>
       <c r="D59" s="100"/>
-      <c r="E59" s="266" t="s">
+      <c r="E59" s="277" t="s">
         <v>155</v>
       </c>
-      <c r="F59" s="266" t="s">
+      <c r="F59" s="277" t="s">
         <v>155</v>
       </c>
-      <c r="G59" s="266" t="s">
+      <c r="G59" s="277" t="s">
         <v>156</v>
       </c>
-      <c r="H59" s="266" t="s">
+      <c r="H59" s="277" t="s">
         <v>155</v>
       </c>
-      <c r="I59" s="269" t="s">
+      <c r="I59" s="273" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="280"/>
+      <c r="A60" s="282"/>
       <c r="B60" s="125"/>
       <c r="C60" s="90" t="s">
         <v>226</v>
@@ -7565,36 +7565,36 @@
       <c r="D60" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="E60" s="267"/>
-      <c r="F60" s="267"/>
-      <c r="G60" s="267"/>
-      <c r="H60" s="267"/>
-      <c r="I60" s="269"/>
+      <c r="E60" s="278"/>
+      <c r="F60" s="278"/>
+      <c r="G60" s="278"/>
+      <c r="H60" s="278"/>
+      <c r="I60" s="273"/>
     </row>
     <row r="61" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="280"/>
+      <c r="A61" s="282"/>
       <c r="B61" s="125"/>
       <c r="C61" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="267"/>
-      <c r="F61" s="267"/>
-      <c r="G61" s="267"/>
-      <c r="H61" s="267"/>
-      <c r="I61" s="269"/>
+      <c r="E61" s="278"/>
+      <c r="F61" s="278"/>
+      <c r="G61" s="278"/>
+      <c r="H61" s="278"/>
+      <c r="I61" s="273"/>
     </row>
     <row r="62" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="281"/>
+      <c r="A62" s="283"/>
       <c r="B62" s="126"/>
       <c r="C62" s="107" t="s">
         <v>228</v>
       </c>
       <c r="D62" s="107"/>
-      <c r="E62" s="268"/>
-      <c r="F62" s="268"/>
-      <c r="G62" s="268"/>
-      <c r="H62" s="268"/>
-      <c r="I62" s="269"/>
+      <c r="E62" s="279"/>
+      <c r="F62" s="279"/>
+      <c r="G62" s="279"/>
+      <c r="H62" s="279"/>
+      <c r="I62" s="273"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="80"/>
@@ -7618,19 +7618,19 @@
         <v>230</v>
       </c>
       <c r="D64" s="100"/>
-      <c r="E64" s="266" t="s">
+      <c r="E64" s="277" t="s">
         <v>155</v>
       </c>
-      <c r="F64" s="266" t="s">
+      <c r="F64" s="277" t="s">
         <v>155</v>
       </c>
-      <c r="G64" s="266" t="s">
+      <c r="G64" s="277" t="s">
         <v>156</v>
       </c>
-      <c r="H64" s="266" t="s">
+      <c r="H64" s="277" t="s">
         <v>155</v>
       </c>
-      <c r="I64" s="269" t="s">
+      <c r="I64" s="273" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7641,11 +7641,11 @@
         <v>231</v>
       </c>
       <c r="D65" s="102"/>
-      <c r="E65" s="267"/>
-      <c r="F65" s="267"/>
-      <c r="G65" s="267"/>
-      <c r="H65" s="267"/>
-      <c r="I65" s="269"/>
+      <c r="E65" s="278"/>
+      <c r="F65" s="278"/>
+      <c r="G65" s="278"/>
+      <c r="H65" s="278"/>
+      <c r="I65" s="273"/>
     </row>
     <row r="66" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A66" s="129"/>
@@ -7653,11 +7653,11 @@
       <c r="C66" s="90" t="s">
         <v>232</v>
       </c>
-      <c r="E66" s="267"/>
-      <c r="F66" s="267"/>
-      <c r="G66" s="267"/>
-      <c r="H66" s="267"/>
-      <c r="I66" s="269"/>
+      <c r="E66" s="278"/>
+      <c r="F66" s="278"/>
+      <c r="G66" s="278"/>
+      <c r="H66" s="278"/>
+      <c r="I66" s="273"/>
     </row>
     <row r="67" spans="1:9" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A67" s="130"/>
@@ -7666,11 +7666,11 @@
         <v>233</v>
       </c>
       <c r="D67" s="107"/>
-      <c r="E67" s="268"/>
-      <c r="F67" s="268"/>
-      <c r="G67" s="268"/>
-      <c r="H67" s="268"/>
-      <c r="I67" s="269"/>
+      <c r="E67" s="279"/>
+      <c r="F67" s="279"/>
+      <c r="G67" s="279"/>
+      <c r="H67" s="279"/>
+      <c r="I67" s="273"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="80" t="s">
@@ -7719,19 +7719,19 @@
       <c r="D70" s="140" t="s">
         <v>237</v>
       </c>
-      <c r="E70" s="270" t="s">
+      <c r="E70" s="284" t="s">
         <v>155</v>
       </c>
-      <c r="F70" s="270" t="s">
+      <c r="F70" s="284" t="s">
         <v>155</v>
       </c>
-      <c r="G70" s="270" t="s">
+      <c r="G70" s="284" t="s">
         <v>156</v>
       </c>
-      <c r="H70" s="270" t="s">
+      <c r="H70" s="284" t="s">
         <v>155</v>
       </c>
-      <c r="I70" s="273" t="s">
+      <c r="I70" s="287" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7741,11 +7741,11 @@
       <c r="C71" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="E71" s="271"/>
-      <c r="F71" s="271"/>
-      <c r="G71" s="271"/>
-      <c r="H71" s="271"/>
-      <c r="I71" s="273"/>
+      <c r="E71" s="285"/>
+      <c r="F71" s="285"/>
+      <c r="G71" s="285"/>
+      <c r="H71" s="285"/>
+      <c r="I71" s="287"/>
     </row>
     <row r="72" spans="1:9" s="136" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A72" s="141"/>
@@ -7756,11 +7756,11 @@
       <c r="D72" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="E72" s="271"/>
-      <c r="F72" s="271"/>
-      <c r="G72" s="271"/>
-      <c r="H72" s="271"/>
-      <c r="I72" s="273"/>
+      <c r="E72" s="285"/>
+      <c r="F72" s="285"/>
+      <c r="G72" s="285"/>
+      <c r="H72" s="285"/>
+      <c r="I72" s="287"/>
     </row>
     <row r="73" spans="1:9" s="136" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A73" s="144"/>
@@ -7771,11 +7771,11 @@
       <c r="D73" s="145" t="s">
         <v>242</v>
       </c>
-      <c r="E73" s="272"/>
-      <c r="F73" s="272"/>
-      <c r="G73" s="272"/>
-      <c r="H73" s="272"/>
-      <c r="I73" s="273"/>
+      <c r="E73" s="286"/>
+      <c r="F73" s="286"/>
+      <c r="G73" s="286"/>
+      <c r="H73" s="286"/>
+      <c r="I73" s="287"/>
     </row>
     <row r="74" spans="1:9" s="136" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="131"/>
@@ -7826,7 +7826,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="265" t="s">
+      <c r="A79" s="288" t="s">
         <v>247</v>
       </c>
       <c r="B79" s="149" t="s">
@@ -7838,7 +7838,7 @@
       <c r="D79" s="150"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="265"/>
+      <c r="A80" s="288"/>
       <c r="B80" s="149" t="s">
         <v>250</v>
       </c>
@@ -7848,7 +7848,7 @@
       <c r="D80" s="150"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="265"/>
+      <c r="A81" s="288"/>
       <c r="B81" s="149" t="s">
         <v>251</v>
       </c>
@@ -7858,7 +7858,7 @@
       <c r="D81" s="150"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="265"/>
+      <c r="A82" s="288"/>
       <c r="B82" s="149" t="s">
         <v>253</v>
       </c>
@@ -7868,7 +7868,7 @@
       <c r="D82" s="150"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="265"/>
+      <c r="A83" s="288"/>
       <c r="B83" s="149" t="s">
         <v>255</v>
       </c>
@@ -7878,7 +7878,7 @@
       <c r="D83" s="150"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="265"/>
+      <c r="A84" s="288"/>
       <c r="B84" s="149" t="s">
         <v>257</v>
       </c>
@@ -7888,7 +7888,7 @@
       <c r="D84" s="150"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="265"/>
+      <c r="A85" s="288"/>
       <c r="B85" s="149" t="s">
         <v>258</v>
       </c>
@@ -7904,7 +7904,7 @@
       <c r="D86" s="82"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="265" t="s">
+      <c r="A87" s="288" t="s">
         <v>259</v>
       </c>
       <c r="B87" s="149" t="s">
@@ -7916,7 +7916,7 @@
       <c r="D87" s="150"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="265"/>
+      <c r="A88" s="288"/>
       <c r="B88" s="149" t="s">
         <v>262</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="D88" s="150"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="265"/>
+      <c r="A89" s="288"/>
       <c r="B89" s="149" t="s">
         <v>264</v>
       </c>
@@ -7936,7 +7936,7 @@
       <c r="D89" s="150"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="265"/>
+      <c r="A90" s="288"/>
       <c r="B90" s="149" t="s">
         <v>265</v>
       </c>
@@ -7946,7 +7946,7 @@
       <c r="D90" s="150"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="265"/>
+      <c r="A91" s="288"/>
       <c r="B91" s="149" t="s">
         <v>266</v>
       </c>
@@ -7956,7 +7956,7 @@
       <c r="D91" s="150"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="265"/>
+      <c r="A92" s="288"/>
       <c r="B92" s="149" t="s">
         <v>267</v>
       </c>
@@ -7966,7 +7966,7 @@
       <c r="D92" s="150"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="265"/>
+      <c r="A93" s="288"/>
       <c r="B93" s="149" t="s">
         <v>268</v>
       </c>
@@ -7976,7 +7976,7 @@
       <c r="D93" s="150"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="265"/>
+      <c r="A94" s="288"/>
       <c r="B94" s="149" t="s">
         <v>269</v>
       </c>
@@ -7986,7 +7986,7 @@
       <c r="D94" s="150"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="265"/>
+      <c r="A95" s="288"/>
       <c r="B95" s="149" t="s">
         <v>270</v>
       </c>
@@ -7996,7 +7996,7 @@
       <c r="D95" s="150"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="265"/>
+      <c r="A96" s="288"/>
       <c r="B96" s="149" t="s">
         <v>271</v>
       </c>
@@ -8006,7 +8006,7 @@
       <c r="D96" s="150"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="265"/>
+      <c r="A97" s="288"/>
       <c r="B97" s="149" t="s">
         <v>272</v>
       </c>
@@ -8016,7 +8016,7 @@
       <c r="D97" s="150"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="265"/>
+      <c r="A98" s="288"/>
       <c r="B98" s="149" t="s">
         <v>274</v>
       </c>
@@ -8026,7 +8026,7 @@
       <c r="D98" s="150"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="265"/>
+      <c r="A99" s="288"/>
       <c r="B99" s="149" t="s">
         <v>275</v>
       </c>
@@ -8036,7 +8036,7 @@
       <c r="D99" s="150"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="265"/>
+      <c r="A100" s="288"/>
       <c r="B100" s="149" t="s">
         <v>276</v>
       </c>
@@ -8060,7 +8060,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="265" t="s">
+      <c r="A102" s="288" t="s">
         <v>277</v>
       </c>
       <c r="B102" s="149" t="s">
@@ -8072,7 +8072,7 @@
       <c r="D102" s="150"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="265"/>
+      <c r="A103" s="288"/>
       <c r="B103" s="149" t="s">
         <v>280</v>
       </c>
@@ -8082,7 +8082,7 @@
       <c r="D103" s="150"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="265"/>
+      <c r="A104" s="288"/>
       <c r="B104" s="149" t="s">
         <v>281</v>
       </c>
@@ -8092,7 +8092,7 @@
       <c r="D104" s="150"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="265"/>
+      <c r="A105" s="288"/>
       <c r="B105" s="149" t="s">
         <v>282</v>
       </c>
@@ -8102,7 +8102,7 @@
       <c r="D105" s="150"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="265"/>
+      <c r="A106" s="288"/>
       <c r="B106" s="149" t="s">
         <v>283</v>
       </c>
@@ -8112,7 +8112,7 @@
       <c r="D106" s="150"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="265"/>
+      <c r="A107" s="288"/>
       <c r="B107" s="149" t="s">
         <v>284</v>
       </c>
@@ -8122,7 +8122,7 @@
       <c r="D107" s="150"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="265"/>
+      <c r="A108" s="288"/>
       <c r="B108" s="149" t="s">
         <v>285</v>
       </c>
@@ -8132,7 +8132,7 @@
       <c r="D108" s="150"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="265"/>
+      <c r="A109" s="288"/>
       <c r="B109" s="149" t="s">
         <v>286</v>
       </c>
@@ -8142,7 +8142,7 @@
       <c r="D109" s="150"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="265"/>
+      <c r="A110" s="288"/>
       <c r="B110" s="149" t="s">
         <v>287</v>
       </c>
@@ -8152,7 +8152,7 @@
       <c r="D110" s="150"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="265"/>
+      <c r="A111" s="288"/>
       <c r="B111" s="149" t="s">
         <v>288</v>
       </c>
@@ -8168,7 +8168,7 @@
       <c r="D112" s="82"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="265" t="s">
+      <c r="A113" s="288" t="s">
         <v>289</v>
       </c>
       <c r="B113" s="149" t="s">
@@ -8180,7 +8180,7 @@
       <c r="D113" s="150"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="265"/>
+      <c r="A114" s="288"/>
       <c r="B114" s="149" t="s">
         <v>291</v>
       </c>
@@ -8196,7 +8196,7 @@
       <c r="D115" s="82"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="265" t="s">
+      <c r="A116" s="288" t="s">
         <v>292</v>
       </c>
       <c r="B116" s="149" t="s">
@@ -8208,7 +8208,7 @@
       <c r="D116" s="149"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="265"/>
+      <c r="A117" s="288"/>
       <c r="B117" s="149" t="s">
         <v>295</v>
       </c>
@@ -8219,31 +8219,21 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="E15:E22"/>
-    <mergeCell ref="F15:F22"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="H15:H22"/>
-    <mergeCell ref="E23:E36"/>
-    <mergeCell ref="F23:F36"/>
-    <mergeCell ref="G23:G36"/>
-    <mergeCell ref="H23:H36"/>
-    <mergeCell ref="I44:I51"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="I23:I36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="E44:E51"/>
-    <mergeCell ref="F44:F51"/>
-    <mergeCell ref="G44:G51"/>
-    <mergeCell ref="H44:H51"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="A87:A100"/>
+    <mergeCell ref="A102:A111"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="I64:I67"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="I70:I73"/>
     <mergeCell ref="I59:I62"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="E53:E57"/>
@@ -8257,21 +8247,31 @@
     <mergeCell ref="F59:F62"/>
     <mergeCell ref="G59:G62"/>
     <mergeCell ref="H59:H62"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="I70:I73"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="I64:I67"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A79:A85"/>
-    <mergeCell ref="A87:A100"/>
-    <mergeCell ref="A102:A111"/>
-    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="E44:E51"/>
+    <mergeCell ref="F44:F51"/>
+    <mergeCell ref="G44:G51"/>
+    <mergeCell ref="H44:H51"/>
+    <mergeCell ref="I44:I51"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="I23:I36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="E15:E22"/>
+    <mergeCell ref="F15:F22"/>
+    <mergeCell ref="G15:G22"/>
+    <mergeCell ref="H15:H22"/>
+    <mergeCell ref="E23:E36"/>
+    <mergeCell ref="F23:F36"/>
+    <mergeCell ref="G23:G36"/>
+    <mergeCell ref="H23:H36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8323,19 +8323,19 @@
     </row>
     <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="161" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="183" t="s">
         <v>362</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="160" t="s">
         <v>363</v>
-      </c>
-      <c r="E4" s="183" t="s">
-        <v>364</v>
-      </c>
-      <c r="F4" s="160" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -8433,127 +8433,127 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="325" t="s">
+      <c r="D3" s="289" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="326"/>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
-      <c r="L3" s="326"/>
-      <c r="M3" s="326"/>
-      <c r="N3" s="326"/>
-      <c r="O3" s="327"/>
-      <c r="P3" s="331" t="s">
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
+      <c r="M3" s="290"/>
+      <c r="N3" s="290"/>
+      <c r="O3" s="291"/>
+      <c r="P3" s="295" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="332"/>
+      <c r="Q3" s="296"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="329"/>
-      <c r="F4" s="329"/>
-      <c r="G4" s="329"/>
-      <c r="H4" s="329"/>
-      <c r="I4" s="329"/>
-      <c r="J4" s="329"/>
-      <c r="K4" s="329"/>
-      <c r="L4" s="329"/>
-      <c r="M4" s="329"/>
-      <c r="N4" s="329"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="333"/>
-      <c r="Q4" s="334"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="293"/>
+      <c r="F4" s="293"/>
+      <c r="G4" s="293"/>
+      <c r="H4" s="293"/>
+      <c r="I4" s="293"/>
+      <c r="J4" s="293"/>
+      <c r="K4" s="293"/>
+      <c r="L4" s="293"/>
+      <c r="M4" s="293"/>
+      <c r="N4" s="293"/>
+      <c r="O4" s="294"/>
+      <c r="P4" s="297"/>
+      <c r="Q4" s="298"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="305" t="s">
+      <c r="B6" s="299" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="290"/>
-      <c r="D6" s="290"/>
-      <c r="E6" s="290"/>
-      <c r="F6" s="290"/>
-      <c r="G6" s="290"/>
-      <c r="H6" s="290"/>
-      <c r="I6" s="290"/>
-      <c r="J6" s="290"/>
-      <c r="K6" s="290"/>
-      <c r="L6" s="290"/>
-      <c r="M6" s="290"/>
-      <c r="N6" s="290"/>
-      <c r="O6" s="290"/>
-      <c r="P6" s="290"/>
-      <c r="Q6" s="291"/>
+      <c r="C6" s="300"/>
+      <c r="D6" s="300"/>
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="300"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="300"/>
+      <c r="K6" s="300"/>
+      <c r="L6" s="300"/>
+      <c r="M6" s="300"/>
+      <c r="N6" s="300"/>
+      <c r="O6" s="300"/>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="301"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="292"/>
-      <c r="C7" s="293"/>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
-      <c r="I7" s="293"/>
-      <c r="J7" s="293"/>
-      <c r="K7" s="293"/>
-      <c r="L7" s="293"/>
-      <c r="M7" s="293"/>
-      <c r="N7" s="293"/>
-      <c r="O7" s="293"/>
-      <c r="P7" s="293"/>
-      <c r="Q7" s="294"/>
+      <c r="B7" s="302"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="303"/>
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
+      <c r="G7" s="303"/>
+      <c r="H7" s="303"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="303"/>
+      <c r="K7" s="303"/>
+      <c r="L7" s="303"/>
+      <c r="M7" s="303"/>
+      <c r="N7" s="303"/>
+      <c r="O7" s="303"/>
+      <c r="P7" s="303"/>
+      <c r="Q7" s="304"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="295"/>
-      <c r="C8" s="296"/>
-      <c r="D8" s="296"/>
-      <c r="E8" s="296"/>
-      <c r="F8" s="296"/>
-      <c r="G8" s="296"/>
-      <c r="H8" s="296"/>
-      <c r="I8" s="296"/>
-      <c r="J8" s="296"/>
-      <c r="K8" s="296"/>
-      <c r="L8" s="296"/>
-      <c r="M8" s="296"/>
-      <c r="N8" s="296"/>
-      <c r="O8" s="296"/>
-      <c r="P8" s="296"/>
-      <c r="Q8" s="297"/>
+      <c r="B8" s="305"/>
+      <c r="C8" s="306"/>
+      <c r="D8" s="306"/>
+      <c r="E8" s="306"/>
+      <c r="F8" s="306"/>
+      <c r="G8" s="306"/>
+      <c r="H8" s="306"/>
+      <c r="I8" s="306"/>
+      <c r="J8" s="306"/>
+      <c r="K8" s="306"/>
+      <c r="L8" s="306"/>
+      <c r="M8" s="306"/>
+      <c r="N8" s="306"/>
+      <c r="O8" s="306"/>
+      <c r="P8" s="306"/>
+      <c r="Q8" s="307"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="302" t="s">
+      <c r="B10" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="303"/>
-      <c r="D10" s="303"/>
-      <c r="E10" s="303"/>
-      <c r="F10" s="303"/>
-      <c r="G10" s="303"/>
-      <c r="H10" s="303"/>
-      <c r="I10" s="303"/>
-      <c r="J10" s="303"/>
-      <c r="K10" s="303"/>
-      <c r="L10" s="303"/>
-      <c r="M10" s="303"/>
-      <c r="N10" s="303"/>
-      <c r="O10" s="303"/>
-      <c r="P10" s="303"/>
-      <c r="Q10" s="304"/>
+      <c r="C10" s="309"/>
+      <c r="D10" s="309"/>
+      <c r="E10" s="309"/>
+      <c r="F10" s="309"/>
+      <c r="G10" s="309"/>
+      <c r="H10" s="309"/>
+      <c r="I10" s="309"/>
+      <c r="J10" s="309"/>
+      <c r="K10" s="309"/>
+      <c r="L10" s="309"/>
+      <c r="M10" s="309"/>
+      <c r="N10" s="309"/>
+      <c r="O10" s="309"/>
+      <c r="P10" s="309"/>
+      <c r="Q10" s="310"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
-      <c r="C11" s="335" t="s">
+      <c r="C11" s="311" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="335"/>
+      <c r="D11" s="311"/>
       <c r="E11" s="17" t="s">
         <v>40</v>
       </c>
@@ -8562,10 +8562,10 @@
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="335" t="s">
+      <c r="K11" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="335"/>
+      <c r="L11" s="311"/>
       <c r="M11" s="17" t="s">
         <v>42</v>
       </c>
@@ -8576,20 +8576,20 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19"/>
-      <c r="C12" s="298" t="s">
+      <c r="C12" s="312" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="298"/>
+      <c r="D12" s="312"/>
       <c r="E12" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="K12" s="298" t="s">
+      <c r="K12" s="312" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="298"/>
+      <c r="L12" s="312"/>
       <c r="M12" s="17" t="s">
         <v>46</v>
       </c>
@@ -8600,20 +8600,20 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="19"/>
-      <c r="C13" s="298" t="s">
+      <c r="C13" s="312" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="298"/>
+      <c r="D13" s="312"/>
       <c r="E13" s="17" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="K13" s="298" t="s">
+      <c r="K13" s="312" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="298"/>
+      <c r="L13" s="312"/>
       <c r="M13" s="17" t="s">
         <v>50</v>
       </c>
@@ -8624,20 +8624,20 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="19"/>
-      <c r="C14" s="298" t="s">
+      <c r="C14" s="312" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="298"/>
+      <c r="D14" s="312"/>
       <c r="E14" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
-      <c r="K14" s="298" t="s">
+      <c r="K14" s="312" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="298"/>
+      <c r="L14" s="312"/>
       <c r="M14" s="17" t="s">
         <v>54</v>
       </c>
@@ -8648,10 +8648,10 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="19"/>
-      <c r="C15" s="298" t="s">
+      <c r="C15" s="312" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="298"/>
+      <c r="D15" s="312"/>
       <c r="E15" s="17" t="s">
         <v>56</v>
       </c>
@@ -8672,24 +8672,24 @@
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="19"/>
-      <c r="C17" s="317" t="s">
+      <c r="C17" s="313" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="311"/>
+      <c r="D17" s="314"/>
       <c r="E17" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="318" t="s">
+      <c r="F17" s="315" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="318"/>
-      <c r="H17" s="318"/>
-      <c r="K17" s="317" t="s">
+      <c r="G17" s="315"/>
+      <c r="H17" s="315"/>
+      <c r="K17" s="313" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="324"/>
-      <c r="M17" s="324"/>
-      <c r="N17" s="311"/>
+      <c r="L17" s="316"/>
+      <c r="M17" s="316"/>
+      <c r="N17" s="314"/>
       <c r="O17" s="23" t="s">
         <v>61</v>
       </c>
@@ -8700,42 +8700,42 @@
     </row>
     <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="19"/>
-      <c r="C18" s="317"/>
-      <c r="D18" s="311"/>
+      <c r="C18" s="313"/>
+      <c r="D18" s="314"/>
       <c r="E18" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="318"/>
-      <c r="G18" s="318"/>
-      <c r="H18" s="318"/>
-      <c r="K18" s="319" t="s">
+      <c r="F18" s="315"/>
+      <c r="G18" s="315"/>
+      <c r="H18" s="315"/>
+      <c r="K18" s="317" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="320"/>
-      <c r="M18" s="320"/>
-      <c r="N18" s="321"/>
+      <c r="L18" s="318"/>
+      <c r="M18" s="318"/>
+      <c r="N18" s="319"/>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="20"/>
     </row>
     <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19"/>
-      <c r="C19" s="317"/>
-      <c r="D19" s="311"/>
+      <c r="C19" s="313"/>
+      <c r="D19" s="314"/>
       <c r="E19" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="318"/>
-      <c r="G19" s="318"/>
-      <c r="H19" s="318"/>
-      <c r="K19" s="319" t="s">
+      <c r="F19" s="315"/>
+      <c r="G19" s="315"/>
+      <c r="H19" s="315"/>
+      <c r="K19" s="317" t="s">
         <v>66</v>
       </c>
-      <c r="L19" s="320"/>
-      <c r="M19" s="320"/>
-      <c r="N19" s="320"/>
-      <c r="O19" s="320"/>
-      <c r="P19" s="321"/>
+      <c r="L19" s="318"/>
+      <c r="M19" s="318"/>
+      <c r="N19" s="318"/>
+      <c r="O19" s="318"/>
+      <c r="P19" s="319"/>
       <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8743,93 +8743,93 @@
       <c r="Q20" s="20"/>
     </row>
     <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="322" t="s">
+      <c r="B21" s="320" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="317" t="s">
+      <c r="C21" s="313" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="324"/>
-      <c r="E21" s="324"/>
-      <c r="F21" s="324"/>
-      <c r="G21" s="324"/>
-      <c r="H21" s="311"/>
-      <c r="I21" s="317" t="s">
+      <c r="D21" s="316"/>
+      <c r="E21" s="316"/>
+      <c r="F21" s="316"/>
+      <c r="G21" s="316"/>
+      <c r="H21" s="314"/>
+      <c r="I21" s="313" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="324"/>
-      <c r="K21" s="324"/>
-      <c r="L21" s="324"/>
-      <c r="M21" s="324"/>
-      <c r="N21" s="311"/>
-      <c r="O21" s="322" t="s">
+      <c r="J21" s="316"/>
+      <c r="K21" s="316"/>
+      <c r="L21" s="316"/>
+      <c r="M21" s="316"/>
+      <c r="N21" s="314"/>
+      <c r="O21" s="320" t="s">
         <v>70</v>
       </c>
-      <c r="P21" s="322" t="s">
+      <c r="P21" s="320" t="s">
         <v>71</v>
       </c>
-      <c r="Q21" s="306" t="s">
+      <c r="Q21" s="325" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="323"/>
-      <c r="C22" s="308" t="s">
+      <c r="B22" s="321"/>
+      <c r="C22" s="326" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="309"/>
+      <c r="D22" s="327"/>
       <c r="E22" s="27" t="s">
         <v>73</v>
       </c>
       <c r="F22" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="310" t="s">
+      <c r="G22" s="328" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="311"/>
-      <c r="I22" s="308" t="s">
+      <c r="H22" s="314"/>
+      <c r="I22" s="326" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="309"/>
+      <c r="J22" s="327"/>
       <c r="K22" s="27" t="s">
         <v>73</v>
       </c>
       <c r="L22" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="M22" s="310" t="s">
+      <c r="M22" s="328" t="s">
         <v>75</v>
       </c>
-      <c r="N22" s="311"/>
-      <c r="O22" s="323"/>
-      <c r="P22" s="307"/>
-      <c r="Q22" s="307"/>
+      <c r="N22" s="314"/>
+      <c r="O22" s="321"/>
+      <c r="P22" s="322"/>
+      <c r="Q22" s="322"/>
     </row>
     <row r="23" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="26">
         <v>1</v>
       </c>
-      <c r="C23" s="312" t="s">
+      <c r="C23" s="329" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="313"/>
+      <c r="D23" s="330"/>
       <c r="E23" s="29" t="s">
         <v>77</v>
       </c>
       <c r="F23" s="26"/>
-      <c r="G23" s="300"/>
-      <c r="H23" s="301"/>
+      <c r="G23" s="323"/>
+      <c r="H23" s="324"/>
       <c r="I23" s="30" t="s">
         <v>78</v>
       </c>
       <c r="J23" s="31"/>
-      <c r="K23" s="314" t="s">
+      <c r="K23" s="331" t="s">
         <v>79</v>
       </c>
       <c r="L23" s="26"/>
-      <c r="M23" s="300"/>
-      <c r="N23" s="301"/>
+      <c r="M23" s="323"/>
+      <c r="N23" s="324"/>
       <c r="O23" s="26" t="s">
         <v>9</v>
       </c>
@@ -8840,24 +8840,24 @@
       <c r="B24" s="26">
         <v>2</v>
       </c>
-      <c r="C24" s="312" t="s">
+      <c r="C24" s="329" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="313"/>
+      <c r="D24" s="330"/>
       <c r="E24" s="29" t="s">
         <v>77</v>
       </c>
       <c r="F24" s="26"/>
-      <c r="G24" s="300"/>
-      <c r="H24" s="301"/>
+      <c r="G24" s="323"/>
+      <c r="H24" s="324"/>
       <c r="I24" s="30" t="s">
         <v>78</v>
       </c>
       <c r="J24" s="31"/>
-      <c r="K24" s="315"/>
+      <c r="K24" s="332"/>
       <c r="L24" s="26"/>
-      <c r="M24" s="300"/>
-      <c r="N24" s="301"/>
+      <c r="M24" s="323"/>
+      <c r="N24" s="324"/>
       <c r="O24" s="26" t="s">
         <v>9</v>
       </c>
@@ -8868,24 +8868,24 @@
       <c r="B25" s="26">
         <v>3</v>
       </c>
-      <c r="C25" s="312" t="s">
+      <c r="C25" s="329" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="313"/>
+      <c r="D25" s="330"/>
       <c r="E25" s="29" t="s">
         <v>77</v>
       </c>
       <c r="F25" s="26"/>
-      <c r="G25" s="300"/>
-      <c r="H25" s="301"/>
+      <c r="G25" s="323"/>
+      <c r="H25" s="324"/>
       <c r="I25" s="30" t="s">
         <v>78</v>
       </c>
       <c r="J25" s="31"/>
-      <c r="K25" s="316"/>
+      <c r="K25" s="333"/>
       <c r="L25" s="26"/>
-      <c r="M25" s="300"/>
-      <c r="N25" s="301"/>
+      <c r="M25" s="323"/>
+      <c r="N25" s="324"/>
       <c r="O25" s="26" t="s">
         <v>9</v>
       </c>
@@ -8896,18 +8896,18 @@
       <c r="B26" s="26">
         <v>4</v>
       </c>
-      <c r="C26" s="300"/>
-      <c r="D26" s="301"/>
+      <c r="C26" s="323"/>
+      <c r="D26" s="324"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
-      <c r="G26" s="300"/>
-      <c r="H26" s="301"/>
-      <c r="I26" s="300"/>
-      <c r="J26" s="301"/>
+      <c r="G26" s="323"/>
+      <c r="H26" s="324"/>
+      <c r="I26" s="323"/>
+      <c r="J26" s="324"/>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
-      <c r="M26" s="300"/>
-      <c r="N26" s="301"/>
+      <c r="M26" s="323"/>
+      <c r="N26" s="324"/>
       <c r="O26" s="26"/>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
@@ -8916,42 +8916,42 @@
       <c r="B27" s="26">
         <v>5</v>
       </c>
-      <c r="C27" s="300"/>
-      <c r="D27" s="301"/>
+      <c r="C27" s="323"/>
+      <c r="D27" s="324"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="300"/>
-      <c r="H27" s="301"/>
-      <c r="I27" s="300"/>
-      <c r="J27" s="301"/>
+      <c r="G27" s="323"/>
+      <c r="H27" s="324"/>
+      <c r="I27" s="323"/>
+      <c r="J27" s="324"/>
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
-      <c r="M27" s="300"/>
-      <c r="N27" s="301"/>
+      <c r="M27" s="323"/>
+      <c r="N27" s="324"/>
       <c r="O27" s="26"/>
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
     </row>
     <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="302" t="s">
+      <c r="B29" s="308" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="303"/>
-      <c r="D29" s="303"/>
-      <c r="E29" s="303"/>
-      <c r="F29" s="303"/>
-      <c r="G29" s="303"/>
-      <c r="H29" s="303"/>
-      <c r="I29" s="303"/>
-      <c r="J29" s="303"/>
-      <c r="K29" s="303"/>
-      <c r="L29" s="303"/>
-      <c r="M29" s="303"/>
-      <c r="N29" s="303"/>
-      <c r="O29" s="303"/>
-      <c r="P29" s="303"/>
-      <c r="Q29" s="304"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="309"/>
+      <c r="E29" s="309"/>
+      <c r="F29" s="309"/>
+      <c r="G29" s="309"/>
+      <c r="H29" s="309"/>
+      <c r="I29" s="309"/>
+      <c r="J29" s="309"/>
+      <c r="K29" s="309"/>
+      <c r="L29" s="309"/>
+      <c r="M29" s="309"/>
+      <c r="N29" s="309"/>
+      <c r="O29" s="309"/>
+      <c r="P29" s="309"/>
+      <c r="Q29" s="310"/>
     </row>
     <row r="30" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
@@ -8973,32 +8973,32 @@
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="19"/>
-      <c r="C31" s="305" t="s">
+      <c r="C31" s="299" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="290"/>
-      <c r="E31" s="290"/>
-      <c r="F31" s="290"/>
-      <c r="G31" s="290"/>
-      <c r="H31" s="291"/>
-      <c r="K31" s="298" t="s">
+      <c r="D31" s="300"/>
+      <c r="E31" s="300"/>
+      <c r="F31" s="300"/>
+      <c r="G31" s="300"/>
+      <c r="H31" s="301"/>
+      <c r="K31" s="312" t="s">
         <v>84</v>
       </c>
-      <c r="L31" s="298"/>
+      <c r="L31" s="312"/>
       <c r="Q31" s="20"/>
     </row>
     <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="19"/>
-      <c r="C32" s="292"/>
-      <c r="D32" s="293"/>
-      <c r="E32" s="293"/>
-      <c r="F32" s="293"/>
-      <c r="G32" s="293"/>
-      <c r="H32" s="294"/>
-      <c r="K32" s="299" t="s">
+      <c r="C32" s="302"/>
+      <c r="D32" s="303"/>
+      <c r="E32" s="303"/>
+      <c r="F32" s="303"/>
+      <c r="G32" s="303"/>
+      <c r="H32" s="304"/>
+      <c r="K32" s="334" t="s">
         <v>85</v>
       </c>
-      <c r="L32" s="299"/>
+      <c r="L32" s="334"/>
       <c r="M32" s="32" t="s">
         <v>86</v>
       </c>
@@ -9009,16 +9009,16 @@
     </row>
     <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="19"/>
-      <c r="C33" s="292"/>
-      <c r="D33" s="293"/>
-      <c r="E33" s="293"/>
-      <c r="F33" s="293"/>
-      <c r="G33" s="293"/>
-      <c r="H33" s="294"/>
-      <c r="K33" s="299" t="s">
+      <c r="C33" s="302"/>
+      <c r="D33" s="303"/>
+      <c r="E33" s="303"/>
+      <c r="F33" s="303"/>
+      <c r="G33" s="303"/>
+      <c r="H33" s="304"/>
+      <c r="K33" s="334" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="299"/>
+      <c r="L33" s="334"/>
       <c r="M33" s="17" t="s">
         <v>86</v>
       </c>
@@ -9029,16 +9029,16 @@
     </row>
     <row r="34" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="19"/>
-      <c r="C34" s="295"/>
-      <c r="D34" s="296"/>
-      <c r="E34" s="296"/>
-      <c r="F34" s="296"/>
-      <c r="G34" s="296"/>
-      <c r="H34" s="297"/>
-      <c r="K34" s="299" t="s">
+      <c r="C34" s="305"/>
+      <c r="D34" s="306"/>
+      <c r="E34" s="306"/>
+      <c r="F34" s="306"/>
+      <c r="G34" s="306"/>
+      <c r="H34" s="307"/>
+      <c r="K34" s="334" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="299"/>
+      <c r="L34" s="334"/>
       <c r="M34" s="17" t="s">
         <v>86</v>
       </c>
@@ -9055,10 +9055,10 @@
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="K35" s="299" t="s">
+      <c r="K35" s="334" t="s">
         <v>89</v>
       </c>
-      <c r="L35" s="299"/>
+      <c r="L35" s="334"/>
       <c r="M35" s="32" t="s">
         <v>86</v>
       </c>
@@ -9069,38 +9069,38 @@
     </row>
     <row r="36" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="19"/>
-      <c r="K36" s="299"/>
-      <c r="L36" s="299"/>
+      <c r="K36" s="334"/>
+      <c r="L36" s="334"/>
       <c r="Q36" s="20"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
-      <c r="C37" s="289" t="s">
+      <c r="C37" s="335" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="290"/>
-      <c r="E37" s="290"/>
-      <c r="F37" s="290"/>
-      <c r="G37" s="290"/>
-      <c r="H37" s="291"/>
-      <c r="K37" s="298" t="s">
+      <c r="D37" s="300"/>
+      <c r="E37" s="300"/>
+      <c r="F37" s="300"/>
+      <c r="G37" s="300"/>
+      <c r="H37" s="301"/>
+      <c r="K37" s="312" t="s">
         <v>91</v>
       </c>
-      <c r="L37" s="298"/>
+      <c r="L37" s="312"/>
       <c r="Q37" s="20"/>
     </row>
     <row r="38" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="19"/>
-      <c r="C38" s="292"/>
-      <c r="D38" s="293"/>
-      <c r="E38" s="293"/>
-      <c r="F38" s="293"/>
-      <c r="G38" s="293"/>
-      <c r="H38" s="294"/>
-      <c r="K38" s="299" t="s">
+      <c r="C38" s="302"/>
+      <c r="D38" s="303"/>
+      <c r="E38" s="303"/>
+      <c r="F38" s="303"/>
+      <c r="G38" s="303"/>
+      <c r="H38" s="304"/>
+      <c r="K38" s="334" t="s">
         <v>89</v>
       </c>
-      <c r="L38" s="299"/>
+      <c r="L38" s="334"/>
       <c r="M38" s="32" t="s">
         <v>86</v>
       </c>
@@ -9111,22 +9111,22 @@
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="19"/>
-      <c r="C39" s="292"/>
-      <c r="D39" s="293"/>
-      <c r="E39" s="293"/>
-      <c r="F39" s="293"/>
-      <c r="G39" s="293"/>
-      <c r="H39" s="294"/>
+      <c r="C39" s="302"/>
+      <c r="D39" s="303"/>
+      <c r="E39" s="303"/>
+      <c r="F39" s="303"/>
+      <c r="G39" s="303"/>
+      <c r="H39" s="304"/>
       <c r="Q39" s="20"/>
     </row>
     <row r="40" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="19"/>
-      <c r="C40" s="295"/>
-      <c r="D40" s="296"/>
-      <c r="E40" s="296"/>
-      <c r="F40" s="296"/>
-      <c r="G40" s="296"/>
-      <c r="H40" s="297"/>
+      <c r="C40" s="305"/>
+      <c r="D40" s="306"/>
+      <c r="E40" s="306"/>
+      <c r="F40" s="306"/>
+      <c r="G40" s="306"/>
+      <c r="H40" s="307"/>
       <c r="Q40" s="20"/>
     </row>
     <row r="41" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9149,33 +9149,24 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="D3:O4"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="B6:Q8"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="C37:H40"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="C31:H34"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="C22:D22"/>
@@ -9192,24 +9183,33 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="C31:H34"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="C37:H40"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="D3:O4"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="B6:Q8"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9221,7 +9221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -9237,10 +9237,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="40.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="189" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="228"/>
+      <c r="C2" s="190"/>
     </row>
     <row r="3" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -9276,7 +9276,7 @@
         <v>342</v>
       </c>
       <c r="F4" s="153" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G4" s="154" t="s">
         <v>343</v>
@@ -9284,120 +9284,120 @@
       <c r="I4" s="176"/>
     </row>
     <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="214" t="s">
+      <c r="B6" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="215"/>
-      <c r="G6" s="215"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
     </row>
     <row r="7" spans="2:9" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="207" t="s">
+      <c r="C7" s="191" t="s">
         <v>344</v>
       </c>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="209"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="193"/>
     </row>
     <row r="8" spans="2:9" ht="67.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="206" t="s">
+      <c r="C8" s="196" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
     </row>
     <row r="9" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="207" t="s">
+      <c r="C9" s="191" t="s">
         <v>345</v>
       </c>
-      <c r="D9" s="208"/>
-      <c r="E9" s="208"/>
-      <c r="F9" s="208"/>
-      <c r="G9" s="209"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="193"/>
     </row>
     <row r="10" spans="2:9" ht="194.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="207" t="s">
-        <v>370</v>
-      </c>
-      <c r="D10" s="208"/>
-      <c r="E10" s="208"/>
-      <c r="F10" s="208"/>
-      <c r="G10" s="209"/>
+      <c r="C10" s="191" t="s">
+        <v>368</v>
+      </c>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="193"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="C11" s="195" t="s">
-        <v>367</v>
-      </c>
-      <c r="D11" s="195"/>
-      <c r="E11" s="195"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="195"/>
+      <c r="C11" s="197" t="s">
+        <v>365</v>
+      </c>
+      <c r="D11" s="197"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="197"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="C12" s="195" t="s">
+      <c r="C12" s="197" t="s">
         <v>338</v>
       </c>
-      <c r="D12" s="195"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="195"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="197"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="C13" s="195" t="s">
+      <c r="C13" s="197" t="s">
         <v>336</v>
       </c>
-      <c r="D13" s="195"/>
-      <c r="E13" s="195"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="195"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="C14" s="195" t="s">
+      <c r="C14" s="197" t="s">
         <v>337</v>
       </c>
-      <c r="D14" s="195"/>
-      <c r="E14" s="195"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="195"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="197"/>
     </row>
     <row r="15" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="220" t="s">
+      <c r="B15" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="220"/>
-      <c r="D15" s="220"/>
-      <c r="E15" s="220"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="220"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="208"/>
+      <c r="E15" s="208"/>
+      <c r="F15" s="208"/>
+      <c r="G15" s="208"/>
     </row>
     <row r="16" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="147" t="s">
@@ -9406,202 +9406,202 @@
       <c r="C16" s="147" t="s">
         <v>313</v>
       </c>
-      <c r="D16" s="221" t="s">
+      <c r="D16" s="209" t="s">
         <v>314</v>
       </c>
-      <c r="E16" s="221"/>
-      <c r="F16" s="221"/>
-      <c r="G16" s="221"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="209"/>
     </row>
     <row r="17" spans="2:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="193" t="s">
+      <c r="B17" s="187" t="s">
         <v>304</v>
       </c>
-      <c r="C17" s="225" t="s">
+      <c r="C17" s="201" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="222"/>
-      <c r="E17" s="223"/>
-      <c r="F17" s="223"/>
-      <c r="G17" s="224"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="212"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="193"/>
-      <c r="C18" s="226"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="195"/>
+      <c r="B18" s="187"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="197"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="193"/>
-      <c r="C19" s="225" t="s">
+      <c r="B19" s="187"/>
+      <c r="C19" s="201" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="195"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="195"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="197"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="193"/>
-      <c r="C20" s="226"/>
-      <c r="D20" s="195"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="195"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="197"/>
+      <c r="E20" s="197"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="197"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="193"/>
+      <c r="B21" s="187"/>
       <c r="C21" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="195"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="195"/>
-      <c r="G21" s="195"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="193"/>
+      <c r="B22" s="187"/>
       <c r="C22" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="195"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="195"/>
-      <c r="G22" s="195"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="197"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="194"/>
+      <c r="B23" s="188"/>
       <c r="C23" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="195"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="195"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="229" t="s">
+      <c r="B24" s="198" t="s">
         <v>305</v>
       </c>
-      <c r="C24" s="225" t="s">
+      <c r="C24" s="201" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="195"/>
-      <c r="E24" s="195"/>
-      <c r="F24" s="195"/>
-      <c r="G24" s="195"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="230"/>
-      <c r="C25" s="226"/>
-      <c r="D25" s="195"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="195"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="197"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="230"/>
+      <c r="B26" s="199"/>
       <c r="C26" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="195"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="195"/>
-      <c r="G26" s="195"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="197"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="230"/>
-      <c r="C27" s="225" t="s">
+      <c r="B27" s="199"/>
+      <c r="C27" s="201" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="195"/>
-      <c r="E27" s="195"/>
-      <c r="F27" s="195"/>
-      <c r="G27" s="195"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="197"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="231"/>
-      <c r="C28" s="226"/>
-      <c r="D28" s="195"/>
-      <c r="E28" s="195"/>
-      <c r="F28" s="195"/>
-      <c r="G28" s="195"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="229" t="s">
+      <c r="B29" s="198" t="s">
         <v>306</v>
       </c>
       <c r="C29" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="195"/>
-      <c r="E29" s="195"/>
-      <c r="F29" s="195"/>
-      <c r="G29" s="195"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="197"/>
+      <c r="G29" s="197"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="230"/>
+      <c r="B30" s="199"/>
       <c r="C30" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="195"/>
-      <c r="E30" s="195"/>
-      <c r="F30" s="195"/>
-      <c r="G30" s="195"/>
+      <c r="D30" s="197"/>
+      <c r="E30" s="197"/>
+      <c r="F30" s="197"/>
+      <c r="G30" s="197"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="230"/>
+      <c r="B31" s="199"/>
       <c r="C31" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="206"/>
-      <c r="E31" s="195"/>
-      <c r="F31" s="195"/>
-      <c r="G31" s="195"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="197"/>
+      <c r="G31" s="197"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="230"/>
+      <c r="B32" s="199"/>
       <c r="C32" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="195" t="s">
-        <v>368</v>
-      </c>
-      <c r="E32" s="195"/>
-      <c r="F32" s="195"/>
-      <c r="G32" s="195"/>
+      <c r="D32" s="197" t="s">
+        <v>366</v>
+      </c>
+      <c r="E32" s="197"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="230"/>
+      <c r="B33" s="199"/>
       <c r="C33" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="195"/>
-      <c r="E33" s="195"/>
-      <c r="F33" s="195"/>
-      <c r="G33" s="195"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="197"/>
     </row>
     <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="230"/>
+      <c r="B34" s="199"/>
       <c r="C34" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="195"/>
-      <c r="E34" s="195"/>
-      <c r="F34" s="195"/>
-      <c r="G34" s="195"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="197"/>
+      <c r="F34" s="197"/>
+      <c r="G34" s="197"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="62" t="s">
         <v>307</v>
       </c>
       <c r="C35" s="48"/>
-      <c r="D35" s="195"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="195"/>
-      <c r="G35" s="195"/>
+      <c r="D35" s="197"/>
+      <c r="E35" s="197"/>
+      <c r="F35" s="197"/>
+      <c r="G35" s="197"/>
     </row>
     <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="62" t="s">
@@ -9610,10 +9610,10 @@
       <c r="C36" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="195"/>
-      <c r="E36" s="195"/>
-      <c r="F36" s="195"/>
-      <c r="G36" s="195"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="197"/>
+      <c r="F36" s="197"/>
+      <c r="G36" s="197"/>
     </row>
     <row r="37" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B37" s="148" t="s">
@@ -9622,14 +9622,14 @@
       <c r="C37" s="147" t="s">
         <v>309</v>
       </c>
-      <c r="D37" s="196" t="s">
+      <c r="D37" s="222" t="s">
         <v>310</v>
       </c>
-      <c r="E37" s="197"/>
-      <c r="F37" s="196" t="s">
+      <c r="E37" s="223"/>
+      <c r="F37" s="222" t="s">
         <v>311</v>
       </c>
-      <c r="G37" s="197"/>
+      <c r="G37" s="223"/>
     </row>
     <row r="38" spans="2:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="155" t="s">
@@ -9638,278 +9638,278 @@
       <c r="C38" s="168" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="200" t="s">
+      <c r="D38" s="226" t="s">
         <v>156</v>
       </c>
-      <c r="E38" s="201"/>
-      <c r="F38" s="200" t="s">
+      <c r="E38" s="227"/>
+      <c r="F38" s="226" t="s">
         <v>156</v>
       </c>
-      <c r="G38" s="201"/>
+      <c r="G38" s="227"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="60"/>
       <c r="C39" s="168"/>
-      <c r="D39" s="204"/>
-      <c r="E39" s="205"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="203"/>
+      <c r="D39" s="230"/>
+      <c r="E39" s="231"/>
+      <c r="F39" s="228"/>
+      <c r="G39" s="229"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="60"/>
       <c r="C40" s="64"/>
-      <c r="D40" s="198"/>
-      <c r="E40" s="199"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="199"/>
+      <c r="D40" s="224"/>
+      <c r="E40" s="225"/>
+      <c r="F40" s="224"/>
+      <c r="G40" s="225"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="60"/>
       <c r="C41" s="64"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="199"/>
-      <c r="F41" s="198"/>
-      <c r="G41" s="199"/>
+      <c r="D41" s="224"/>
+      <c r="E41" s="225"/>
+      <c r="F41" s="224"/>
+      <c r="G41" s="225"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="60"/>
       <c r="C42" s="64"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="199"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="199"/>
+      <c r="D42" s="224"/>
+      <c r="E42" s="225"/>
+      <c r="F42" s="224"/>
+      <c r="G42" s="225"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="60"/>
       <c r="C43" s="64"/>
-      <c r="D43" s="198"/>
-      <c r="E43" s="199"/>
-      <c r="F43" s="198"/>
-      <c r="G43" s="199"/>
+      <c r="D43" s="224"/>
+      <c r="E43" s="225"/>
+      <c r="F43" s="224"/>
+      <c r="G43" s="225"/>
     </row>
     <row r="44" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="187" t="s">
+      <c r="B44" s="214" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="188"/>
-      <c r="D44" s="188"/>
-      <c r="E44" s="188"/>
-      <c r="F44" s="188"/>
-      <c r="G44" s="188"/>
+      <c r="C44" s="215"/>
+      <c r="D44" s="215"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="215"/>
+      <c r="G44" s="215"/>
     </row>
     <row r="45" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="192" t="s">
+      <c r="B45" s="232" t="s">
         <v>315</v>
       </c>
       <c r="C45" s="63"/>
-      <c r="D45" s="189" t="s">
+      <c r="D45" s="204" t="s">
         <v>156</v>
       </c>
-      <c r="E45" s="190"/>
-      <c r="F45" s="190"/>
-      <c r="G45" s="191"/>
+      <c r="E45" s="205"/>
+      <c r="F45" s="205"/>
+      <c r="G45" s="206"/>
     </row>
     <row r="46" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="193"/>
+      <c r="B46" s="187"/>
       <c r="C46" s="63"/>
-      <c r="D46" s="189" t="s">
+      <c r="D46" s="204" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="190"/>
-      <c r="F46" s="190"/>
-      <c r="G46" s="191"/>
+      <c r="E46" s="205"/>
+      <c r="F46" s="205"/>
+      <c r="G46" s="206"/>
     </row>
     <row r="47" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="193"/>
+      <c r="B47" s="187"/>
       <c r="C47" s="63"/>
-      <c r="D47" s="189" t="s">
+      <c r="D47" s="204" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="190"/>
-      <c r="F47" s="190"/>
-      <c r="G47" s="191"/>
+      <c r="E47" s="205"/>
+      <c r="F47" s="205"/>
+      <c r="G47" s="206"/>
     </row>
     <row r="48" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="193"/>
+      <c r="B48" s="187"/>
       <c r="C48" s="63"/>
-      <c r="D48" s="189" t="s">
+      <c r="D48" s="204" t="s">
         <v>156</v>
       </c>
-      <c r="E48" s="190"/>
-      <c r="F48" s="190"/>
-      <c r="G48" s="191"/>
+      <c r="E48" s="205"/>
+      <c r="F48" s="205"/>
+      <c r="G48" s="206"/>
     </row>
     <row r="49" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="193"/>
+      <c r="B49" s="187"/>
       <c r="C49" s="63"/>
-      <c r="D49" s="189" t="s">
+      <c r="D49" s="204" t="s">
         <v>156</v>
       </c>
-      <c r="E49" s="190"/>
-      <c r="F49" s="190"/>
-      <c r="G49" s="191"/>
+      <c r="E49" s="205"/>
+      <c r="F49" s="205"/>
+      <c r="G49" s="206"/>
     </row>
     <row r="50" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="193"/>
+      <c r="B50" s="187"/>
       <c r="C50" s="63"/>
-      <c r="D50" s="189" t="s">
+      <c r="D50" s="204" t="s">
         <v>156</v>
       </c>
-      <c r="E50" s="190"/>
-      <c r="F50" s="190"/>
-      <c r="G50" s="191"/>
+      <c r="E50" s="205"/>
+      <c r="F50" s="205"/>
+      <c r="G50" s="206"/>
     </row>
     <row r="51" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="194"/>
+      <c r="B51" s="188"/>
       <c r="C51" s="63"/>
-      <c r="D51" s="189" t="s">
+      <c r="D51" s="204" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="190"/>
-      <c r="F51" s="190"/>
-      <c r="G51" s="191"/>
+      <c r="E51" s="205"/>
+      <c r="F51" s="205"/>
+      <c r="G51" s="206"/>
     </row>
     <row r="52" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="193" t="s">
+      <c r="B52" s="187" t="s">
         <v>316</v>
       </c>
       <c r="C52" s="63"/>
-      <c r="D52" s="189" t="s">
+      <c r="D52" s="204" t="s">
         <v>156</v>
       </c>
-      <c r="E52" s="190"/>
-      <c r="F52" s="190"/>
-      <c r="G52" s="191"/>
+      <c r="E52" s="205"/>
+      <c r="F52" s="205"/>
+      <c r="G52" s="206"/>
     </row>
     <row r="53" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="193"/>
+      <c r="B53" s="187"/>
       <c r="C53" s="63"/>
-      <c r="D53" s="189" t="s">
+      <c r="D53" s="204" t="s">
         <v>156</v>
       </c>
-      <c r="E53" s="190"/>
-      <c r="F53" s="190"/>
-      <c r="G53" s="191"/>
+      <c r="E53" s="205"/>
+      <c r="F53" s="205"/>
+      <c r="G53" s="206"/>
     </row>
     <row r="54" spans="2:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="193"/>
+      <c r="B54" s="187"/>
       <c r="C54" s="63"/>
-      <c r="D54" s="218" t="s">
+      <c r="D54" s="207" t="s">
         <v>156</v>
       </c>
-      <c r="E54" s="218"/>
-      <c r="F54" s="219"/>
-      <c r="G54" s="219"/>
+      <c r="E54" s="207"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="213"/>
     </row>
     <row r="55" spans="2:7" ht="109.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="193"/>
+      <c r="B55" s="187"/>
       <c r="C55" s="63"/>
-      <c r="D55" s="218" t="s">
+      <c r="D55" s="207" t="s">
         <v>156</v>
       </c>
-      <c r="E55" s="218"/>
-      <c r="F55" s="219"/>
-      <c r="G55" s="219"/>
+      <c r="E55" s="207"/>
+      <c r="F55" s="213"/>
+      <c r="G55" s="213"/>
     </row>
     <row r="56" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="194"/>
+      <c r="B56" s="188"/>
       <c r="C56" s="63"/>
-      <c r="D56" s="232"/>
-      <c r="E56" s="232"/>
-      <c r="F56" s="232"/>
-      <c r="G56" s="232"/>
+      <c r="D56" s="203"/>
+      <c r="E56" s="203"/>
+      <c r="F56" s="203"/>
+      <c r="G56" s="203"/>
     </row>
     <row r="57" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="187" t="s">
+      <c r="B57" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="C57" s="188"/>
-      <c r="D57" s="188"/>
-      <c r="E57" s="188"/>
-      <c r="F57" s="188"/>
-      <c r="G57" s="188"/>
+      <c r="C57" s="215"/>
+      <c r="D57" s="215"/>
+      <c r="E57" s="215"/>
+      <c r="F57" s="215"/>
+      <c r="G57" s="215"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="C58" s="195" t="s">
+      <c r="C58" s="197" t="s">
         <v>156</v>
       </c>
-      <c r="D58" s="195"/>
-      <c r="E58" s="195"/>
-      <c r="F58" s="195"/>
-      <c r="G58" s="195"/>
+      <c r="D58" s="197"/>
+      <c r="E58" s="197"/>
+      <c r="F58" s="197"/>
+      <c r="G58" s="197"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="C59" s="195" t="s">
+      <c r="C59" s="197" t="s">
         <v>156</v>
       </c>
-      <c r="D59" s="195"/>
-      <c r="E59" s="195"/>
-      <c r="F59" s="195"/>
-      <c r="G59" s="195"/>
+      <c r="D59" s="197"/>
+      <c r="E59" s="197"/>
+      <c r="F59" s="197"/>
+      <c r="G59" s="197"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="C60" s="195" t="s">
+      <c r="C60" s="197" t="s">
         <v>156</v>
       </c>
-      <c r="D60" s="195"/>
-      <c r="E60" s="195"/>
-      <c r="F60" s="195"/>
-      <c r="G60" s="195"/>
+      <c r="D60" s="197"/>
+      <c r="E60" s="197"/>
+      <c r="F60" s="197"/>
+      <c r="G60" s="197"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="C61" s="195" t="s">
+      <c r="C61" s="197" t="s">
         <v>156</v>
       </c>
-      <c r="D61" s="195"/>
-      <c r="E61" s="195"/>
-      <c r="F61" s="195"/>
-      <c r="G61" s="195"/>
+      <c r="D61" s="197"/>
+      <c r="E61" s="197"/>
+      <c r="F61" s="197"/>
+      <c r="G61" s="197"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="C62" s="195" t="s">
+      <c r="C62" s="197" t="s">
         <v>156</v>
       </c>
-      <c r="D62" s="195"/>
-      <c r="E62" s="195"/>
-      <c r="F62" s="195"/>
-      <c r="G62" s="195"/>
+      <c r="D62" s="197"/>
+      <c r="E62" s="197"/>
+      <c r="F62" s="197"/>
+      <c r="G62" s="197"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="C63" s="195" t="s">
+      <c r="C63" s="197" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="195"/>
-      <c r="E63" s="195"/>
-      <c r="F63" s="195"/>
-      <c r="G63" s="195"/>
+      <c r="D63" s="197"/>
+      <c r="E63" s="197"/>
+      <c r="F63" s="197"/>
+      <c r="G63" s="197"/>
     </row>
     <row r="64" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="187" t="s">
+      <c r="B64" s="214" t="s">
         <v>298</v>
       </c>
-      <c r="C64" s="188"/>
-      <c r="D64" s="188"/>
-      <c r="E64" s="188"/>
-      <c r="F64" s="188"/>
-      <c r="G64" s="188"/>
+      <c r="C64" s="215"/>
+      <c r="D64" s="215"/>
+      <c r="E64" s="215"/>
+      <c r="F64" s="215"/>
+      <c r="G64" s="215"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="51" t="s">
@@ -9925,13 +9925,13 @@
       <c r="B66" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="C66" s="206" t="s">
+      <c r="C66" s="196" t="s">
         <v>156</v>
       </c>
-      <c r="D66" s="206"/>
-      <c r="E66" s="206"/>
-      <c r="F66" s="206"/>
-      <c r="G66" s="206"/>
+      <c r="D66" s="196"/>
+      <c r="E66" s="196"/>
+      <c r="F66" s="196"/>
+      <c r="G66" s="196"/>
     </row>
     <row r="67" spans="2:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="51" t="s">
@@ -9940,73 +9940,143 @@
       <c r="C67" s="156" t="s">
         <v>329</v>
       </c>
-      <c r="D67" s="206" t="s">
+      <c r="D67" s="196" t="s">
         <v>339</v>
       </c>
-      <c r="E67" s="206"/>
-      <c r="F67" s="206"/>
-      <c r="G67" s="206"/>
+      <c r="E67" s="196"/>
+      <c r="F67" s="196"/>
+      <c r="G67" s="196"/>
     </row>
     <row r="68" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="214" t="s">
+      <c r="B68" s="194" t="s">
         <v>299</v>
       </c>
-      <c r="C68" s="215"/>
-      <c r="D68" s="215"/>
-      <c r="E68" s="215"/>
-      <c r="F68" s="215"/>
-      <c r="G68" s="215"/>
+      <c r="C68" s="195"/>
+      <c r="D68" s="195"/>
+      <c r="E68" s="195"/>
+      <c r="F68" s="195"/>
+      <c r="G68" s="195"/>
     </row>
     <row r="69" spans="2:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="C69" s="207" t="s">
-        <v>369</v>
-      </c>
-      <c r="D69" s="208"/>
-      <c r="E69" s="208"/>
-      <c r="F69" s="208"/>
-      <c r="G69" s="209"/>
+      <c r="C69" s="191" t="s">
+        <v>367</v>
+      </c>
+      <c r="D69" s="192"/>
+      <c r="E69" s="192"/>
+      <c r="F69" s="192"/>
+      <c r="G69" s="193"/>
     </row>
     <row r="70" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="C70" s="210" t="s">
+      <c r="C70" s="218" t="s">
         <v>156</v>
       </c>
-      <c r="D70" s="210"/>
-      <c r="E70" s="210"/>
-      <c r="F70" s="210"/>
-      <c r="G70" s="210"/>
+      <c r="D70" s="218"/>
+      <c r="E70" s="218"/>
+      <c r="F70" s="218"/>
+      <c r="G70" s="218"/>
     </row>
     <row r="71" spans="2:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="C71" s="210" t="s">
+      <c r="C71" s="218" t="s">
         <v>156</v>
       </c>
-      <c r="D71" s="210"/>
-      <c r="E71" s="210"/>
-      <c r="F71" s="210"/>
-      <c r="G71" s="210"/>
+      <c r="D71" s="218"/>
+      <c r="E71" s="218"/>
+      <c r="F71" s="218"/>
+      <c r="G71" s="218"/>
     </row>
     <row r="72" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="C72" s="211" t="s">
+      <c r="C72" s="219" t="s">
         <v>346</v>
       </c>
-      <c r="D72" s="212"/>
-      <c r="E72" s="212"/>
-      <c r="F72" s="212"/>
-      <c r="G72" s="213"/>
+      <c r="D72" s="220"/>
+      <c r="E72" s="220"/>
+      <c r="F72" s="220"/>
+      <c r="G72" s="221"/>
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="C7:G7"/>
@@ -10023,76 +10093,6 @@
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="D50:G50"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B45:B51"/>
   </mergeCells>
   <conditionalFormatting sqref="C65">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
@@ -10690,8 +10690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:K17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10713,74 +10713,74 @@
   <sheetData>
     <row r="1" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="244" t="s">
+      <c r="B2" s="251" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="245"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="245"/>
-      <c r="O2" s="245"/>
-      <c r="P2" s="245"/>
-      <c r="Q2" s="245"/>
-      <c r="R2" s="246"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="252"/>
+      <c r="R2" s="253"/>
     </row>
     <row r="3" spans="1:18" s="52" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="247" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="240" t="s">
+      <c r="C3" s="247" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="240" t="s">
+      <c r="D3" s="247" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="240" t="s">
+      <c r="E3" s="247" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="240" t="s">
+      <c r="F3" s="247" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="240" t="s">
+      <c r="G3" s="247" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="235" t="s">
+      <c r="H3" s="258" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="238" t="s">
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="254" t="s">
         <v>130</v>
       </c>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="240" t="s">
+      <c r="M3" s="255"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="240" t="s">
+      <c r="Q3" s="247" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="242" t="s">
+      <c r="R3" s="249" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="46" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="241"/>
+      <c r="B4" s="248"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
       <c r="H4" s="47" t="s">
         <v>118</v>
       </c>
@@ -10805,9 +10805,9 @@
       <c r="O4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="241"/>
-      <c r="Q4" s="241"/>
-      <c r="R4" s="243"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="250"/>
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="178">
@@ -10820,16 +10820,16 @@
         <v>347</v>
       </c>
       <c r="E5" s="179" t="s">
+        <v>349</v>
+      </c>
+      <c r="F5" s="179" t="s">
         <v>350</v>
       </c>
-      <c r="F5" s="179" t="s">
-        <v>351</v>
-      </c>
       <c r="G5" s="179" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H5" s="179" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I5" s="179" t="s">
         <v>156</v>
@@ -10936,74 +10936,74 @@
       <c r="R9" s="58"/>
     </row>
     <row r="10" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="244" t="s">
+      <c r="B10" s="251" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="245"/>
-      <c r="D10" s="245"/>
-      <c r="E10" s="245"/>
-      <c r="F10" s="245"/>
-      <c r="G10" s="245"/>
-      <c r="H10" s="245"/>
-      <c r="I10" s="245"/>
-      <c r="J10" s="245"/>
-      <c r="K10" s="245"/>
-      <c r="L10" s="245"/>
-      <c r="M10" s="245"/>
-      <c r="N10" s="245"/>
-      <c r="O10" s="245"/>
-      <c r="P10" s="245"/>
-      <c r="Q10" s="245"/>
-      <c r="R10" s="246"/>
+      <c r="C10" s="252"/>
+      <c r="D10" s="252"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="252"/>
+      <c r="G10" s="252"/>
+      <c r="H10" s="252"/>
+      <c r="I10" s="252"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="252"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="252"/>
+      <c r="N10" s="252"/>
+      <c r="O10" s="252"/>
+      <c r="P10" s="252"/>
+      <c r="Q10" s="252"/>
+      <c r="R10" s="253"/>
     </row>
     <row r="11" spans="1:18" s="52" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="240" t="s">
+      <c r="B11" s="247" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="240" t="s">
+      <c r="C11" s="247" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="240" t="s">
+      <c r="D11" s="247" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="240" t="s">
+      <c r="E11" s="247" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="240" t="s">
+      <c r="F11" s="247" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="240" t="s">
+      <c r="G11" s="247" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="235" t="s">
+      <c r="H11" s="258" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="236"/>
-      <c r="J11" s="236"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="238" t="s">
+      <c r="I11" s="259"/>
+      <c r="J11" s="259"/>
+      <c r="K11" s="260"/>
+      <c r="L11" s="254" t="s">
         <v>130</v>
       </c>
-      <c r="M11" s="239"/>
-      <c r="N11" s="239"/>
-      <c r="O11" s="239"/>
-      <c r="P11" s="240" t="s">
+      <c r="M11" s="255"/>
+      <c r="N11" s="255"/>
+      <c r="O11" s="255"/>
+      <c r="P11" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="240" t="s">
+      <c r="Q11" s="247" t="s">
         <v>23</v>
       </c>
-      <c r="R11" s="242" t="s">
+      <c r="R11" s="249" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="46" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="247"/>
-      <c r="C12" s="247"/>
-      <c r="D12" s="247"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="247"/>
+      <c r="B12" s="256"/>
+      <c r="C12" s="256"/>
+      <c r="D12" s="256"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
       <c r="H12" s="170" t="s">
         <v>118</v>
       </c>
@@ -11028,207 +11028,207 @@
       <c r="O12" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="247"/>
-      <c r="Q12" s="247"/>
-      <c r="R12" s="248"/>
+      <c r="P12" s="256"/>
+      <c r="Q12" s="256"/>
+      <c r="R12" s="257"/>
     </row>
     <row r="13" spans="1:18" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="38">
         <v>1</v>
       </c>
-      <c r="C13" s="256" t="s">
+      <c r="C13" s="241" t="s">
         <v>348</v>
       </c>
-      <c r="D13" s="258" t="s">
+      <c r="D13" s="243" t="s">
+        <v>370</v>
+      </c>
+      <c r="E13" s="242" t="s">
         <v>349</v>
       </c>
-      <c r="E13" s="257" t="s">
-        <v>350</v>
-      </c>
-      <c r="F13" s="258" t="s">
-        <v>352</v>
-      </c>
-      <c r="G13" s="253" t="s">
-        <v>354</v>
-      </c>
-      <c r="H13" s="254" t="s">
+      <c r="F13" s="243" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13" s="238" t="s">
+        <v>353</v>
+      </c>
+      <c r="H13" s="239" t="s">
+        <v>355</v>
+      </c>
+      <c r="I13" s="237" t="s">
         <v>356</v>
       </c>
-      <c r="I13" s="252" t="s">
+      <c r="J13" s="237" t="s">
         <v>357</v>
       </c>
-      <c r="J13" s="252" t="s">
+      <c r="K13" s="238" t="s">
         <v>358</v>
       </c>
-      <c r="K13" s="253" t="s">
-        <v>359</v>
-      </c>
-      <c r="L13" s="254"/>
-      <c r="M13" s="255"/>
-      <c r="N13" s="255"/>
-      <c r="O13" s="261"/>
-      <c r="P13" s="261"/>
-      <c r="Q13" s="261"/>
-      <c r="R13" s="261"/>
+      <c r="L13" s="239"/>
+      <c r="M13" s="240"/>
+      <c r="N13" s="240"/>
+      <c r="O13" s="246"/>
+      <c r="P13" s="246"/>
+      <c r="Q13" s="246"/>
+      <c r="R13" s="246"/>
     </row>
     <row r="14" spans="1:18" s="4" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="38">
         <v>2</v>
       </c>
-      <c r="C14" s="256"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="257"/>
-      <c r="F14" s="259"/>
-      <c r="G14" s="253"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="252"/>
-      <c r="J14" s="252"/>
-      <c r="K14" s="253"/>
-      <c r="L14" s="254"/>
-      <c r="M14" s="255"/>
-      <c r="N14" s="255"/>
-      <c r="O14" s="261"/>
-      <c r="P14" s="261"/>
-      <c r="Q14" s="261"/>
-      <c r="R14" s="261"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="244"/>
+      <c r="E14" s="242"/>
+      <c r="F14" s="244"/>
+      <c r="G14" s="238"/>
+      <c r="H14" s="239"/>
+      <c r="I14" s="237"/>
+      <c r="J14" s="237"/>
+      <c r="K14" s="238"/>
+      <c r="L14" s="239"/>
+      <c r="M14" s="240"/>
+      <c r="N14" s="240"/>
+      <c r="O14" s="246"/>
+      <c r="P14" s="246"/>
+      <c r="Q14" s="246"/>
+      <c r="R14" s="246"/>
     </row>
     <row r="15" spans="1:18" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="175">
         <v>3</v>
       </c>
-      <c r="C15" s="256"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="257"/>
-      <c r="F15" s="259"/>
-      <c r="G15" s="253"/>
-      <c r="H15" s="254"/>
-      <c r="I15" s="252"/>
-      <c r="J15" s="252"/>
-      <c r="K15" s="253"/>
-      <c r="L15" s="254"/>
-      <c r="M15" s="255"/>
-      <c r="N15" s="255"/>
-      <c r="O15" s="261"/>
-      <c r="P15" s="261"/>
-      <c r="Q15" s="261"/>
-      <c r="R15" s="261"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="242"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="238"/>
+      <c r="H15" s="239"/>
+      <c r="I15" s="237"/>
+      <c r="J15" s="237"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="239"/>
+      <c r="M15" s="240"/>
+      <c r="N15" s="240"/>
+      <c r="O15" s="246"/>
+      <c r="P15" s="246"/>
+      <c r="Q15" s="246"/>
+      <c r="R15" s="246"/>
     </row>
     <row r="16" spans="1:18" s="4" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="175">
         <v>4</v>
       </c>
-      <c r="C16" s="256"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="257"/>
-      <c r="F16" s="259"/>
-      <c r="G16" s="253"/>
-      <c r="H16" s="254"/>
-      <c r="I16" s="252"/>
-      <c r="J16" s="252"/>
-      <c r="K16" s="253"/>
-      <c r="L16" s="254"/>
-      <c r="M16" s="255"/>
-      <c r="N16" s="255"/>
-      <c r="O16" s="261"/>
-      <c r="P16" s="261"/>
-      <c r="Q16" s="261"/>
-      <c r="R16" s="261"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="244"/>
+      <c r="E16" s="242"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="238"/>
+      <c r="H16" s="239"/>
+      <c r="I16" s="237"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="238"/>
+      <c r="L16" s="239"/>
+      <c r="M16" s="240"/>
+      <c r="N16" s="240"/>
+      <c r="O16" s="246"/>
+      <c r="P16" s="246"/>
+      <c r="Q16" s="246"/>
+      <c r="R16" s="246"/>
     </row>
     <row r="17" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="175">
         <v>5</v>
       </c>
-      <c r="C17" s="256"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="257"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="253"/>
-      <c r="H17" s="254"/>
-      <c r="I17" s="252"/>
-      <c r="J17" s="252"/>
-      <c r="K17" s="253"/>
-      <c r="L17" s="254"/>
-      <c r="M17" s="255"/>
-      <c r="N17" s="255"/>
-      <c r="O17" s="261"/>
-      <c r="P17" s="261"/>
-      <c r="Q17" s="261"/>
-      <c r="R17" s="261"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="245"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="245"/>
+      <c r="G17" s="238"/>
+      <c r="H17" s="239"/>
+      <c r="I17" s="237"/>
+      <c r="J17" s="237"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="239"/>
+      <c r="M17" s="240"/>
+      <c r="N17" s="240"/>
+      <c r="O17" s="246"/>
+      <c r="P17" s="246"/>
+      <c r="Q17" s="246"/>
+      <c r="R17" s="246"/>
     </row>
     <row r="18" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="249" t="s">
+      <c r="B18" s="234" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="250"/>
-      <c r="D18" s="250"/>
-      <c r="E18" s="250"/>
-      <c r="F18" s="250"/>
-      <c r="G18" s="250"/>
-      <c r="H18" s="250"/>
-      <c r="I18" s="250"/>
-      <c r="J18" s="250"/>
-      <c r="K18" s="250"/>
-      <c r="L18" s="250"/>
-      <c r="M18" s="250"/>
-      <c r="N18" s="250"/>
-      <c r="O18" s="250"/>
-      <c r="P18" s="250"/>
-      <c r="Q18" s="250"/>
-      <c r="R18" s="251"/>
+      <c r="C18" s="235"/>
+      <c r="D18" s="235"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
+      <c r="K18" s="235"/>
+      <c r="L18" s="235"/>
+      <c r="M18" s="235"/>
+      <c r="N18" s="235"/>
+      <c r="O18" s="235"/>
+      <c r="P18" s="235"/>
+      <c r="Q18" s="235"/>
+      <c r="R18" s="236"/>
     </row>
     <row r="19" spans="1:18" s="52" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="240" t="s">
+      <c r="B19" s="247" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="240" t="s">
+      <c r="C19" s="247" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="240" t="s">
+      <c r="D19" s="247" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="240" t="s">
+      <c r="E19" s="247" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="240" t="s">
+      <c r="F19" s="247" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="240" t="s">
+      <c r="G19" s="247" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="235" t="s">
+      <c r="H19" s="258" t="s">
         <v>129</v>
       </c>
-      <c r="I19" s="236"/>
-      <c r="J19" s="236"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="238" t="s">
+      <c r="I19" s="259"/>
+      <c r="J19" s="259"/>
+      <c r="K19" s="260"/>
+      <c r="L19" s="254" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="239"/>
-      <c r="N19" s="239"/>
-      <c r="O19" s="239"/>
-      <c r="P19" s="240" t="s">
+      <c r="M19" s="255"/>
+      <c r="N19" s="255"/>
+      <c r="O19" s="255"/>
+      <c r="P19" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="Q19" s="240" t="s">
+      <c r="Q19" s="247" t="s">
         <v>23</v>
       </c>
-      <c r="R19" s="242" t="s">
+      <c r="R19" s="249" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="46" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="241"/>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="241"/>
-      <c r="G20" s="241"/>
+      <c r="B20" s="248"/>
+      <c r="C20" s="248"/>
+      <c r="D20" s="248"/>
+      <c r="E20" s="248"/>
+      <c r="F20" s="248"/>
+      <c r="G20" s="248"/>
       <c r="H20" s="47" t="s">
         <v>118</v>
       </c>
@@ -11253,9 +11253,9 @@
       <c r="O20" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="P20" s="241"/>
-      <c r="Q20" s="241"/>
-      <c r="R20" s="243"/>
+      <c r="P20" s="248"/>
+      <c r="Q20" s="248"/>
+      <c r="R20" s="250"/>
     </row>
     <row r="21" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="158">
@@ -11368,34 +11368,71 @@
       <c r="R24" s="2"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="234"/>
+      <c r="C36" s="261"/>
       <c r="D36" s="177"/>
       <c r="E36" s="177"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="234"/>
+      <c r="C37" s="261"/>
       <c r="D37" s="177"/>
       <c r="E37" s="177"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="234"/>
+      <c r="C38" s="261"/>
       <c r="D38" s="177"/>
       <c r="E38" s="177"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="234"/>
+      <c r="C39" s="261"/>
       <c r="D39" s="177"/>
       <c r="E39" s="177"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="234"/>
+      <c r="C40" s="261"/>
       <c r="D40" s="177"/>
       <c r="E40" s="177"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="54">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="R13:R17"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="L3:O3"/>
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="J13:J17"/>
     <mergeCell ref="K13:K17"/>
@@ -11412,43 +11449,6 @@
     <mergeCell ref="O13:O17"/>
     <mergeCell ref="P13:P17"/>
     <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="P19:P20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11784,7 +11784,7 @@
   <dimension ref="B1:R10"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="136.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11794,74 +11794,74 @@
   <sheetData>
     <row r="1" spans="2:18" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="244" t="s">
+      <c r="B2" s="251" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="245"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="245"/>
-      <c r="O2" s="245"/>
-      <c r="P2" s="245"/>
-      <c r="Q2" s="245"/>
-      <c r="R2" s="246"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="252"/>
+      <c r="R2" s="253"/>
     </row>
     <row r="3" spans="2:18" s="52" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="247" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="240" t="s">
+      <c r="C3" s="247" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="240" t="s">
+      <c r="D3" s="247" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="240" t="s">
+      <c r="E3" s="247" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="240" t="s">
+      <c r="F3" s="247" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="240" t="s">
+      <c r="G3" s="247" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="235" t="s">
+      <c r="H3" s="258" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="238" t="s">
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="254" t="s">
         <v>130</v>
       </c>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="240" t="s">
+      <c r="M3" s="255"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="240" t="s">
+      <c r="Q3" s="247" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="242" t="s">
+      <c r="R3" s="249" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:18" s="46" customFormat="1" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="241"/>
+      <c r="B4" s="248"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
       <c r="H4" s="47" t="s">
         <v>118</v>
       </c>
@@ -11886,16 +11886,16 @@
       <c r="O4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="241"/>
-      <c r="Q4" s="241"/>
-      <c r="R4" s="243"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="250"/>
     </row>
     <row r="5" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="184">
         <v>1</v>
       </c>
       <c r="C5" s="262" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D5" s="157" t="s">
         <v>156</v>
